--- a/work-in-progress/Peppol Code Lists - Participant identifier schemes v9.5.xlsx
+++ b/work-in-progress/Peppol Code Lists - Participant identifier schemes v9.5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AAF882-E48B-6D4C-8822-5A1EF19DAA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FCBF6D8-66A0-E14E-80F9-DBC82EC376F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2270,7 +2270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2280,6 +2280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEBE53D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2305,7 +2311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -2373,12 +2379,36 @@
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFEBE53D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3004,10 +3034,10 @@
   <dimension ref="A1:AMN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A47" sqref="A47"/>
+      <selection pane="bottomRight" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8468,7 +8498,7 @@
       <c r="AMM36" s="12"/>
       <c r="AMN36" s="12"/>
     </row>
-    <row r="37" spans="1:1028" ht="192" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1028" ht="208" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>505</v>
       </c>
@@ -16270,43 +16300,1058 @@
       <c r="AML54" s="12"/>
       <c r="AMM54" s="12"/>
     </row>
-    <row r="55" spans="1:1027" ht="48" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:1027" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A55" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="25" t="s">
         <v>339</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="L55" s="7" t="s">
+      <c r="I55" s="31"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="M55" s="27" t="s">
         <v>444</v>
       </c>
-      <c r="N55" s="4" t="s">
+      <c r="N55" s="25" t="s">
         <v>408</v>
       </c>
-      <c r="O55" s="7" t="s">
+      <c r="O55" s="27" t="s">
         <v>528</v>
       </c>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+      <c r="AF55" s="25"/>
+      <c r="AG55" s="25"/>
+      <c r="AH55" s="25"/>
+      <c r="AI55" s="25"/>
+      <c r="AJ55" s="25"/>
+      <c r="AK55" s="25"/>
+      <c r="AL55" s="25"/>
+      <c r="AM55" s="25"/>
+      <c r="AN55" s="25"/>
+      <c r="AO55" s="25"/>
+      <c r="AP55" s="25"/>
+      <c r="AQ55" s="25"/>
+      <c r="AR55" s="25"/>
+      <c r="AS55" s="25"/>
+      <c r="AT55" s="25"/>
+      <c r="AU55" s="25"/>
+      <c r="AV55" s="25"/>
+      <c r="AW55" s="25"/>
+      <c r="AX55" s="25"/>
+      <c r="AY55" s="25"/>
+      <c r="AZ55" s="25"/>
+      <c r="BA55" s="25"/>
+      <c r="BB55" s="25"/>
+      <c r="BC55" s="25"/>
+      <c r="BD55" s="25"/>
+      <c r="BE55" s="25"/>
+      <c r="BF55" s="25"/>
+      <c r="BG55" s="25"/>
+      <c r="BH55" s="25"/>
+      <c r="BI55" s="25"/>
+      <c r="BJ55" s="25"/>
+      <c r="BK55" s="25"/>
+      <c r="BL55" s="25"/>
+      <c r="BM55" s="25"/>
+      <c r="BN55" s="25"/>
+      <c r="BO55" s="25"/>
+      <c r="BP55" s="25"/>
+      <c r="BQ55" s="25"/>
+      <c r="BR55" s="25"/>
+      <c r="BS55" s="25"/>
+      <c r="BT55" s="25"/>
+      <c r="BU55" s="25"/>
+      <c r="BV55" s="25"/>
+      <c r="BW55" s="25"/>
+      <c r="BX55" s="25"/>
+      <c r="BY55" s="25"/>
+      <c r="BZ55" s="25"/>
+      <c r="CA55" s="25"/>
+      <c r="CB55" s="25"/>
+      <c r="CC55" s="25"/>
+      <c r="CD55" s="25"/>
+      <c r="CE55" s="25"/>
+      <c r="CF55" s="25"/>
+      <c r="CG55" s="25"/>
+      <c r="CH55" s="25"/>
+      <c r="CI55" s="25"/>
+      <c r="CJ55" s="25"/>
+      <c r="CK55" s="25"/>
+      <c r="CL55" s="25"/>
+      <c r="CM55" s="25"/>
+      <c r="CN55" s="25"/>
+      <c r="CO55" s="25"/>
+      <c r="CP55" s="25"/>
+      <c r="CQ55" s="25"/>
+      <c r="CR55" s="25"/>
+      <c r="CS55" s="25"/>
+      <c r="CT55" s="25"/>
+      <c r="CU55" s="25"/>
+      <c r="CV55" s="25"/>
+      <c r="CW55" s="25"/>
+      <c r="CX55" s="25"/>
+      <c r="CY55" s="25"/>
+      <c r="CZ55" s="25"/>
+      <c r="DA55" s="25"/>
+      <c r="DB55" s="25"/>
+      <c r="DC55" s="25"/>
+      <c r="DD55" s="25"/>
+      <c r="DE55" s="25"/>
+      <c r="DF55" s="25"/>
+      <c r="DG55" s="25"/>
+      <c r="DH55" s="25"/>
+      <c r="DI55" s="25"/>
+      <c r="DJ55" s="25"/>
+      <c r="DK55" s="25"/>
+      <c r="DL55" s="25"/>
+      <c r="DM55" s="25"/>
+      <c r="DN55" s="25"/>
+      <c r="DO55" s="25"/>
+      <c r="DP55" s="25"/>
+      <c r="DQ55" s="25"/>
+      <c r="DR55" s="25"/>
+      <c r="DS55" s="25"/>
+      <c r="DT55" s="25"/>
+      <c r="DU55" s="25"/>
+      <c r="DV55" s="25"/>
+      <c r="DW55" s="25"/>
+      <c r="DX55" s="25"/>
+      <c r="DY55" s="25"/>
+      <c r="DZ55" s="25"/>
+      <c r="EA55" s="25"/>
+      <c r="EB55" s="25"/>
+      <c r="EC55" s="25"/>
+      <c r="ED55" s="25"/>
+      <c r="EE55" s="25"/>
+      <c r="EF55" s="25"/>
+      <c r="EG55" s="25"/>
+      <c r="EH55" s="25"/>
+      <c r="EI55" s="25"/>
+      <c r="EJ55" s="25"/>
+      <c r="EK55" s="25"/>
+      <c r="EL55" s="25"/>
+      <c r="EM55" s="25"/>
+      <c r="EN55" s="25"/>
+      <c r="EO55" s="25"/>
+      <c r="EP55" s="25"/>
+      <c r="EQ55" s="25"/>
+      <c r="ER55" s="25"/>
+      <c r="ES55" s="25"/>
+      <c r="ET55" s="25"/>
+      <c r="EU55" s="25"/>
+      <c r="EV55" s="25"/>
+      <c r="EW55" s="25"/>
+      <c r="EX55" s="25"/>
+      <c r="EY55" s="25"/>
+      <c r="EZ55" s="25"/>
+      <c r="FA55" s="25"/>
+      <c r="FB55" s="25"/>
+      <c r="FC55" s="25"/>
+      <c r="FD55" s="25"/>
+      <c r="FE55" s="25"/>
+      <c r="FF55" s="25"/>
+      <c r="FG55" s="25"/>
+      <c r="FH55" s="25"/>
+      <c r="FI55" s="25"/>
+      <c r="FJ55" s="25"/>
+      <c r="FK55" s="25"/>
+      <c r="FL55" s="25"/>
+      <c r="FM55" s="25"/>
+      <c r="FN55" s="25"/>
+      <c r="FO55" s="25"/>
+      <c r="FP55" s="25"/>
+      <c r="FQ55" s="25"/>
+      <c r="FR55" s="25"/>
+      <c r="FS55" s="25"/>
+      <c r="FT55" s="25"/>
+      <c r="FU55" s="25"/>
+      <c r="FV55" s="25"/>
+      <c r="FW55" s="25"/>
+      <c r="FX55" s="25"/>
+      <c r="FY55" s="25"/>
+      <c r="FZ55" s="25"/>
+      <c r="GA55" s="25"/>
+      <c r="GB55" s="25"/>
+      <c r="GC55" s="25"/>
+      <c r="GD55" s="25"/>
+      <c r="GE55" s="25"/>
+      <c r="GF55" s="25"/>
+      <c r="GG55" s="25"/>
+      <c r="GH55" s="25"/>
+      <c r="GI55" s="25"/>
+      <c r="GJ55" s="25"/>
+      <c r="GK55" s="25"/>
+      <c r="GL55" s="25"/>
+      <c r="GM55" s="25"/>
+      <c r="GN55" s="25"/>
+      <c r="GO55" s="25"/>
+      <c r="GP55" s="25"/>
+      <c r="GQ55" s="25"/>
+      <c r="GR55" s="25"/>
+      <c r="GS55" s="25"/>
+      <c r="GT55" s="25"/>
+      <c r="GU55" s="25"/>
+      <c r="GV55" s="25"/>
+      <c r="GW55" s="25"/>
+      <c r="GX55" s="25"/>
+      <c r="GY55" s="25"/>
+      <c r="GZ55" s="25"/>
+      <c r="HA55" s="25"/>
+      <c r="HB55" s="25"/>
+      <c r="HC55" s="25"/>
+      <c r="HD55" s="25"/>
+      <c r="HE55" s="25"/>
+      <c r="HF55" s="25"/>
+      <c r="HG55" s="25"/>
+      <c r="HH55" s="25"/>
+      <c r="HI55" s="25"/>
+      <c r="HJ55" s="25"/>
+      <c r="HK55" s="25"/>
+      <c r="HL55" s="25"/>
+      <c r="HM55" s="25"/>
+      <c r="HN55" s="25"/>
+      <c r="HO55" s="25"/>
+      <c r="HP55" s="25"/>
+      <c r="HQ55" s="25"/>
+      <c r="HR55" s="25"/>
+      <c r="HS55" s="25"/>
+      <c r="HT55" s="25"/>
+      <c r="HU55" s="25"/>
+      <c r="HV55" s="25"/>
+      <c r="HW55" s="25"/>
+      <c r="HX55" s="25"/>
+      <c r="HY55" s="25"/>
+      <c r="HZ55" s="25"/>
+      <c r="IA55" s="25"/>
+      <c r="IB55" s="25"/>
+      <c r="IC55" s="25"/>
+      <c r="ID55" s="25"/>
+      <c r="IE55" s="25"/>
+      <c r="IF55" s="25"/>
+      <c r="IG55" s="25"/>
+      <c r="IH55" s="25"/>
+      <c r="II55" s="25"/>
+      <c r="IJ55" s="25"/>
+      <c r="IK55" s="25"/>
+      <c r="IL55" s="25"/>
+      <c r="IM55" s="25"/>
+      <c r="IN55" s="25"/>
+      <c r="IO55" s="25"/>
+      <c r="IP55" s="25"/>
+      <c r="IQ55" s="25"/>
+      <c r="IR55" s="25"/>
+      <c r="IS55" s="25"/>
+      <c r="IT55" s="25"/>
+      <c r="IU55" s="25"/>
+      <c r="IV55" s="25"/>
+      <c r="IW55" s="25"/>
+      <c r="IX55" s="25"/>
+      <c r="IY55" s="25"/>
+      <c r="IZ55" s="25"/>
+      <c r="JA55" s="25"/>
+      <c r="JB55" s="25"/>
+      <c r="JC55" s="25"/>
+      <c r="JD55" s="25"/>
+      <c r="JE55" s="25"/>
+      <c r="JF55" s="25"/>
+      <c r="JG55" s="25"/>
+      <c r="JH55" s="25"/>
+      <c r="JI55" s="25"/>
+      <c r="JJ55" s="25"/>
+      <c r="JK55" s="25"/>
+      <c r="JL55" s="25"/>
+      <c r="JM55" s="25"/>
+      <c r="JN55" s="25"/>
+      <c r="JO55" s="25"/>
+      <c r="JP55" s="25"/>
+      <c r="JQ55" s="25"/>
+      <c r="JR55" s="25"/>
+      <c r="JS55" s="25"/>
+      <c r="JT55" s="25"/>
+      <c r="JU55" s="25"/>
+      <c r="JV55" s="25"/>
+      <c r="JW55" s="25"/>
+      <c r="JX55" s="25"/>
+      <c r="JY55" s="25"/>
+      <c r="JZ55" s="25"/>
+      <c r="KA55" s="25"/>
+      <c r="KB55" s="25"/>
+      <c r="KC55" s="25"/>
+      <c r="KD55" s="25"/>
+      <c r="KE55" s="25"/>
+      <c r="KF55" s="25"/>
+      <c r="KG55" s="25"/>
+      <c r="KH55" s="25"/>
+      <c r="KI55" s="25"/>
+      <c r="KJ55" s="25"/>
+      <c r="KK55" s="25"/>
+      <c r="KL55" s="25"/>
+      <c r="KM55" s="25"/>
+      <c r="KN55" s="25"/>
+      <c r="KO55" s="25"/>
+      <c r="KP55" s="25"/>
+      <c r="KQ55" s="25"/>
+      <c r="KR55" s="25"/>
+      <c r="KS55" s="25"/>
+      <c r="KT55" s="25"/>
+      <c r="KU55" s="25"/>
+      <c r="KV55" s="25"/>
+      <c r="KW55" s="25"/>
+      <c r="KX55" s="25"/>
+      <c r="KY55" s="25"/>
+      <c r="KZ55" s="25"/>
+      <c r="LA55" s="25"/>
+      <c r="LB55" s="25"/>
+      <c r="LC55" s="25"/>
+      <c r="LD55" s="25"/>
+      <c r="LE55" s="25"/>
+      <c r="LF55" s="25"/>
+      <c r="LG55" s="25"/>
+      <c r="LH55" s="25"/>
+      <c r="LI55" s="25"/>
+      <c r="LJ55" s="25"/>
+      <c r="LK55" s="25"/>
+      <c r="LL55" s="25"/>
+      <c r="LM55" s="25"/>
+      <c r="LN55" s="25"/>
+      <c r="LO55" s="25"/>
+      <c r="LP55" s="25"/>
+      <c r="LQ55" s="25"/>
+      <c r="LR55" s="25"/>
+      <c r="LS55" s="25"/>
+      <c r="LT55" s="25"/>
+      <c r="LU55" s="25"/>
+      <c r="LV55" s="25"/>
+      <c r="LW55" s="25"/>
+      <c r="LX55" s="25"/>
+      <c r="LY55" s="25"/>
+      <c r="LZ55" s="25"/>
+      <c r="MA55" s="25"/>
+      <c r="MB55" s="25"/>
+      <c r="MC55" s="25"/>
+      <c r="MD55" s="25"/>
+      <c r="ME55" s="25"/>
+      <c r="MF55" s="25"/>
+      <c r="MG55" s="25"/>
+      <c r="MH55" s="25"/>
+      <c r="MI55" s="25"/>
+      <c r="MJ55" s="25"/>
+      <c r="MK55" s="25"/>
+      <c r="ML55" s="25"/>
+      <c r="MM55" s="25"/>
+      <c r="MN55" s="25"/>
+      <c r="MO55" s="25"/>
+      <c r="MP55" s="25"/>
+      <c r="MQ55" s="25"/>
+      <c r="MR55" s="25"/>
+      <c r="MS55" s="25"/>
+      <c r="MT55" s="25"/>
+      <c r="MU55" s="25"/>
+      <c r="MV55" s="25"/>
+      <c r="MW55" s="25"/>
+      <c r="MX55" s="25"/>
+      <c r="MY55" s="25"/>
+      <c r="MZ55" s="25"/>
+      <c r="NA55" s="25"/>
+      <c r="NB55" s="25"/>
+      <c r="NC55" s="25"/>
+      <c r="ND55" s="25"/>
+      <c r="NE55" s="25"/>
+      <c r="NF55" s="25"/>
+      <c r="NG55" s="25"/>
+      <c r="NH55" s="25"/>
+      <c r="NI55" s="25"/>
+      <c r="NJ55" s="25"/>
+      <c r="NK55" s="25"/>
+      <c r="NL55" s="25"/>
+      <c r="NM55" s="25"/>
+      <c r="NN55" s="25"/>
+      <c r="NO55" s="25"/>
+      <c r="NP55" s="25"/>
+      <c r="NQ55" s="25"/>
+      <c r="NR55" s="25"/>
+      <c r="NS55" s="25"/>
+      <c r="NT55" s="25"/>
+      <c r="NU55" s="25"/>
+      <c r="NV55" s="25"/>
+      <c r="NW55" s="25"/>
+      <c r="NX55" s="25"/>
+      <c r="NY55" s="25"/>
+      <c r="NZ55" s="25"/>
+      <c r="OA55" s="25"/>
+      <c r="OB55" s="25"/>
+      <c r="OC55" s="25"/>
+      <c r="OD55" s="25"/>
+      <c r="OE55" s="25"/>
+      <c r="OF55" s="25"/>
+      <c r="OG55" s="25"/>
+      <c r="OH55" s="25"/>
+      <c r="OI55" s="25"/>
+      <c r="OJ55" s="25"/>
+      <c r="OK55" s="25"/>
+      <c r="OL55" s="25"/>
+      <c r="OM55" s="25"/>
+      <c r="ON55" s="25"/>
+      <c r="OO55" s="25"/>
+      <c r="OP55" s="25"/>
+      <c r="OQ55" s="25"/>
+      <c r="OR55" s="25"/>
+      <c r="OS55" s="25"/>
+      <c r="OT55" s="25"/>
+      <c r="OU55" s="25"/>
+      <c r="OV55" s="25"/>
+      <c r="OW55" s="25"/>
+      <c r="OX55" s="25"/>
+      <c r="OY55" s="25"/>
+      <c r="OZ55" s="25"/>
+      <c r="PA55" s="25"/>
+      <c r="PB55" s="25"/>
+      <c r="PC55" s="25"/>
+      <c r="PD55" s="25"/>
+      <c r="PE55" s="25"/>
+      <c r="PF55" s="25"/>
+      <c r="PG55" s="25"/>
+      <c r="PH55" s="25"/>
+      <c r="PI55" s="25"/>
+      <c r="PJ55" s="25"/>
+      <c r="PK55" s="25"/>
+      <c r="PL55" s="25"/>
+      <c r="PM55" s="25"/>
+      <c r="PN55" s="25"/>
+      <c r="PO55" s="25"/>
+      <c r="PP55" s="25"/>
+      <c r="PQ55" s="25"/>
+      <c r="PR55" s="25"/>
+      <c r="PS55" s="25"/>
+      <c r="PT55" s="25"/>
+      <c r="PU55" s="25"/>
+      <c r="PV55" s="25"/>
+      <c r="PW55" s="25"/>
+      <c r="PX55" s="25"/>
+      <c r="PY55" s="25"/>
+      <c r="PZ55" s="25"/>
+      <c r="QA55" s="25"/>
+      <c r="QB55" s="25"/>
+      <c r="QC55" s="25"/>
+      <c r="QD55" s="25"/>
+      <c r="QE55" s="25"/>
+      <c r="QF55" s="25"/>
+      <c r="QG55" s="25"/>
+      <c r="QH55" s="25"/>
+      <c r="QI55" s="25"/>
+      <c r="QJ55" s="25"/>
+      <c r="QK55" s="25"/>
+      <c r="QL55" s="25"/>
+      <c r="QM55" s="25"/>
+      <c r="QN55" s="25"/>
+      <c r="QO55" s="25"/>
+      <c r="QP55" s="25"/>
+      <c r="QQ55" s="25"/>
+      <c r="QR55" s="25"/>
+      <c r="QS55" s="25"/>
+      <c r="QT55" s="25"/>
+      <c r="QU55" s="25"/>
+      <c r="QV55" s="25"/>
+      <c r="QW55" s="25"/>
+      <c r="QX55" s="25"/>
+      <c r="QY55" s="25"/>
+      <c r="QZ55" s="25"/>
+      <c r="RA55" s="25"/>
+      <c r="RB55" s="25"/>
+      <c r="RC55" s="25"/>
+      <c r="RD55" s="25"/>
+      <c r="RE55" s="25"/>
+      <c r="RF55" s="25"/>
+      <c r="RG55" s="25"/>
+      <c r="RH55" s="25"/>
+      <c r="RI55" s="25"/>
+      <c r="RJ55" s="25"/>
+      <c r="RK55" s="25"/>
+      <c r="RL55" s="25"/>
+      <c r="RM55" s="25"/>
+      <c r="RN55" s="25"/>
+      <c r="RO55" s="25"/>
+      <c r="RP55" s="25"/>
+      <c r="RQ55" s="25"/>
+      <c r="RR55" s="25"/>
+      <c r="RS55" s="25"/>
+      <c r="RT55" s="25"/>
+      <c r="RU55" s="25"/>
+      <c r="RV55" s="25"/>
+      <c r="RW55" s="25"/>
+      <c r="RX55" s="25"/>
+      <c r="RY55" s="25"/>
+      <c r="RZ55" s="25"/>
+      <c r="SA55" s="25"/>
+      <c r="SB55" s="25"/>
+      <c r="SC55" s="25"/>
+      <c r="SD55" s="25"/>
+      <c r="SE55" s="25"/>
+      <c r="SF55" s="25"/>
+      <c r="SG55" s="25"/>
+      <c r="SH55" s="25"/>
+      <c r="SI55" s="25"/>
+      <c r="SJ55" s="25"/>
+      <c r="SK55" s="25"/>
+      <c r="SL55" s="25"/>
+      <c r="SM55" s="25"/>
+      <c r="SN55" s="25"/>
+      <c r="SO55" s="25"/>
+      <c r="SP55" s="25"/>
+      <c r="SQ55" s="25"/>
+      <c r="SR55" s="25"/>
+      <c r="SS55" s="25"/>
+      <c r="ST55" s="25"/>
+      <c r="SU55" s="25"/>
+      <c r="SV55" s="25"/>
+      <c r="SW55" s="25"/>
+      <c r="SX55" s="25"/>
+      <c r="SY55" s="25"/>
+      <c r="SZ55" s="25"/>
+      <c r="TA55" s="25"/>
+      <c r="TB55" s="25"/>
+      <c r="TC55" s="25"/>
+      <c r="TD55" s="25"/>
+      <c r="TE55" s="25"/>
+      <c r="TF55" s="25"/>
+      <c r="TG55" s="25"/>
+      <c r="TH55" s="25"/>
+      <c r="TI55" s="25"/>
+      <c r="TJ55" s="25"/>
+      <c r="TK55" s="25"/>
+      <c r="TL55" s="25"/>
+      <c r="TM55" s="25"/>
+      <c r="TN55" s="25"/>
+      <c r="TO55" s="25"/>
+      <c r="TP55" s="25"/>
+      <c r="TQ55" s="25"/>
+      <c r="TR55" s="25"/>
+      <c r="TS55" s="25"/>
+      <c r="TT55" s="25"/>
+      <c r="TU55" s="25"/>
+      <c r="TV55" s="25"/>
+      <c r="TW55" s="25"/>
+      <c r="TX55" s="25"/>
+      <c r="TY55" s="25"/>
+      <c r="TZ55" s="25"/>
+      <c r="UA55" s="25"/>
+      <c r="UB55" s="25"/>
+      <c r="UC55" s="25"/>
+      <c r="UD55" s="25"/>
+      <c r="UE55" s="25"/>
+      <c r="UF55" s="25"/>
+      <c r="UG55" s="25"/>
+      <c r="UH55" s="25"/>
+      <c r="UI55" s="25"/>
+      <c r="UJ55" s="25"/>
+      <c r="UK55" s="25"/>
+      <c r="UL55" s="25"/>
+      <c r="UM55" s="25"/>
+      <c r="UN55" s="25"/>
+      <c r="UO55" s="25"/>
+      <c r="UP55" s="25"/>
+      <c r="UQ55" s="25"/>
+      <c r="UR55" s="25"/>
+      <c r="US55" s="25"/>
+      <c r="UT55" s="25"/>
+      <c r="UU55" s="25"/>
+      <c r="UV55" s="25"/>
+      <c r="UW55" s="25"/>
+      <c r="UX55" s="25"/>
+      <c r="UY55" s="25"/>
+      <c r="UZ55" s="25"/>
+      <c r="VA55" s="25"/>
+      <c r="VB55" s="25"/>
+      <c r="VC55" s="25"/>
+      <c r="VD55" s="25"/>
+      <c r="VE55" s="25"/>
+      <c r="VF55" s="25"/>
+      <c r="VG55" s="25"/>
+      <c r="VH55" s="25"/>
+      <c r="VI55" s="25"/>
+      <c r="VJ55" s="25"/>
+      <c r="VK55" s="25"/>
+      <c r="VL55" s="25"/>
+      <c r="VM55" s="25"/>
+      <c r="VN55" s="25"/>
+      <c r="VO55" s="25"/>
+      <c r="VP55" s="25"/>
+      <c r="VQ55" s="25"/>
+      <c r="VR55" s="25"/>
+      <c r="VS55" s="25"/>
+      <c r="VT55" s="25"/>
+      <c r="VU55" s="25"/>
+      <c r="VV55" s="25"/>
+      <c r="VW55" s="25"/>
+      <c r="VX55" s="25"/>
+      <c r="VY55" s="25"/>
+      <c r="VZ55" s="25"/>
+      <c r="WA55" s="25"/>
+      <c r="WB55" s="25"/>
+      <c r="WC55" s="25"/>
+      <c r="WD55" s="25"/>
+      <c r="WE55" s="25"/>
+      <c r="WF55" s="25"/>
+      <c r="WG55" s="25"/>
+      <c r="WH55" s="25"/>
+      <c r="WI55" s="25"/>
+      <c r="WJ55" s="25"/>
+      <c r="WK55" s="25"/>
+      <c r="WL55" s="25"/>
+      <c r="WM55" s="25"/>
+      <c r="WN55" s="25"/>
+      <c r="WO55" s="25"/>
+      <c r="WP55" s="25"/>
+      <c r="WQ55" s="25"/>
+      <c r="WR55" s="25"/>
+      <c r="WS55" s="25"/>
+      <c r="WT55" s="25"/>
+      <c r="WU55" s="25"/>
+      <c r="WV55" s="25"/>
+      <c r="WW55" s="25"/>
+      <c r="WX55" s="25"/>
+      <c r="WY55" s="25"/>
+      <c r="WZ55" s="25"/>
+      <c r="XA55" s="25"/>
+      <c r="XB55" s="25"/>
+      <c r="XC55" s="25"/>
+      <c r="XD55" s="25"/>
+      <c r="XE55" s="25"/>
+      <c r="XF55" s="25"/>
+      <c r="XG55" s="25"/>
+      <c r="XH55" s="25"/>
+      <c r="XI55" s="25"/>
+      <c r="XJ55" s="25"/>
+      <c r="XK55" s="25"/>
+      <c r="XL55" s="25"/>
+      <c r="XM55" s="25"/>
+      <c r="XN55" s="25"/>
+      <c r="XO55" s="25"/>
+      <c r="XP55" s="25"/>
+      <c r="XQ55" s="25"/>
+      <c r="XR55" s="25"/>
+      <c r="XS55" s="25"/>
+      <c r="XT55" s="25"/>
+      <c r="XU55" s="25"/>
+      <c r="XV55" s="25"/>
+      <c r="XW55" s="25"/>
+      <c r="XX55" s="25"/>
+      <c r="XY55" s="25"/>
+      <c r="XZ55" s="25"/>
+      <c r="YA55" s="25"/>
+      <c r="YB55" s="25"/>
+      <c r="YC55" s="25"/>
+      <c r="YD55" s="25"/>
+      <c r="YE55" s="25"/>
+      <c r="YF55" s="25"/>
+      <c r="YG55" s="25"/>
+      <c r="YH55" s="25"/>
+      <c r="YI55" s="25"/>
+      <c r="YJ55" s="25"/>
+      <c r="YK55" s="25"/>
+      <c r="YL55" s="25"/>
+      <c r="YM55" s="25"/>
+      <c r="YN55" s="25"/>
+      <c r="YO55" s="25"/>
+      <c r="YP55" s="25"/>
+      <c r="YQ55" s="25"/>
+      <c r="YR55" s="25"/>
+      <c r="YS55" s="25"/>
+      <c r="YT55" s="25"/>
+      <c r="YU55" s="25"/>
+      <c r="YV55" s="25"/>
+      <c r="YW55" s="25"/>
+      <c r="YX55" s="25"/>
+      <c r="YY55" s="25"/>
+      <c r="YZ55" s="25"/>
+      <c r="ZA55" s="25"/>
+      <c r="ZB55" s="25"/>
+      <c r="ZC55" s="25"/>
+      <c r="ZD55" s="25"/>
+      <c r="ZE55" s="25"/>
+      <c r="ZF55" s="25"/>
+      <c r="ZG55" s="25"/>
+      <c r="ZH55" s="25"/>
+      <c r="ZI55" s="25"/>
+      <c r="ZJ55" s="25"/>
+      <c r="ZK55" s="25"/>
+      <c r="ZL55" s="25"/>
+      <c r="ZM55" s="25"/>
+      <c r="ZN55" s="25"/>
+      <c r="ZO55" s="25"/>
+      <c r="ZP55" s="25"/>
+      <c r="ZQ55" s="25"/>
+      <c r="ZR55" s="25"/>
+      <c r="ZS55" s="25"/>
+      <c r="ZT55" s="25"/>
+      <c r="ZU55" s="25"/>
+      <c r="ZV55" s="25"/>
+      <c r="ZW55" s="25"/>
+      <c r="ZX55" s="25"/>
+      <c r="ZY55" s="25"/>
+      <c r="ZZ55" s="25"/>
+      <c r="AAA55" s="25"/>
+      <c r="AAB55" s="25"/>
+      <c r="AAC55" s="25"/>
+      <c r="AAD55" s="25"/>
+      <c r="AAE55" s="25"/>
+      <c r="AAF55" s="25"/>
+      <c r="AAG55" s="25"/>
+      <c r="AAH55" s="25"/>
+      <c r="AAI55" s="25"/>
+      <c r="AAJ55" s="25"/>
+      <c r="AAK55" s="25"/>
+      <c r="AAL55" s="25"/>
+      <c r="AAM55" s="25"/>
+      <c r="AAN55" s="25"/>
+      <c r="AAO55" s="25"/>
+      <c r="AAP55" s="25"/>
+      <c r="AAQ55" s="25"/>
+      <c r="AAR55" s="25"/>
+      <c r="AAS55" s="25"/>
+      <c r="AAT55" s="25"/>
+      <c r="AAU55" s="25"/>
+      <c r="AAV55" s="25"/>
+      <c r="AAW55" s="25"/>
+      <c r="AAX55" s="25"/>
+      <c r="AAY55" s="25"/>
+      <c r="AAZ55" s="25"/>
+      <c r="ABA55" s="25"/>
+      <c r="ABB55" s="25"/>
+      <c r="ABC55" s="25"/>
+      <c r="ABD55" s="25"/>
+      <c r="ABE55" s="25"/>
+      <c r="ABF55" s="25"/>
+      <c r="ABG55" s="25"/>
+      <c r="ABH55" s="25"/>
+      <c r="ABI55" s="25"/>
+      <c r="ABJ55" s="25"/>
+      <c r="ABK55" s="25"/>
+      <c r="ABL55" s="25"/>
+      <c r="ABM55" s="25"/>
+      <c r="ABN55" s="25"/>
+      <c r="ABO55" s="25"/>
+      <c r="ABP55" s="25"/>
+      <c r="ABQ55" s="25"/>
+      <c r="ABR55" s="25"/>
+      <c r="ABS55" s="25"/>
+      <c r="ABT55" s="25"/>
+      <c r="ABU55" s="25"/>
+      <c r="ABV55" s="25"/>
+      <c r="ABW55" s="25"/>
+      <c r="ABX55" s="25"/>
+      <c r="ABY55" s="25"/>
+      <c r="ABZ55" s="25"/>
+      <c r="ACA55" s="25"/>
+      <c r="ACB55" s="25"/>
+      <c r="ACC55" s="25"/>
+      <c r="ACD55" s="25"/>
+      <c r="ACE55" s="25"/>
+      <c r="ACF55" s="25"/>
+      <c r="ACG55" s="25"/>
+      <c r="ACH55" s="25"/>
+      <c r="ACI55" s="25"/>
+      <c r="ACJ55" s="25"/>
+      <c r="ACK55" s="25"/>
+      <c r="ACL55" s="25"/>
+      <c r="ACM55" s="25"/>
+      <c r="ACN55" s="25"/>
+      <c r="ACO55" s="25"/>
+      <c r="ACP55" s="25"/>
+      <c r="ACQ55" s="25"/>
+      <c r="ACR55" s="25"/>
+      <c r="ACS55" s="25"/>
+      <c r="ACT55" s="25"/>
+      <c r="ACU55" s="25"/>
+      <c r="ACV55" s="25"/>
+      <c r="ACW55" s="25"/>
+      <c r="ACX55" s="25"/>
+      <c r="ACY55" s="25"/>
+      <c r="ACZ55" s="25"/>
+      <c r="ADA55" s="25"/>
+      <c r="ADB55" s="25"/>
+      <c r="ADC55" s="25"/>
+      <c r="ADD55" s="25"/>
+      <c r="ADE55" s="25"/>
+      <c r="ADF55" s="25"/>
+      <c r="ADG55" s="25"/>
+      <c r="ADH55" s="25"/>
+      <c r="ADI55" s="25"/>
+      <c r="ADJ55" s="25"/>
+      <c r="ADK55" s="25"/>
+      <c r="ADL55" s="25"/>
+      <c r="ADM55" s="25"/>
+      <c r="ADN55" s="25"/>
+      <c r="ADO55" s="25"/>
+      <c r="ADP55" s="25"/>
+      <c r="ADQ55" s="25"/>
+      <c r="ADR55" s="25"/>
+      <c r="ADS55" s="25"/>
+      <c r="ADT55" s="25"/>
+      <c r="ADU55" s="25"/>
+      <c r="ADV55" s="25"/>
+      <c r="ADW55" s="25"/>
+      <c r="ADX55" s="25"/>
+      <c r="ADY55" s="25"/>
+      <c r="ADZ55" s="25"/>
+      <c r="AEA55" s="25"/>
+      <c r="AEB55" s="25"/>
+      <c r="AEC55" s="25"/>
+      <c r="AED55" s="25"/>
+      <c r="AEE55" s="25"/>
+      <c r="AEF55" s="25"/>
+      <c r="AEG55" s="25"/>
+      <c r="AEH55" s="25"/>
+      <c r="AEI55" s="25"/>
+      <c r="AEJ55" s="25"/>
+      <c r="AEK55" s="25"/>
+      <c r="AEL55" s="25"/>
+      <c r="AEM55" s="25"/>
+      <c r="AEN55" s="25"/>
+      <c r="AEO55" s="25"/>
+      <c r="AEP55" s="25"/>
+      <c r="AEQ55" s="25"/>
+      <c r="AER55" s="25"/>
+      <c r="AES55" s="25"/>
+      <c r="AET55" s="25"/>
+      <c r="AEU55" s="25"/>
+      <c r="AEV55" s="25"/>
+      <c r="AEW55" s="25"/>
+      <c r="AEX55" s="25"/>
+      <c r="AEY55" s="25"/>
+      <c r="AEZ55" s="25"/>
+      <c r="AFA55" s="25"/>
+      <c r="AFB55" s="25"/>
+      <c r="AFC55" s="25"/>
+      <c r="AFD55" s="25"/>
+      <c r="AFE55" s="25"/>
+      <c r="AFF55" s="25"/>
+      <c r="AFG55" s="25"/>
+      <c r="AFH55" s="25"/>
+      <c r="AFI55" s="25"/>
+      <c r="AFJ55" s="25"/>
+      <c r="AFK55" s="25"/>
+      <c r="AFL55" s="25"/>
+      <c r="AFM55" s="25"/>
+      <c r="AFN55" s="25"/>
+      <c r="AFO55" s="25"/>
+      <c r="AFP55" s="25"/>
+      <c r="AFQ55" s="25"/>
+      <c r="AFR55" s="25"/>
+      <c r="AFS55" s="25"/>
+      <c r="AFT55" s="25"/>
+      <c r="AFU55" s="25"/>
+      <c r="AFV55" s="25"/>
+      <c r="AFW55" s="25"/>
+      <c r="AFX55" s="25"/>
+      <c r="AFY55" s="25"/>
+      <c r="AFZ55" s="25"/>
+      <c r="AGA55" s="25"/>
+      <c r="AGB55" s="25"/>
+      <c r="AGC55" s="25"/>
+      <c r="AGD55" s="25"/>
+      <c r="AGE55" s="25"/>
+      <c r="AGF55" s="25"/>
+      <c r="AGG55" s="25"/>
+      <c r="AGH55" s="25"/>
+      <c r="AGI55" s="25"/>
+      <c r="AGJ55" s="25"/>
+      <c r="AGK55" s="25"/>
+      <c r="AGL55" s="25"/>
+      <c r="AGM55" s="25"/>
+      <c r="AGN55" s="25"/>
+      <c r="AGO55" s="25"/>
+      <c r="AGP55" s="25"/>
+      <c r="AGQ55" s="25"/>
+      <c r="AGR55" s="25"/>
+      <c r="AGS55" s="25"/>
+      <c r="AGT55" s="25"/>
+      <c r="AGU55" s="25"/>
+      <c r="AGV55" s="25"/>
+      <c r="AGW55" s="25"/>
+      <c r="AGX55" s="25"/>
+      <c r="AGY55" s="25"/>
+      <c r="AGZ55" s="25"/>
+      <c r="AHA55" s="25"/>
+      <c r="AHB55" s="25"/>
+      <c r="AHC55" s="25"/>
+      <c r="AHD55" s="25"/>
+      <c r="AHE55" s="25"/>
+      <c r="AHF55" s="25"/>
+      <c r="AHG55" s="25"/>
+      <c r="AHH55" s="25"/>
+      <c r="AHI55" s="25"/>
+      <c r="AHJ55" s="25"/>
+      <c r="AHK55" s="25"/>
+      <c r="AHL55" s="25"/>
+      <c r="AHM55" s="25"/>
+      <c r="AHN55" s="25"/>
+      <c r="AHO55" s="25"/>
+      <c r="AHP55" s="25"/>
+      <c r="AHQ55" s="25"/>
+      <c r="AHR55" s="25"/>
+      <c r="AHS55" s="25"/>
+      <c r="AHT55" s="25"/>
+      <c r="AHU55" s="25"/>
+      <c r="AHV55" s="25"/>
+      <c r="AHW55" s="25"/>
+      <c r="AHX55" s="25"/>
+      <c r="AHY55" s="25"/>
+      <c r="AHZ55" s="25"/>
+      <c r="AIA55" s="25"/>
+      <c r="AIB55" s="25"/>
+      <c r="AIC55" s="25"/>
+      <c r="AID55" s="25"/>
+      <c r="AIE55" s="25"/>
+      <c r="AIF55" s="25"/>
+      <c r="AIG55" s="25"/>
+      <c r="AIH55" s="25"/>
+      <c r="AII55" s="25"/>
+      <c r="AIJ55" s="25"/>
+      <c r="AIK55" s="25"/>
+      <c r="AIL55" s="25"/>
+      <c r="AIM55" s="25"/>
+      <c r="AIN55" s="25"/>
+      <c r="AIO55" s="25"/>
+      <c r="AIP55" s="25"/>
+      <c r="AIQ55" s="25"/>
+      <c r="AIR55" s="25"/>
+      <c r="AIS55" s="25"/>
+      <c r="AIT55" s="25"/>
+      <c r="AIU55" s="25"/>
+      <c r="AIV55" s="25"/>
+      <c r="AIW55" s="25"/>
+      <c r="AIX55" s="25"/>
+      <c r="AIY55" s="25"/>
+      <c r="AIZ55" s="25"/>
+      <c r="AJA55" s="25"/>
+      <c r="AJB55" s="25"/>
+      <c r="AJC55" s="25"/>
+      <c r="AJD55" s="25"/>
+      <c r="AJE55" s="25"/>
+      <c r="AJF55" s="25"/>
+      <c r="AJG55" s="25"/>
+      <c r="AJH55" s="25"/>
+      <c r="AJI55" s="25"/>
+      <c r="AJJ55" s="25"/>
+      <c r="AJK55" s="25"/>
+      <c r="AJL55" s="25"/>
+      <c r="AJM55" s="25"/>
+      <c r="AJN55" s="25"/>
+      <c r="AJO55" s="25"/>
+      <c r="AJP55" s="25"/>
+      <c r="AJQ55" s="25"/>
+      <c r="AJR55" s="25"/>
+      <c r="AJS55" s="25"/>
+      <c r="AJT55" s="25"/>
+      <c r="AJU55" s="25"/>
+      <c r="AJV55" s="25"/>
+      <c r="AJW55" s="25"/>
+      <c r="AJX55" s="25"/>
+      <c r="AJY55" s="25"/>
+      <c r="AJZ55" s="25"/>
+      <c r="AKA55" s="25"/>
+      <c r="AKB55" s="25"/>
+      <c r="AKC55" s="25"/>
+      <c r="AKD55" s="25"/>
+      <c r="AKE55" s="25"/>
+      <c r="AKF55" s="25"/>
+      <c r="AKG55" s="25"/>
+      <c r="AKH55" s="25"/>
+      <c r="AKI55" s="25"/>
+      <c r="AKJ55" s="25"/>
+      <c r="AKK55" s="25"/>
+      <c r="AKL55" s="25"/>
+      <c r="AKM55" s="25"/>
+      <c r="AKN55" s="25"/>
+      <c r="AKO55" s="25"/>
+      <c r="AKP55" s="25"/>
+      <c r="AKQ55" s="25"/>
+      <c r="AKR55" s="25"/>
+      <c r="AKS55" s="25"/>
+      <c r="AKT55" s="25"/>
+      <c r="AKU55" s="25"/>
+      <c r="AKV55" s="25"/>
+      <c r="AKW55" s="25"/>
+      <c r="AKX55" s="25"/>
+      <c r="AKY55" s="25"/>
+      <c r="AKZ55" s="25"/>
+      <c r="ALA55" s="25"/>
+      <c r="ALB55" s="25"/>
+      <c r="ALC55" s="25"/>
+      <c r="ALD55" s="25"/>
+      <c r="ALE55" s="25"/>
+      <c r="ALF55" s="25"/>
+      <c r="ALG55" s="25"/>
+      <c r="ALH55" s="25"/>
+      <c r="ALI55" s="25"/>
+      <c r="ALJ55" s="25"/>
+      <c r="ALK55" s="25"/>
+      <c r="ALL55" s="25"/>
+      <c r="ALM55" s="25"/>
+      <c r="ALN55" s="25"/>
+      <c r="ALO55" s="25"/>
+      <c r="ALP55" s="25"/>
+      <c r="ALQ55" s="25"/>
+      <c r="ALR55" s="25"/>
+      <c r="ALS55" s="25"/>
+      <c r="ALT55" s="25"/>
+      <c r="ALU55" s="25"/>
+      <c r="ALV55" s="25"/>
+      <c r="ALW55" s="25"/>
+      <c r="ALX55" s="25"/>
+      <c r="ALY55" s="25"/>
+      <c r="ALZ55" s="25"/>
+      <c r="AMA55" s="25"/>
+      <c r="AMB55" s="25"/>
+      <c r="AMC55" s="25"/>
+      <c r="AMD55" s="25"/>
+      <c r="AME55" s="25"/>
+      <c r="AMF55" s="25"/>
+      <c r="AMG55" s="25"/>
+      <c r="AMH55" s="25"/>
+      <c r="AMI55" s="25"/>
+      <c r="AMJ55" s="25"/>
+      <c r="AMK55" s="25"/>
+      <c r="AML55" s="25"/>
+      <c r="AMM55" s="25"/>
     </row>
     <row r="56" spans="1:1027" ht="96" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
@@ -16334,41 +17379,1055 @@
         <v>528</v>
       </c>
     </row>
-    <row r="57" spans="1:1027" ht="64" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+    <row r="57" spans="1:1027" s="30" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A57" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="B57" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="E57"/>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="26" t="s">
         <v>147</v>
       </c>
-      <c r="J57" s="6" t="s">
+      <c r="I57" s="31"/>
+      <c r="J57" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="M57" s="7" t="s">
+      <c r="K57" s="29"/>
+      <c r="L57" s="27"/>
+      <c r="M57" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N57" s="25" t="s">
         <v>449</v>
       </c>
-      <c r="O57" s="7" t="s">
+      <c r="O57" s="27" t="s">
         <v>528</v>
       </c>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+      <c r="AF57" s="25"/>
+      <c r="AG57" s="25"/>
+      <c r="AH57" s="25"/>
+      <c r="AI57" s="25"/>
+      <c r="AJ57" s="25"/>
+      <c r="AK57" s="25"/>
+      <c r="AL57" s="25"/>
+      <c r="AM57" s="25"/>
+      <c r="AN57" s="25"/>
+      <c r="AO57" s="25"/>
+      <c r="AP57" s="25"/>
+      <c r="AQ57" s="25"/>
+      <c r="AR57" s="25"/>
+      <c r="AS57" s="25"/>
+      <c r="AT57" s="25"/>
+      <c r="AU57" s="25"/>
+      <c r="AV57" s="25"/>
+      <c r="AW57" s="25"/>
+      <c r="AX57" s="25"/>
+      <c r="AY57" s="25"/>
+      <c r="AZ57" s="25"/>
+      <c r="BA57" s="25"/>
+      <c r="BB57" s="25"/>
+      <c r="BC57" s="25"/>
+      <c r="BD57" s="25"/>
+      <c r="BE57" s="25"/>
+      <c r="BF57" s="25"/>
+      <c r="BG57" s="25"/>
+      <c r="BH57" s="25"/>
+      <c r="BI57" s="25"/>
+      <c r="BJ57" s="25"/>
+      <c r="BK57" s="25"/>
+      <c r="BL57" s="25"/>
+      <c r="BM57" s="25"/>
+      <c r="BN57" s="25"/>
+      <c r="BO57" s="25"/>
+      <c r="BP57" s="25"/>
+      <c r="BQ57" s="25"/>
+      <c r="BR57" s="25"/>
+      <c r="BS57" s="25"/>
+      <c r="BT57" s="25"/>
+      <c r="BU57" s="25"/>
+      <c r="BV57" s="25"/>
+      <c r="BW57" s="25"/>
+      <c r="BX57" s="25"/>
+      <c r="BY57" s="25"/>
+      <c r="BZ57" s="25"/>
+      <c r="CA57" s="25"/>
+      <c r="CB57" s="25"/>
+      <c r="CC57" s="25"/>
+      <c r="CD57" s="25"/>
+      <c r="CE57" s="25"/>
+      <c r="CF57" s="25"/>
+      <c r="CG57" s="25"/>
+      <c r="CH57" s="25"/>
+      <c r="CI57" s="25"/>
+      <c r="CJ57" s="25"/>
+      <c r="CK57" s="25"/>
+      <c r="CL57" s="25"/>
+      <c r="CM57" s="25"/>
+      <c r="CN57" s="25"/>
+      <c r="CO57" s="25"/>
+      <c r="CP57" s="25"/>
+      <c r="CQ57" s="25"/>
+      <c r="CR57" s="25"/>
+      <c r="CS57" s="25"/>
+      <c r="CT57" s="25"/>
+      <c r="CU57" s="25"/>
+      <c r="CV57" s="25"/>
+      <c r="CW57" s="25"/>
+      <c r="CX57" s="25"/>
+      <c r="CY57" s="25"/>
+      <c r="CZ57" s="25"/>
+      <c r="DA57" s="25"/>
+      <c r="DB57" s="25"/>
+      <c r="DC57" s="25"/>
+      <c r="DD57" s="25"/>
+      <c r="DE57" s="25"/>
+      <c r="DF57" s="25"/>
+      <c r="DG57" s="25"/>
+      <c r="DH57" s="25"/>
+      <c r="DI57" s="25"/>
+      <c r="DJ57" s="25"/>
+      <c r="DK57" s="25"/>
+      <c r="DL57" s="25"/>
+      <c r="DM57" s="25"/>
+      <c r="DN57" s="25"/>
+      <c r="DO57" s="25"/>
+      <c r="DP57" s="25"/>
+      <c r="DQ57" s="25"/>
+      <c r="DR57" s="25"/>
+      <c r="DS57" s="25"/>
+      <c r="DT57" s="25"/>
+      <c r="DU57" s="25"/>
+      <c r="DV57" s="25"/>
+      <c r="DW57" s="25"/>
+      <c r="DX57" s="25"/>
+      <c r="DY57" s="25"/>
+      <c r="DZ57" s="25"/>
+      <c r="EA57" s="25"/>
+      <c r="EB57" s="25"/>
+      <c r="EC57" s="25"/>
+      <c r="ED57" s="25"/>
+      <c r="EE57" s="25"/>
+      <c r="EF57" s="25"/>
+      <c r="EG57" s="25"/>
+      <c r="EH57" s="25"/>
+      <c r="EI57" s="25"/>
+      <c r="EJ57" s="25"/>
+      <c r="EK57" s="25"/>
+      <c r="EL57" s="25"/>
+      <c r="EM57" s="25"/>
+      <c r="EN57" s="25"/>
+      <c r="EO57" s="25"/>
+      <c r="EP57" s="25"/>
+      <c r="EQ57" s="25"/>
+      <c r="ER57" s="25"/>
+      <c r="ES57" s="25"/>
+      <c r="ET57" s="25"/>
+      <c r="EU57" s="25"/>
+      <c r="EV57" s="25"/>
+      <c r="EW57" s="25"/>
+      <c r="EX57" s="25"/>
+      <c r="EY57" s="25"/>
+      <c r="EZ57" s="25"/>
+      <c r="FA57" s="25"/>
+      <c r="FB57" s="25"/>
+      <c r="FC57" s="25"/>
+      <c r="FD57" s="25"/>
+      <c r="FE57" s="25"/>
+      <c r="FF57" s="25"/>
+      <c r="FG57" s="25"/>
+      <c r="FH57" s="25"/>
+      <c r="FI57" s="25"/>
+      <c r="FJ57" s="25"/>
+      <c r="FK57" s="25"/>
+      <c r="FL57" s="25"/>
+      <c r="FM57" s="25"/>
+      <c r="FN57" s="25"/>
+      <c r="FO57" s="25"/>
+      <c r="FP57" s="25"/>
+      <c r="FQ57" s="25"/>
+      <c r="FR57" s="25"/>
+      <c r="FS57" s="25"/>
+      <c r="FT57" s="25"/>
+      <c r="FU57" s="25"/>
+      <c r="FV57" s="25"/>
+      <c r="FW57" s="25"/>
+      <c r="FX57" s="25"/>
+      <c r="FY57" s="25"/>
+      <c r="FZ57" s="25"/>
+      <c r="GA57" s="25"/>
+      <c r="GB57" s="25"/>
+      <c r="GC57" s="25"/>
+      <c r="GD57" s="25"/>
+      <c r="GE57" s="25"/>
+      <c r="GF57" s="25"/>
+      <c r="GG57" s="25"/>
+      <c r="GH57" s="25"/>
+      <c r="GI57" s="25"/>
+      <c r="GJ57" s="25"/>
+      <c r="GK57" s="25"/>
+      <c r="GL57" s="25"/>
+      <c r="GM57" s="25"/>
+      <c r="GN57" s="25"/>
+      <c r="GO57" s="25"/>
+      <c r="GP57" s="25"/>
+      <c r="GQ57" s="25"/>
+      <c r="GR57" s="25"/>
+      <c r="GS57" s="25"/>
+      <c r="GT57" s="25"/>
+      <c r="GU57" s="25"/>
+      <c r="GV57" s="25"/>
+      <c r="GW57" s="25"/>
+      <c r="GX57" s="25"/>
+      <c r="GY57" s="25"/>
+      <c r="GZ57" s="25"/>
+      <c r="HA57" s="25"/>
+      <c r="HB57" s="25"/>
+      <c r="HC57" s="25"/>
+      <c r="HD57" s="25"/>
+      <c r="HE57" s="25"/>
+      <c r="HF57" s="25"/>
+      <c r="HG57" s="25"/>
+      <c r="HH57" s="25"/>
+      <c r="HI57" s="25"/>
+      <c r="HJ57" s="25"/>
+      <c r="HK57" s="25"/>
+      <c r="HL57" s="25"/>
+      <c r="HM57" s="25"/>
+      <c r="HN57" s="25"/>
+      <c r="HO57" s="25"/>
+      <c r="HP57" s="25"/>
+      <c r="HQ57" s="25"/>
+      <c r="HR57" s="25"/>
+      <c r="HS57" s="25"/>
+      <c r="HT57" s="25"/>
+      <c r="HU57" s="25"/>
+      <c r="HV57" s="25"/>
+      <c r="HW57" s="25"/>
+      <c r="HX57" s="25"/>
+      <c r="HY57" s="25"/>
+      <c r="HZ57" s="25"/>
+      <c r="IA57" s="25"/>
+      <c r="IB57" s="25"/>
+      <c r="IC57" s="25"/>
+      <c r="ID57" s="25"/>
+      <c r="IE57" s="25"/>
+      <c r="IF57" s="25"/>
+      <c r="IG57" s="25"/>
+      <c r="IH57" s="25"/>
+      <c r="II57" s="25"/>
+      <c r="IJ57" s="25"/>
+      <c r="IK57" s="25"/>
+      <c r="IL57" s="25"/>
+      <c r="IM57" s="25"/>
+      <c r="IN57" s="25"/>
+      <c r="IO57" s="25"/>
+      <c r="IP57" s="25"/>
+      <c r="IQ57" s="25"/>
+      <c r="IR57" s="25"/>
+      <c r="IS57" s="25"/>
+      <c r="IT57" s="25"/>
+      <c r="IU57" s="25"/>
+      <c r="IV57" s="25"/>
+      <c r="IW57" s="25"/>
+      <c r="IX57" s="25"/>
+      <c r="IY57" s="25"/>
+      <c r="IZ57" s="25"/>
+      <c r="JA57" s="25"/>
+      <c r="JB57" s="25"/>
+      <c r="JC57" s="25"/>
+      <c r="JD57" s="25"/>
+      <c r="JE57" s="25"/>
+      <c r="JF57" s="25"/>
+      <c r="JG57" s="25"/>
+      <c r="JH57" s="25"/>
+      <c r="JI57" s="25"/>
+      <c r="JJ57" s="25"/>
+      <c r="JK57" s="25"/>
+      <c r="JL57" s="25"/>
+      <c r="JM57" s="25"/>
+      <c r="JN57" s="25"/>
+      <c r="JO57" s="25"/>
+      <c r="JP57" s="25"/>
+      <c r="JQ57" s="25"/>
+      <c r="JR57" s="25"/>
+      <c r="JS57" s="25"/>
+      <c r="JT57" s="25"/>
+      <c r="JU57" s="25"/>
+      <c r="JV57" s="25"/>
+      <c r="JW57" s="25"/>
+      <c r="JX57" s="25"/>
+      <c r="JY57" s="25"/>
+      <c r="JZ57" s="25"/>
+      <c r="KA57" s="25"/>
+      <c r="KB57" s="25"/>
+      <c r="KC57" s="25"/>
+      <c r="KD57" s="25"/>
+      <c r="KE57" s="25"/>
+      <c r="KF57" s="25"/>
+      <c r="KG57" s="25"/>
+      <c r="KH57" s="25"/>
+      <c r="KI57" s="25"/>
+      <c r="KJ57" s="25"/>
+      <c r="KK57" s="25"/>
+      <c r="KL57" s="25"/>
+      <c r="KM57" s="25"/>
+      <c r="KN57" s="25"/>
+      <c r="KO57" s="25"/>
+      <c r="KP57" s="25"/>
+      <c r="KQ57" s="25"/>
+      <c r="KR57" s="25"/>
+      <c r="KS57" s="25"/>
+      <c r="KT57" s="25"/>
+      <c r="KU57" s="25"/>
+      <c r="KV57" s="25"/>
+      <c r="KW57" s="25"/>
+      <c r="KX57" s="25"/>
+      <c r="KY57" s="25"/>
+      <c r="KZ57" s="25"/>
+      <c r="LA57" s="25"/>
+      <c r="LB57" s="25"/>
+      <c r="LC57" s="25"/>
+      <c r="LD57" s="25"/>
+      <c r="LE57" s="25"/>
+      <c r="LF57" s="25"/>
+      <c r="LG57" s="25"/>
+      <c r="LH57" s="25"/>
+      <c r="LI57" s="25"/>
+      <c r="LJ57" s="25"/>
+      <c r="LK57" s="25"/>
+      <c r="LL57" s="25"/>
+      <c r="LM57" s="25"/>
+      <c r="LN57" s="25"/>
+      <c r="LO57" s="25"/>
+      <c r="LP57" s="25"/>
+      <c r="LQ57" s="25"/>
+      <c r="LR57" s="25"/>
+      <c r="LS57" s="25"/>
+      <c r="LT57" s="25"/>
+      <c r="LU57" s="25"/>
+      <c r="LV57" s="25"/>
+      <c r="LW57" s="25"/>
+      <c r="LX57" s="25"/>
+      <c r="LY57" s="25"/>
+      <c r="LZ57" s="25"/>
+      <c r="MA57" s="25"/>
+      <c r="MB57" s="25"/>
+      <c r="MC57" s="25"/>
+      <c r="MD57" s="25"/>
+      <c r="ME57" s="25"/>
+      <c r="MF57" s="25"/>
+      <c r="MG57" s="25"/>
+      <c r="MH57" s="25"/>
+      <c r="MI57" s="25"/>
+      <c r="MJ57" s="25"/>
+      <c r="MK57" s="25"/>
+      <c r="ML57" s="25"/>
+      <c r="MM57" s="25"/>
+      <c r="MN57" s="25"/>
+      <c r="MO57" s="25"/>
+      <c r="MP57" s="25"/>
+      <c r="MQ57" s="25"/>
+      <c r="MR57" s="25"/>
+      <c r="MS57" s="25"/>
+      <c r="MT57" s="25"/>
+      <c r="MU57" s="25"/>
+      <c r="MV57" s="25"/>
+      <c r="MW57" s="25"/>
+      <c r="MX57" s="25"/>
+      <c r="MY57" s="25"/>
+      <c r="MZ57" s="25"/>
+      <c r="NA57" s="25"/>
+      <c r="NB57" s="25"/>
+      <c r="NC57" s="25"/>
+      <c r="ND57" s="25"/>
+      <c r="NE57" s="25"/>
+      <c r="NF57" s="25"/>
+      <c r="NG57" s="25"/>
+      <c r="NH57" s="25"/>
+      <c r="NI57" s="25"/>
+      <c r="NJ57" s="25"/>
+      <c r="NK57" s="25"/>
+      <c r="NL57" s="25"/>
+      <c r="NM57" s="25"/>
+      <c r="NN57" s="25"/>
+      <c r="NO57" s="25"/>
+      <c r="NP57" s="25"/>
+      <c r="NQ57" s="25"/>
+      <c r="NR57" s="25"/>
+      <c r="NS57" s="25"/>
+      <c r="NT57" s="25"/>
+      <c r="NU57" s="25"/>
+      <c r="NV57" s="25"/>
+      <c r="NW57" s="25"/>
+      <c r="NX57" s="25"/>
+      <c r="NY57" s="25"/>
+      <c r="NZ57" s="25"/>
+      <c r="OA57" s="25"/>
+      <c r="OB57" s="25"/>
+      <c r="OC57" s="25"/>
+      <c r="OD57" s="25"/>
+      <c r="OE57" s="25"/>
+      <c r="OF57" s="25"/>
+      <c r="OG57" s="25"/>
+      <c r="OH57" s="25"/>
+      <c r="OI57" s="25"/>
+      <c r="OJ57" s="25"/>
+      <c r="OK57" s="25"/>
+      <c r="OL57" s="25"/>
+      <c r="OM57" s="25"/>
+      <c r="ON57" s="25"/>
+      <c r="OO57" s="25"/>
+      <c r="OP57" s="25"/>
+      <c r="OQ57" s="25"/>
+      <c r="OR57" s="25"/>
+      <c r="OS57" s="25"/>
+      <c r="OT57" s="25"/>
+      <c r="OU57" s="25"/>
+      <c r="OV57" s="25"/>
+      <c r="OW57" s="25"/>
+      <c r="OX57" s="25"/>
+      <c r="OY57" s="25"/>
+      <c r="OZ57" s="25"/>
+      <c r="PA57" s="25"/>
+      <c r="PB57" s="25"/>
+      <c r="PC57" s="25"/>
+      <c r="PD57" s="25"/>
+      <c r="PE57" s="25"/>
+      <c r="PF57" s="25"/>
+      <c r="PG57" s="25"/>
+      <c r="PH57" s="25"/>
+      <c r="PI57" s="25"/>
+      <c r="PJ57" s="25"/>
+      <c r="PK57" s="25"/>
+      <c r="PL57" s="25"/>
+      <c r="PM57" s="25"/>
+      <c r="PN57" s="25"/>
+      <c r="PO57" s="25"/>
+      <c r="PP57" s="25"/>
+      <c r="PQ57" s="25"/>
+      <c r="PR57" s="25"/>
+      <c r="PS57" s="25"/>
+      <c r="PT57" s="25"/>
+      <c r="PU57" s="25"/>
+      <c r="PV57" s="25"/>
+      <c r="PW57" s="25"/>
+      <c r="PX57" s="25"/>
+      <c r="PY57" s="25"/>
+      <c r="PZ57" s="25"/>
+      <c r="QA57" s="25"/>
+      <c r="QB57" s="25"/>
+      <c r="QC57" s="25"/>
+      <c r="QD57" s="25"/>
+      <c r="QE57" s="25"/>
+      <c r="QF57" s="25"/>
+      <c r="QG57" s="25"/>
+      <c r="QH57" s="25"/>
+      <c r="QI57" s="25"/>
+      <c r="QJ57" s="25"/>
+      <c r="QK57" s="25"/>
+      <c r="QL57" s="25"/>
+      <c r="QM57" s="25"/>
+      <c r="QN57" s="25"/>
+      <c r="QO57" s="25"/>
+      <c r="QP57" s="25"/>
+      <c r="QQ57" s="25"/>
+      <c r="QR57" s="25"/>
+      <c r="QS57" s="25"/>
+      <c r="QT57" s="25"/>
+      <c r="QU57" s="25"/>
+      <c r="QV57" s="25"/>
+      <c r="QW57" s="25"/>
+      <c r="QX57" s="25"/>
+      <c r="QY57" s="25"/>
+      <c r="QZ57" s="25"/>
+      <c r="RA57" s="25"/>
+      <c r="RB57" s="25"/>
+      <c r="RC57" s="25"/>
+      <c r="RD57" s="25"/>
+      <c r="RE57" s="25"/>
+      <c r="RF57" s="25"/>
+      <c r="RG57" s="25"/>
+      <c r="RH57" s="25"/>
+      <c r="RI57" s="25"/>
+      <c r="RJ57" s="25"/>
+      <c r="RK57" s="25"/>
+      <c r="RL57" s="25"/>
+      <c r="RM57" s="25"/>
+      <c r="RN57" s="25"/>
+      <c r="RO57" s="25"/>
+      <c r="RP57" s="25"/>
+      <c r="RQ57" s="25"/>
+      <c r="RR57" s="25"/>
+      <c r="RS57" s="25"/>
+      <c r="RT57" s="25"/>
+      <c r="RU57" s="25"/>
+      <c r="RV57" s="25"/>
+      <c r="RW57" s="25"/>
+      <c r="RX57" s="25"/>
+      <c r="RY57" s="25"/>
+      <c r="RZ57" s="25"/>
+      <c r="SA57" s="25"/>
+      <c r="SB57" s="25"/>
+      <c r="SC57" s="25"/>
+      <c r="SD57" s="25"/>
+      <c r="SE57" s="25"/>
+      <c r="SF57" s="25"/>
+      <c r="SG57" s="25"/>
+      <c r="SH57" s="25"/>
+      <c r="SI57" s="25"/>
+      <c r="SJ57" s="25"/>
+      <c r="SK57" s="25"/>
+      <c r="SL57" s="25"/>
+      <c r="SM57" s="25"/>
+      <c r="SN57" s="25"/>
+      <c r="SO57" s="25"/>
+      <c r="SP57" s="25"/>
+      <c r="SQ57" s="25"/>
+      <c r="SR57" s="25"/>
+      <c r="SS57" s="25"/>
+      <c r="ST57" s="25"/>
+      <c r="SU57" s="25"/>
+      <c r="SV57" s="25"/>
+      <c r="SW57" s="25"/>
+      <c r="SX57" s="25"/>
+      <c r="SY57" s="25"/>
+      <c r="SZ57" s="25"/>
+      <c r="TA57" s="25"/>
+      <c r="TB57" s="25"/>
+      <c r="TC57" s="25"/>
+      <c r="TD57" s="25"/>
+      <c r="TE57" s="25"/>
+      <c r="TF57" s="25"/>
+      <c r="TG57" s="25"/>
+      <c r="TH57" s="25"/>
+      <c r="TI57" s="25"/>
+      <c r="TJ57" s="25"/>
+      <c r="TK57" s="25"/>
+      <c r="TL57" s="25"/>
+      <c r="TM57" s="25"/>
+      <c r="TN57" s="25"/>
+      <c r="TO57" s="25"/>
+      <c r="TP57" s="25"/>
+      <c r="TQ57" s="25"/>
+      <c r="TR57" s="25"/>
+      <c r="TS57" s="25"/>
+      <c r="TT57" s="25"/>
+      <c r="TU57" s="25"/>
+      <c r="TV57" s="25"/>
+      <c r="TW57" s="25"/>
+      <c r="TX57" s="25"/>
+      <c r="TY57" s="25"/>
+      <c r="TZ57" s="25"/>
+      <c r="UA57" s="25"/>
+      <c r="UB57" s="25"/>
+      <c r="UC57" s="25"/>
+      <c r="UD57" s="25"/>
+      <c r="UE57" s="25"/>
+      <c r="UF57" s="25"/>
+      <c r="UG57" s="25"/>
+      <c r="UH57" s="25"/>
+      <c r="UI57" s="25"/>
+      <c r="UJ57" s="25"/>
+      <c r="UK57" s="25"/>
+      <c r="UL57" s="25"/>
+      <c r="UM57" s="25"/>
+      <c r="UN57" s="25"/>
+      <c r="UO57" s="25"/>
+      <c r="UP57" s="25"/>
+      <c r="UQ57" s="25"/>
+      <c r="UR57" s="25"/>
+      <c r="US57" s="25"/>
+      <c r="UT57" s="25"/>
+      <c r="UU57" s="25"/>
+      <c r="UV57" s="25"/>
+      <c r="UW57" s="25"/>
+      <c r="UX57" s="25"/>
+      <c r="UY57" s="25"/>
+      <c r="UZ57" s="25"/>
+      <c r="VA57" s="25"/>
+      <c r="VB57" s="25"/>
+      <c r="VC57" s="25"/>
+      <c r="VD57" s="25"/>
+      <c r="VE57" s="25"/>
+      <c r="VF57" s="25"/>
+      <c r="VG57" s="25"/>
+      <c r="VH57" s="25"/>
+      <c r="VI57" s="25"/>
+      <c r="VJ57" s="25"/>
+      <c r="VK57" s="25"/>
+      <c r="VL57" s="25"/>
+      <c r="VM57" s="25"/>
+      <c r="VN57" s="25"/>
+      <c r="VO57" s="25"/>
+      <c r="VP57" s="25"/>
+      <c r="VQ57" s="25"/>
+      <c r="VR57" s="25"/>
+      <c r="VS57" s="25"/>
+      <c r="VT57" s="25"/>
+      <c r="VU57" s="25"/>
+      <c r="VV57" s="25"/>
+      <c r="VW57" s="25"/>
+      <c r="VX57" s="25"/>
+      <c r="VY57" s="25"/>
+      <c r="VZ57" s="25"/>
+      <c r="WA57" s="25"/>
+      <c r="WB57" s="25"/>
+      <c r="WC57" s="25"/>
+      <c r="WD57" s="25"/>
+      <c r="WE57" s="25"/>
+      <c r="WF57" s="25"/>
+      <c r="WG57" s="25"/>
+      <c r="WH57" s="25"/>
+      <c r="WI57" s="25"/>
+      <c r="WJ57" s="25"/>
+      <c r="WK57" s="25"/>
+      <c r="WL57" s="25"/>
+      <c r="WM57" s="25"/>
+      <c r="WN57" s="25"/>
+      <c r="WO57" s="25"/>
+      <c r="WP57" s="25"/>
+      <c r="WQ57" s="25"/>
+      <c r="WR57" s="25"/>
+      <c r="WS57" s="25"/>
+      <c r="WT57" s="25"/>
+      <c r="WU57" s="25"/>
+      <c r="WV57" s="25"/>
+      <c r="WW57" s="25"/>
+      <c r="WX57" s="25"/>
+      <c r="WY57" s="25"/>
+      <c r="WZ57" s="25"/>
+      <c r="XA57" s="25"/>
+      <c r="XB57" s="25"/>
+      <c r="XC57" s="25"/>
+      <c r="XD57" s="25"/>
+      <c r="XE57" s="25"/>
+      <c r="XF57" s="25"/>
+      <c r="XG57" s="25"/>
+      <c r="XH57" s="25"/>
+      <c r="XI57" s="25"/>
+      <c r="XJ57" s="25"/>
+      <c r="XK57" s="25"/>
+      <c r="XL57" s="25"/>
+      <c r="XM57" s="25"/>
+      <c r="XN57" s="25"/>
+      <c r="XO57" s="25"/>
+      <c r="XP57" s="25"/>
+      <c r="XQ57" s="25"/>
+      <c r="XR57" s="25"/>
+      <c r="XS57" s="25"/>
+      <c r="XT57" s="25"/>
+      <c r="XU57" s="25"/>
+      <c r="XV57" s="25"/>
+      <c r="XW57" s="25"/>
+      <c r="XX57" s="25"/>
+      <c r="XY57" s="25"/>
+      <c r="XZ57" s="25"/>
+      <c r="YA57" s="25"/>
+      <c r="YB57" s="25"/>
+      <c r="YC57" s="25"/>
+      <c r="YD57" s="25"/>
+      <c r="YE57" s="25"/>
+      <c r="YF57" s="25"/>
+      <c r="YG57" s="25"/>
+      <c r="YH57" s="25"/>
+      <c r="YI57" s="25"/>
+      <c r="YJ57" s="25"/>
+      <c r="YK57" s="25"/>
+      <c r="YL57" s="25"/>
+      <c r="YM57" s="25"/>
+      <c r="YN57" s="25"/>
+      <c r="YO57" s="25"/>
+      <c r="YP57" s="25"/>
+      <c r="YQ57" s="25"/>
+      <c r="YR57" s="25"/>
+      <c r="YS57" s="25"/>
+      <c r="YT57" s="25"/>
+      <c r="YU57" s="25"/>
+      <c r="YV57" s="25"/>
+      <c r="YW57" s="25"/>
+      <c r="YX57" s="25"/>
+      <c r="YY57" s="25"/>
+      <c r="YZ57" s="25"/>
+      <c r="ZA57" s="25"/>
+      <c r="ZB57" s="25"/>
+      <c r="ZC57" s="25"/>
+      <c r="ZD57" s="25"/>
+      <c r="ZE57" s="25"/>
+      <c r="ZF57" s="25"/>
+      <c r="ZG57" s="25"/>
+      <c r="ZH57" s="25"/>
+      <c r="ZI57" s="25"/>
+      <c r="ZJ57" s="25"/>
+      <c r="ZK57" s="25"/>
+      <c r="ZL57" s="25"/>
+      <c r="ZM57" s="25"/>
+      <c r="ZN57" s="25"/>
+      <c r="ZO57" s="25"/>
+      <c r="ZP57" s="25"/>
+      <c r="ZQ57" s="25"/>
+      <c r="ZR57" s="25"/>
+      <c r="ZS57" s="25"/>
+      <c r="ZT57" s="25"/>
+      <c r="ZU57" s="25"/>
+      <c r="ZV57" s="25"/>
+      <c r="ZW57" s="25"/>
+      <c r="ZX57" s="25"/>
+      <c r="ZY57" s="25"/>
+      <c r="ZZ57" s="25"/>
+      <c r="AAA57" s="25"/>
+      <c r="AAB57" s="25"/>
+      <c r="AAC57" s="25"/>
+      <c r="AAD57" s="25"/>
+      <c r="AAE57" s="25"/>
+      <c r="AAF57" s="25"/>
+      <c r="AAG57" s="25"/>
+      <c r="AAH57" s="25"/>
+      <c r="AAI57" s="25"/>
+      <c r="AAJ57" s="25"/>
+      <c r="AAK57" s="25"/>
+      <c r="AAL57" s="25"/>
+      <c r="AAM57" s="25"/>
+      <c r="AAN57" s="25"/>
+      <c r="AAO57" s="25"/>
+      <c r="AAP57" s="25"/>
+      <c r="AAQ57" s="25"/>
+      <c r="AAR57" s="25"/>
+      <c r="AAS57" s="25"/>
+      <c r="AAT57" s="25"/>
+      <c r="AAU57" s="25"/>
+      <c r="AAV57" s="25"/>
+      <c r="AAW57" s="25"/>
+      <c r="AAX57" s="25"/>
+      <c r="AAY57" s="25"/>
+      <c r="AAZ57" s="25"/>
+      <c r="ABA57" s="25"/>
+      <c r="ABB57" s="25"/>
+      <c r="ABC57" s="25"/>
+      <c r="ABD57" s="25"/>
+      <c r="ABE57" s="25"/>
+      <c r="ABF57" s="25"/>
+      <c r="ABG57" s="25"/>
+      <c r="ABH57" s="25"/>
+      <c r="ABI57" s="25"/>
+      <c r="ABJ57" s="25"/>
+      <c r="ABK57" s="25"/>
+      <c r="ABL57" s="25"/>
+      <c r="ABM57" s="25"/>
+      <c r="ABN57" s="25"/>
+      <c r="ABO57" s="25"/>
+      <c r="ABP57" s="25"/>
+      <c r="ABQ57" s="25"/>
+      <c r="ABR57" s="25"/>
+      <c r="ABS57" s="25"/>
+      <c r="ABT57" s="25"/>
+      <c r="ABU57" s="25"/>
+      <c r="ABV57" s="25"/>
+      <c r="ABW57" s="25"/>
+      <c r="ABX57" s="25"/>
+      <c r="ABY57" s="25"/>
+      <c r="ABZ57" s="25"/>
+      <c r="ACA57" s="25"/>
+      <c r="ACB57" s="25"/>
+      <c r="ACC57" s="25"/>
+      <c r="ACD57" s="25"/>
+      <c r="ACE57" s="25"/>
+      <c r="ACF57" s="25"/>
+      <c r="ACG57" s="25"/>
+      <c r="ACH57" s="25"/>
+      <c r="ACI57" s="25"/>
+      <c r="ACJ57" s="25"/>
+      <c r="ACK57" s="25"/>
+      <c r="ACL57" s="25"/>
+      <c r="ACM57" s="25"/>
+      <c r="ACN57" s="25"/>
+      <c r="ACO57" s="25"/>
+      <c r="ACP57" s="25"/>
+      <c r="ACQ57" s="25"/>
+      <c r="ACR57" s="25"/>
+      <c r="ACS57" s="25"/>
+      <c r="ACT57" s="25"/>
+      <c r="ACU57" s="25"/>
+      <c r="ACV57" s="25"/>
+      <c r="ACW57" s="25"/>
+      <c r="ACX57" s="25"/>
+      <c r="ACY57" s="25"/>
+      <c r="ACZ57" s="25"/>
+      <c r="ADA57" s="25"/>
+      <c r="ADB57" s="25"/>
+      <c r="ADC57" s="25"/>
+      <c r="ADD57" s="25"/>
+      <c r="ADE57" s="25"/>
+      <c r="ADF57" s="25"/>
+      <c r="ADG57" s="25"/>
+      <c r="ADH57" s="25"/>
+      <c r="ADI57" s="25"/>
+      <c r="ADJ57" s="25"/>
+      <c r="ADK57" s="25"/>
+      <c r="ADL57" s="25"/>
+      <c r="ADM57" s="25"/>
+      <c r="ADN57" s="25"/>
+      <c r="ADO57" s="25"/>
+      <c r="ADP57" s="25"/>
+      <c r="ADQ57" s="25"/>
+      <c r="ADR57" s="25"/>
+      <c r="ADS57" s="25"/>
+      <c r="ADT57" s="25"/>
+      <c r="ADU57" s="25"/>
+      <c r="ADV57" s="25"/>
+      <c r="ADW57" s="25"/>
+      <c r="ADX57" s="25"/>
+      <c r="ADY57" s="25"/>
+      <c r="ADZ57" s="25"/>
+      <c r="AEA57" s="25"/>
+      <c r="AEB57" s="25"/>
+      <c r="AEC57" s="25"/>
+      <c r="AED57" s="25"/>
+      <c r="AEE57" s="25"/>
+      <c r="AEF57" s="25"/>
+      <c r="AEG57" s="25"/>
+      <c r="AEH57" s="25"/>
+      <c r="AEI57" s="25"/>
+      <c r="AEJ57" s="25"/>
+      <c r="AEK57" s="25"/>
+      <c r="AEL57" s="25"/>
+      <c r="AEM57" s="25"/>
+      <c r="AEN57" s="25"/>
+      <c r="AEO57" s="25"/>
+      <c r="AEP57" s="25"/>
+      <c r="AEQ57" s="25"/>
+      <c r="AER57" s="25"/>
+      <c r="AES57" s="25"/>
+      <c r="AET57" s="25"/>
+      <c r="AEU57" s="25"/>
+      <c r="AEV57" s="25"/>
+      <c r="AEW57" s="25"/>
+      <c r="AEX57" s="25"/>
+      <c r="AEY57" s="25"/>
+      <c r="AEZ57" s="25"/>
+      <c r="AFA57" s="25"/>
+      <c r="AFB57" s="25"/>
+      <c r="AFC57" s="25"/>
+      <c r="AFD57" s="25"/>
+      <c r="AFE57" s="25"/>
+      <c r="AFF57" s="25"/>
+      <c r="AFG57" s="25"/>
+      <c r="AFH57" s="25"/>
+      <c r="AFI57" s="25"/>
+      <c r="AFJ57" s="25"/>
+      <c r="AFK57" s="25"/>
+      <c r="AFL57" s="25"/>
+      <c r="AFM57" s="25"/>
+      <c r="AFN57" s="25"/>
+      <c r="AFO57" s="25"/>
+      <c r="AFP57" s="25"/>
+      <c r="AFQ57" s="25"/>
+      <c r="AFR57" s="25"/>
+      <c r="AFS57" s="25"/>
+      <c r="AFT57" s="25"/>
+      <c r="AFU57" s="25"/>
+      <c r="AFV57" s="25"/>
+      <c r="AFW57" s="25"/>
+      <c r="AFX57" s="25"/>
+      <c r="AFY57" s="25"/>
+      <c r="AFZ57" s="25"/>
+      <c r="AGA57" s="25"/>
+      <c r="AGB57" s="25"/>
+      <c r="AGC57" s="25"/>
+      <c r="AGD57" s="25"/>
+      <c r="AGE57" s="25"/>
+      <c r="AGF57" s="25"/>
+      <c r="AGG57" s="25"/>
+      <c r="AGH57" s="25"/>
+      <c r="AGI57" s="25"/>
+      <c r="AGJ57" s="25"/>
+      <c r="AGK57" s="25"/>
+      <c r="AGL57" s="25"/>
+      <c r="AGM57" s="25"/>
+      <c r="AGN57" s="25"/>
+      <c r="AGO57" s="25"/>
+      <c r="AGP57" s="25"/>
+      <c r="AGQ57" s="25"/>
+      <c r="AGR57" s="25"/>
+      <c r="AGS57" s="25"/>
+      <c r="AGT57" s="25"/>
+      <c r="AGU57" s="25"/>
+      <c r="AGV57" s="25"/>
+      <c r="AGW57" s="25"/>
+      <c r="AGX57" s="25"/>
+      <c r="AGY57" s="25"/>
+      <c r="AGZ57" s="25"/>
+      <c r="AHA57" s="25"/>
+      <c r="AHB57" s="25"/>
+      <c r="AHC57" s="25"/>
+      <c r="AHD57" s="25"/>
+      <c r="AHE57" s="25"/>
+      <c r="AHF57" s="25"/>
+      <c r="AHG57" s="25"/>
+      <c r="AHH57" s="25"/>
+      <c r="AHI57" s="25"/>
+      <c r="AHJ57" s="25"/>
+      <c r="AHK57" s="25"/>
+      <c r="AHL57" s="25"/>
+      <c r="AHM57" s="25"/>
+      <c r="AHN57" s="25"/>
+      <c r="AHO57" s="25"/>
+      <c r="AHP57" s="25"/>
+      <c r="AHQ57" s="25"/>
+      <c r="AHR57" s="25"/>
+      <c r="AHS57" s="25"/>
+      <c r="AHT57" s="25"/>
+      <c r="AHU57" s="25"/>
+      <c r="AHV57" s="25"/>
+      <c r="AHW57" s="25"/>
+      <c r="AHX57" s="25"/>
+      <c r="AHY57" s="25"/>
+      <c r="AHZ57" s="25"/>
+      <c r="AIA57" s="25"/>
+      <c r="AIB57" s="25"/>
+      <c r="AIC57" s="25"/>
+      <c r="AID57" s="25"/>
+      <c r="AIE57" s="25"/>
+      <c r="AIF57" s="25"/>
+      <c r="AIG57" s="25"/>
+      <c r="AIH57" s="25"/>
+      <c r="AII57" s="25"/>
+      <c r="AIJ57" s="25"/>
+      <c r="AIK57" s="25"/>
+      <c r="AIL57" s="25"/>
+      <c r="AIM57" s="25"/>
+      <c r="AIN57" s="25"/>
+      <c r="AIO57" s="25"/>
+      <c r="AIP57" s="25"/>
+      <c r="AIQ57" s="25"/>
+      <c r="AIR57" s="25"/>
+      <c r="AIS57" s="25"/>
+      <c r="AIT57" s="25"/>
+      <c r="AIU57" s="25"/>
+      <c r="AIV57" s="25"/>
+      <c r="AIW57" s="25"/>
+      <c r="AIX57" s="25"/>
+      <c r="AIY57" s="25"/>
+      <c r="AIZ57" s="25"/>
+      <c r="AJA57" s="25"/>
+      <c r="AJB57" s="25"/>
+      <c r="AJC57" s="25"/>
+      <c r="AJD57" s="25"/>
+      <c r="AJE57" s="25"/>
+      <c r="AJF57" s="25"/>
+      <c r="AJG57" s="25"/>
+      <c r="AJH57" s="25"/>
+      <c r="AJI57" s="25"/>
+      <c r="AJJ57" s="25"/>
+      <c r="AJK57" s="25"/>
+      <c r="AJL57" s="25"/>
+      <c r="AJM57" s="25"/>
+      <c r="AJN57" s="25"/>
+      <c r="AJO57" s="25"/>
+      <c r="AJP57" s="25"/>
+      <c r="AJQ57" s="25"/>
+      <c r="AJR57" s="25"/>
+      <c r="AJS57" s="25"/>
+      <c r="AJT57" s="25"/>
+      <c r="AJU57" s="25"/>
+      <c r="AJV57" s="25"/>
+      <c r="AJW57" s="25"/>
+      <c r="AJX57" s="25"/>
+      <c r="AJY57" s="25"/>
+      <c r="AJZ57" s="25"/>
+      <c r="AKA57" s="25"/>
+      <c r="AKB57" s="25"/>
+      <c r="AKC57" s="25"/>
+      <c r="AKD57" s="25"/>
+      <c r="AKE57" s="25"/>
+      <c r="AKF57" s="25"/>
+      <c r="AKG57" s="25"/>
+      <c r="AKH57" s="25"/>
+      <c r="AKI57" s="25"/>
+      <c r="AKJ57" s="25"/>
+      <c r="AKK57" s="25"/>
+      <c r="AKL57" s="25"/>
+      <c r="AKM57" s="25"/>
+      <c r="AKN57" s="25"/>
+      <c r="AKO57" s="25"/>
+      <c r="AKP57" s="25"/>
+      <c r="AKQ57" s="25"/>
+      <c r="AKR57" s="25"/>
+      <c r="AKS57" s="25"/>
+      <c r="AKT57" s="25"/>
+      <c r="AKU57" s="25"/>
+      <c r="AKV57" s="25"/>
+      <c r="AKW57" s="25"/>
+      <c r="AKX57" s="25"/>
+      <c r="AKY57" s="25"/>
+      <c r="AKZ57" s="25"/>
+      <c r="ALA57" s="25"/>
+      <c r="ALB57" s="25"/>
+      <c r="ALC57" s="25"/>
+      <c r="ALD57" s="25"/>
+      <c r="ALE57" s="25"/>
+      <c r="ALF57" s="25"/>
+      <c r="ALG57" s="25"/>
+      <c r="ALH57" s="25"/>
+      <c r="ALI57" s="25"/>
+      <c r="ALJ57" s="25"/>
+      <c r="ALK57" s="25"/>
+      <c r="ALL57" s="25"/>
+      <c r="ALM57" s="25"/>
+      <c r="ALN57" s="25"/>
+      <c r="ALO57" s="25"/>
+      <c r="ALP57" s="25"/>
+      <c r="ALQ57" s="25"/>
+      <c r="ALR57" s="25"/>
+      <c r="ALS57" s="25"/>
+      <c r="ALT57" s="25"/>
+      <c r="ALU57" s="25"/>
+      <c r="ALV57" s="25"/>
+      <c r="ALW57" s="25"/>
+      <c r="ALX57" s="25"/>
+      <c r="ALY57" s="25"/>
+      <c r="ALZ57" s="25"/>
+      <c r="AMA57" s="25"/>
+      <c r="AMB57" s="25"/>
+      <c r="AMC57" s="25"/>
+      <c r="AMD57" s="25"/>
+      <c r="AME57" s="25"/>
+      <c r="AMF57" s="25"/>
+      <c r="AMG57" s="25"/>
+      <c r="AMH57" s="25"/>
+      <c r="AMI57" s="25"/>
+      <c r="AMJ57" s="25"/>
+      <c r="AMK57" s="25"/>
+      <c r="AML57" s="25"/>
+      <c r="AMM57" s="25"/>
     </row>
     <row r="58" spans="1:1027" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
@@ -16458,69 +18517,2103 @@
         <v>528</v>
       </c>
     </row>
-    <row r="61" spans="1:1027" ht="32" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+    <row r="61" spans="1:1027" s="30" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A61" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="E61" s="25"/>
+      <c r="F61" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="O61" s="7" t="s">
+      <c r="I61" s="31"/>
+      <c r="J61" s="29"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="27"/>
+      <c r="M61" s="27"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="27" t="s">
         <v>528</v>
       </c>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+      <c r="AF61" s="25"/>
+      <c r="AG61" s="25"/>
+      <c r="AH61" s="25"/>
+      <c r="AI61" s="25"/>
+      <c r="AJ61" s="25"/>
+      <c r="AK61" s="25"/>
+      <c r="AL61" s="25"/>
+      <c r="AM61" s="25"/>
+      <c r="AN61" s="25"/>
+      <c r="AO61" s="25"/>
+      <c r="AP61" s="25"/>
+      <c r="AQ61" s="25"/>
+      <c r="AR61" s="25"/>
+      <c r="AS61" s="25"/>
+      <c r="AT61" s="25"/>
+      <c r="AU61" s="25"/>
+      <c r="AV61" s="25"/>
+      <c r="AW61" s="25"/>
+      <c r="AX61" s="25"/>
+      <c r="AY61" s="25"/>
+      <c r="AZ61" s="25"/>
+      <c r="BA61" s="25"/>
+      <c r="BB61" s="25"/>
+      <c r="BC61" s="25"/>
+      <c r="BD61" s="25"/>
+      <c r="BE61" s="25"/>
+      <c r="BF61" s="25"/>
+      <c r="BG61" s="25"/>
+      <c r="BH61" s="25"/>
+      <c r="BI61" s="25"/>
+      <c r="BJ61" s="25"/>
+      <c r="BK61" s="25"/>
+      <c r="BL61" s="25"/>
+      <c r="BM61" s="25"/>
+      <c r="BN61" s="25"/>
+      <c r="BO61" s="25"/>
+      <c r="BP61" s="25"/>
+      <c r="BQ61" s="25"/>
+      <c r="BR61" s="25"/>
+      <c r="BS61" s="25"/>
+      <c r="BT61" s="25"/>
+      <c r="BU61" s="25"/>
+      <c r="BV61" s="25"/>
+      <c r="BW61" s="25"/>
+      <c r="BX61" s="25"/>
+      <c r="BY61" s="25"/>
+      <c r="BZ61" s="25"/>
+      <c r="CA61" s="25"/>
+      <c r="CB61" s="25"/>
+      <c r="CC61" s="25"/>
+      <c r="CD61" s="25"/>
+      <c r="CE61" s="25"/>
+      <c r="CF61" s="25"/>
+      <c r="CG61" s="25"/>
+      <c r="CH61" s="25"/>
+      <c r="CI61" s="25"/>
+      <c r="CJ61" s="25"/>
+      <c r="CK61" s="25"/>
+      <c r="CL61" s="25"/>
+      <c r="CM61" s="25"/>
+      <c r="CN61" s="25"/>
+      <c r="CO61" s="25"/>
+      <c r="CP61" s="25"/>
+      <c r="CQ61" s="25"/>
+      <c r="CR61" s="25"/>
+      <c r="CS61" s="25"/>
+      <c r="CT61" s="25"/>
+      <c r="CU61" s="25"/>
+      <c r="CV61" s="25"/>
+      <c r="CW61" s="25"/>
+      <c r="CX61" s="25"/>
+      <c r="CY61" s="25"/>
+      <c r="CZ61" s="25"/>
+      <c r="DA61" s="25"/>
+      <c r="DB61" s="25"/>
+      <c r="DC61" s="25"/>
+      <c r="DD61" s="25"/>
+      <c r="DE61" s="25"/>
+      <c r="DF61" s="25"/>
+      <c r="DG61" s="25"/>
+      <c r="DH61" s="25"/>
+      <c r="DI61" s="25"/>
+      <c r="DJ61" s="25"/>
+      <c r="DK61" s="25"/>
+      <c r="DL61" s="25"/>
+      <c r="DM61" s="25"/>
+      <c r="DN61" s="25"/>
+      <c r="DO61" s="25"/>
+      <c r="DP61" s="25"/>
+      <c r="DQ61" s="25"/>
+      <c r="DR61" s="25"/>
+      <c r="DS61" s="25"/>
+      <c r="DT61" s="25"/>
+      <c r="DU61" s="25"/>
+      <c r="DV61" s="25"/>
+      <c r="DW61" s="25"/>
+      <c r="DX61" s="25"/>
+      <c r="DY61" s="25"/>
+      <c r="DZ61" s="25"/>
+      <c r="EA61" s="25"/>
+      <c r="EB61" s="25"/>
+      <c r="EC61" s="25"/>
+      <c r="ED61" s="25"/>
+      <c r="EE61" s="25"/>
+      <c r="EF61" s="25"/>
+      <c r="EG61" s="25"/>
+      <c r="EH61" s="25"/>
+      <c r="EI61" s="25"/>
+      <c r="EJ61" s="25"/>
+      <c r="EK61" s="25"/>
+      <c r="EL61" s="25"/>
+      <c r="EM61" s="25"/>
+      <c r="EN61" s="25"/>
+      <c r="EO61" s="25"/>
+      <c r="EP61" s="25"/>
+      <c r="EQ61" s="25"/>
+      <c r="ER61" s="25"/>
+      <c r="ES61" s="25"/>
+      <c r="ET61" s="25"/>
+      <c r="EU61" s="25"/>
+      <c r="EV61" s="25"/>
+      <c r="EW61" s="25"/>
+      <c r="EX61" s="25"/>
+      <c r="EY61" s="25"/>
+      <c r="EZ61" s="25"/>
+      <c r="FA61" s="25"/>
+      <c r="FB61" s="25"/>
+      <c r="FC61" s="25"/>
+      <c r="FD61" s="25"/>
+      <c r="FE61" s="25"/>
+      <c r="FF61" s="25"/>
+      <c r="FG61" s="25"/>
+      <c r="FH61" s="25"/>
+      <c r="FI61" s="25"/>
+      <c r="FJ61" s="25"/>
+      <c r="FK61" s="25"/>
+      <c r="FL61" s="25"/>
+      <c r="FM61" s="25"/>
+      <c r="FN61" s="25"/>
+      <c r="FO61" s="25"/>
+      <c r="FP61" s="25"/>
+      <c r="FQ61" s="25"/>
+      <c r="FR61" s="25"/>
+      <c r="FS61" s="25"/>
+      <c r="FT61" s="25"/>
+      <c r="FU61" s="25"/>
+      <c r="FV61" s="25"/>
+      <c r="FW61" s="25"/>
+      <c r="FX61" s="25"/>
+      <c r="FY61" s="25"/>
+      <c r="FZ61" s="25"/>
+      <c r="GA61" s="25"/>
+      <c r="GB61" s="25"/>
+      <c r="GC61" s="25"/>
+      <c r="GD61" s="25"/>
+      <c r="GE61" s="25"/>
+      <c r="GF61" s="25"/>
+      <c r="GG61" s="25"/>
+      <c r="GH61" s="25"/>
+      <c r="GI61" s="25"/>
+      <c r="GJ61" s="25"/>
+      <c r="GK61" s="25"/>
+      <c r="GL61" s="25"/>
+      <c r="GM61" s="25"/>
+      <c r="GN61" s="25"/>
+      <c r="GO61" s="25"/>
+      <c r="GP61" s="25"/>
+      <c r="GQ61" s="25"/>
+      <c r="GR61" s="25"/>
+      <c r="GS61" s="25"/>
+      <c r="GT61" s="25"/>
+      <c r="GU61" s="25"/>
+      <c r="GV61" s="25"/>
+      <c r="GW61" s="25"/>
+      <c r="GX61" s="25"/>
+      <c r="GY61" s="25"/>
+      <c r="GZ61" s="25"/>
+      <c r="HA61" s="25"/>
+      <c r="HB61" s="25"/>
+      <c r="HC61" s="25"/>
+      <c r="HD61" s="25"/>
+      <c r="HE61" s="25"/>
+      <c r="HF61" s="25"/>
+      <c r="HG61" s="25"/>
+      <c r="HH61" s="25"/>
+      <c r="HI61" s="25"/>
+      <c r="HJ61" s="25"/>
+      <c r="HK61" s="25"/>
+      <c r="HL61" s="25"/>
+      <c r="HM61" s="25"/>
+      <c r="HN61" s="25"/>
+      <c r="HO61" s="25"/>
+      <c r="HP61" s="25"/>
+      <c r="HQ61" s="25"/>
+      <c r="HR61" s="25"/>
+      <c r="HS61" s="25"/>
+      <c r="HT61" s="25"/>
+      <c r="HU61" s="25"/>
+      <c r="HV61" s="25"/>
+      <c r="HW61" s="25"/>
+      <c r="HX61" s="25"/>
+      <c r="HY61" s="25"/>
+      <c r="HZ61" s="25"/>
+      <c r="IA61" s="25"/>
+      <c r="IB61" s="25"/>
+      <c r="IC61" s="25"/>
+      <c r="ID61" s="25"/>
+      <c r="IE61" s="25"/>
+      <c r="IF61" s="25"/>
+      <c r="IG61" s="25"/>
+      <c r="IH61" s="25"/>
+      <c r="II61" s="25"/>
+      <c r="IJ61" s="25"/>
+      <c r="IK61" s="25"/>
+      <c r="IL61" s="25"/>
+      <c r="IM61" s="25"/>
+      <c r="IN61" s="25"/>
+      <c r="IO61" s="25"/>
+      <c r="IP61" s="25"/>
+      <c r="IQ61" s="25"/>
+      <c r="IR61" s="25"/>
+      <c r="IS61" s="25"/>
+      <c r="IT61" s="25"/>
+      <c r="IU61" s="25"/>
+      <c r="IV61" s="25"/>
+      <c r="IW61" s="25"/>
+      <c r="IX61" s="25"/>
+      <c r="IY61" s="25"/>
+      <c r="IZ61" s="25"/>
+      <c r="JA61" s="25"/>
+      <c r="JB61" s="25"/>
+      <c r="JC61" s="25"/>
+      <c r="JD61" s="25"/>
+      <c r="JE61" s="25"/>
+      <c r="JF61" s="25"/>
+      <c r="JG61" s="25"/>
+      <c r="JH61" s="25"/>
+      <c r="JI61" s="25"/>
+      <c r="JJ61" s="25"/>
+      <c r="JK61" s="25"/>
+      <c r="JL61" s="25"/>
+      <c r="JM61" s="25"/>
+      <c r="JN61" s="25"/>
+      <c r="JO61" s="25"/>
+      <c r="JP61" s="25"/>
+      <c r="JQ61" s="25"/>
+      <c r="JR61" s="25"/>
+      <c r="JS61" s="25"/>
+      <c r="JT61" s="25"/>
+      <c r="JU61" s="25"/>
+      <c r="JV61" s="25"/>
+      <c r="JW61" s="25"/>
+      <c r="JX61" s="25"/>
+      <c r="JY61" s="25"/>
+      <c r="JZ61" s="25"/>
+      <c r="KA61" s="25"/>
+      <c r="KB61" s="25"/>
+      <c r="KC61" s="25"/>
+      <c r="KD61" s="25"/>
+      <c r="KE61" s="25"/>
+      <c r="KF61" s="25"/>
+      <c r="KG61" s="25"/>
+      <c r="KH61" s="25"/>
+      <c r="KI61" s="25"/>
+      <c r="KJ61" s="25"/>
+      <c r="KK61" s="25"/>
+      <c r="KL61" s="25"/>
+      <c r="KM61" s="25"/>
+      <c r="KN61" s="25"/>
+      <c r="KO61" s="25"/>
+      <c r="KP61" s="25"/>
+      <c r="KQ61" s="25"/>
+      <c r="KR61" s="25"/>
+      <c r="KS61" s="25"/>
+      <c r="KT61" s="25"/>
+      <c r="KU61" s="25"/>
+      <c r="KV61" s="25"/>
+      <c r="KW61" s="25"/>
+      <c r="KX61" s="25"/>
+      <c r="KY61" s="25"/>
+      <c r="KZ61" s="25"/>
+      <c r="LA61" s="25"/>
+      <c r="LB61" s="25"/>
+      <c r="LC61" s="25"/>
+      <c r="LD61" s="25"/>
+      <c r="LE61" s="25"/>
+      <c r="LF61" s="25"/>
+      <c r="LG61" s="25"/>
+      <c r="LH61" s="25"/>
+      <c r="LI61" s="25"/>
+      <c r="LJ61" s="25"/>
+      <c r="LK61" s="25"/>
+      <c r="LL61" s="25"/>
+      <c r="LM61" s="25"/>
+      <c r="LN61" s="25"/>
+      <c r="LO61" s="25"/>
+      <c r="LP61" s="25"/>
+      <c r="LQ61" s="25"/>
+      <c r="LR61" s="25"/>
+      <c r="LS61" s="25"/>
+      <c r="LT61" s="25"/>
+      <c r="LU61" s="25"/>
+      <c r="LV61" s="25"/>
+      <c r="LW61" s="25"/>
+      <c r="LX61" s="25"/>
+      <c r="LY61" s="25"/>
+      <c r="LZ61" s="25"/>
+      <c r="MA61" s="25"/>
+      <c r="MB61" s="25"/>
+      <c r="MC61" s="25"/>
+      <c r="MD61" s="25"/>
+      <c r="ME61" s="25"/>
+      <c r="MF61" s="25"/>
+      <c r="MG61" s="25"/>
+      <c r="MH61" s="25"/>
+      <c r="MI61" s="25"/>
+      <c r="MJ61" s="25"/>
+      <c r="MK61" s="25"/>
+      <c r="ML61" s="25"/>
+      <c r="MM61" s="25"/>
+      <c r="MN61" s="25"/>
+      <c r="MO61" s="25"/>
+      <c r="MP61" s="25"/>
+      <c r="MQ61" s="25"/>
+      <c r="MR61" s="25"/>
+      <c r="MS61" s="25"/>
+      <c r="MT61" s="25"/>
+      <c r="MU61" s="25"/>
+      <c r="MV61" s="25"/>
+      <c r="MW61" s="25"/>
+      <c r="MX61" s="25"/>
+      <c r="MY61" s="25"/>
+      <c r="MZ61" s="25"/>
+      <c r="NA61" s="25"/>
+      <c r="NB61" s="25"/>
+      <c r="NC61" s="25"/>
+      <c r="ND61" s="25"/>
+      <c r="NE61" s="25"/>
+      <c r="NF61" s="25"/>
+      <c r="NG61" s="25"/>
+      <c r="NH61" s="25"/>
+      <c r="NI61" s="25"/>
+      <c r="NJ61" s="25"/>
+      <c r="NK61" s="25"/>
+      <c r="NL61" s="25"/>
+      <c r="NM61" s="25"/>
+      <c r="NN61" s="25"/>
+      <c r="NO61" s="25"/>
+      <c r="NP61" s="25"/>
+      <c r="NQ61" s="25"/>
+      <c r="NR61" s="25"/>
+      <c r="NS61" s="25"/>
+      <c r="NT61" s="25"/>
+      <c r="NU61" s="25"/>
+      <c r="NV61" s="25"/>
+      <c r="NW61" s="25"/>
+      <c r="NX61" s="25"/>
+      <c r="NY61" s="25"/>
+      <c r="NZ61" s="25"/>
+      <c r="OA61" s="25"/>
+      <c r="OB61" s="25"/>
+      <c r="OC61" s="25"/>
+      <c r="OD61" s="25"/>
+      <c r="OE61" s="25"/>
+      <c r="OF61" s="25"/>
+      <c r="OG61" s="25"/>
+      <c r="OH61" s="25"/>
+      <c r="OI61" s="25"/>
+      <c r="OJ61" s="25"/>
+      <c r="OK61" s="25"/>
+      <c r="OL61" s="25"/>
+      <c r="OM61" s="25"/>
+      <c r="ON61" s="25"/>
+      <c r="OO61" s="25"/>
+      <c r="OP61" s="25"/>
+      <c r="OQ61" s="25"/>
+      <c r="OR61" s="25"/>
+      <c r="OS61" s="25"/>
+      <c r="OT61" s="25"/>
+      <c r="OU61" s="25"/>
+      <c r="OV61" s="25"/>
+      <c r="OW61" s="25"/>
+      <c r="OX61" s="25"/>
+      <c r="OY61" s="25"/>
+      <c r="OZ61" s="25"/>
+      <c r="PA61" s="25"/>
+      <c r="PB61" s="25"/>
+      <c r="PC61" s="25"/>
+      <c r="PD61" s="25"/>
+      <c r="PE61" s="25"/>
+      <c r="PF61" s="25"/>
+      <c r="PG61" s="25"/>
+      <c r="PH61" s="25"/>
+      <c r="PI61" s="25"/>
+      <c r="PJ61" s="25"/>
+      <c r="PK61" s="25"/>
+      <c r="PL61" s="25"/>
+      <c r="PM61" s="25"/>
+      <c r="PN61" s="25"/>
+      <c r="PO61" s="25"/>
+      <c r="PP61" s="25"/>
+      <c r="PQ61" s="25"/>
+      <c r="PR61" s="25"/>
+      <c r="PS61" s="25"/>
+      <c r="PT61" s="25"/>
+      <c r="PU61" s="25"/>
+      <c r="PV61" s="25"/>
+      <c r="PW61" s="25"/>
+      <c r="PX61" s="25"/>
+      <c r="PY61" s="25"/>
+      <c r="PZ61" s="25"/>
+      <c r="QA61" s="25"/>
+      <c r="QB61" s="25"/>
+      <c r="QC61" s="25"/>
+      <c r="QD61" s="25"/>
+      <c r="QE61" s="25"/>
+      <c r="QF61" s="25"/>
+      <c r="QG61" s="25"/>
+      <c r="QH61" s="25"/>
+      <c r="QI61" s="25"/>
+      <c r="QJ61" s="25"/>
+      <c r="QK61" s="25"/>
+      <c r="QL61" s="25"/>
+      <c r="QM61" s="25"/>
+      <c r="QN61" s="25"/>
+      <c r="QO61" s="25"/>
+      <c r="QP61" s="25"/>
+      <c r="QQ61" s="25"/>
+      <c r="QR61" s="25"/>
+      <c r="QS61" s="25"/>
+      <c r="QT61" s="25"/>
+      <c r="QU61" s="25"/>
+      <c r="QV61" s="25"/>
+      <c r="QW61" s="25"/>
+      <c r="QX61" s="25"/>
+      <c r="QY61" s="25"/>
+      <c r="QZ61" s="25"/>
+      <c r="RA61" s="25"/>
+      <c r="RB61" s="25"/>
+      <c r="RC61" s="25"/>
+      <c r="RD61" s="25"/>
+      <c r="RE61" s="25"/>
+      <c r="RF61" s="25"/>
+      <c r="RG61" s="25"/>
+      <c r="RH61" s="25"/>
+      <c r="RI61" s="25"/>
+      <c r="RJ61" s="25"/>
+      <c r="RK61" s="25"/>
+      <c r="RL61" s="25"/>
+      <c r="RM61" s="25"/>
+      <c r="RN61" s="25"/>
+      <c r="RO61" s="25"/>
+      <c r="RP61" s="25"/>
+      <c r="RQ61" s="25"/>
+      <c r="RR61" s="25"/>
+      <c r="RS61" s="25"/>
+      <c r="RT61" s="25"/>
+      <c r="RU61" s="25"/>
+      <c r="RV61" s="25"/>
+      <c r="RW61" s="25"/>
+      <c r="RX61" s="25"/>
+      <c r="RY61" s="25"/>
+      <c r="RZ61" s="25"/>
+      <c r="SA61" s="25"/>
+      <c r="SB61" s="25"/>
+      <c r="SC61" s="25"/>
+      <c r="SD61" s="25"/>
+      <c r="SE61" s="25"/>
+      <c r="SF61" s="25"/>
+      <c r="SG61" s="25"/>
+      <c r="SH61" s="25"/>
+      <c r="SI61" s="25"/>
+      <c r="SJ61" s="25"/>
+      <c r="SK61" s="25"/>
+      <c r="SL61" s="25"/>
+      <c r="SM61" s="25"/>
+      <c r="SN61" s="25"/>
+      <c r="SO61" s="25"/>
+      <c r="SP61" s="25"/>
+      <c r="SQ61" s="25"/>
+      <c r="SR61" s="25"/>
+      <c r="SS61" s="25"/>
+      <c r="ST61" s="25"/>
+      <c r="SU61" s="25"/>
+      <c r="SV61" s="25"/>
+      <c r="SW61" s="25"/>
+      <c r="SX61" s="25"/>
+      <c r="SY61" s="25"/>
+      <c r="SZ61" s="25"/>
+      <c r="TA61" s="25"/>
+      <c r="TB61" s="25"/>
+      <c r="TC61" s="25"/>
+      <c r="TD61" s="25"/>
+      <c r="TE61" s="25"/>
+      <c r="TF61" s="25"/>
+      <c r="TG61" s="25"/>
+      <c r="TH61" s="25"/>
+      <c r="TI61" s="25"/>
+      <c r="TJ61" s="25"/>
+      <c r="TK61" s="25"/>
+      <c r="TL61" s="25"/>
+      <c r="TM61" s="25"/>
+      <c r="TN61" s="25"/>
+      <c r="TO61" s="25"/>
+      <c r="TP61" s="25"/>
+      <c r="TQ61" s="25"/>
+      <c r="TR61" s="25"/>
+      <c r="TS61" s="25"/>
+      <c r="TT61" s="25"/>
+      <c r="TU61" s="25"/>
+      <c r="TV61" s="25"/>
+      <c r="TW61" s="25"/>
+      <c r="TX61" s="25"/>
+      <c r="TY61" s="25"/>
+      <c r="TZ61" s="25"/>
+      <c r="UA61" s="25"/>
+      <c r="UB61" s="25"/>
+      <c r="UC61" s="25"/>
+      <c r="UD61" s="25"/>
+      <c r="UE61" s="25"/>
+      <c r="UF61" s="25"/>
+      <c r="UG61" s="25"/>
+      <c r="UH61" s="25"/>
+      <c r="UI61" s="25"/>
+      <c r="UJ61" s="25"/>
+      <c r="UK61" s="25"/>
+      <c r="UL61" s="25"/>
+      <c r="UM61" s="25"/>
+      <c r="UN61" s="25"/>
+      <c r="UO61" s="25"/>
+      <c r="UP61" s="25"/>
+      <c r="UQ61" s="25"/>
+      <c r="UR61" s="25"/>
+      <c r="US61" s="25"/>
+      <c r="UT61" s="25"/>
+      <c r="UU61" s="25"/>
+      <c r="UV61" s="25"/>
+      <c r="UW61" s="25"/>
+      <c r="UX61" s="25"/>
+      <c r="UY61" s="25"/>
+      <c r="UZ61" s="25"/>
+      <c r="VA61" s="25"/>
+      <c r="VB61" s="25"/>
+      <c r="VC61" s="25"/>
+      <c r="VD61" s="25"/>
+      <c r="VE61" s="25"/>
+      <c r="VF61" s="25"/>
+      <c r="VG61" s="25"/>
+      <c r="VH61" s="25"/>
+      <c r="VI61" s="25"/>
+      <c r="VJ61" s="25"/>
+      <c r="VK61" s="25"/>
+      <c r="VL61" s="25"/>
+      <c r="VM61" s="25"/>
+      <c r="VN61" s="25"/>
+      <c r="VO61" s="25"/>
+      <c r="VP61" s="25"/>
+      <c r="VQ61" s="25"/>
+      <c r="VR61" s="25"/>
+      <c r="VS61" s="25"/>
+      <c r="VT61" s="25"/>
+      <c r="VU61" s="25"/>
+      <c r="VV61" s="25"/>
+      <c r="VW61" s="25"/>
+      <c r="VX61" s="25"/>
+      <c r="VY61" s="25"/>
+      <c r="VZ61" s="25"/>
+      <c r="WA61" s="25"/>
+      <c r="WB61" s="25"/>
+      <c r="WC61" s="25"/>
+      <c r="WD61" s="25"/>
+      <c r="WE61" s="25"/>
+      <c r="WF61" s="25"/>
+      <c r="WG61" s="25"/>
+      <c r="WH61" s="25"/>
+      <c r="WI61" s="25"/>
+      <c r="WJ61" s="25"/>
+      <c r="WK61" s="25"/>
+      <c r="WL61" s="25"/>
+      <c r="WM61" s="25"/>
+      <c r="WN61" s="25"/>
+      <c r="WO61" s="25"/>
+      <c r="WP61" s="25"/>
+      <c r="WQ61" s="25"/>
+      <c r="WR61" s="25"/>
+      <c r="WS61" s="25"/>
+      <c r="WT61" s="25"/>
+      <c r="WU61" s="25"/>
+      <c r="WV61" s="25"/>
+      <c r="WW61" s="25"/>
+      <c r="WX61" s="25"/>
+      <c r="WY61" s="25"/>
+      <c r="WZ61" s="25"/>
+      <c r="XA61" s="25"/>
+      <c r="XB61" s="25"/>
+      <c r="XC61" s="25"/>
+      <c r="XD61" s="25"/>
+      <c r="XE61" s="25"/>
+      <c r="XF61" s="25"/>
+      <c r="XG61" s="25"/>
+      <c r="XH61" s="25"/>
+      <c r="XI61" s="25"/>
+      <c r="XJ61" s="25"/>
+      <c r="XK61" s="25"/>
+      <c r="XL61" s="25"/>
+      <c r="XM61" s="25"/>
+      <c r="XN61" s="25"/>
+      <c r="XO61" s="25"/>
+      <c r="XP61" s="25"/>
+      <c r="XQ61" s="25"/>
+      <c r="XR61" s="25"/>
+      <c r="XS61" s="25"/>
+      <c r="XT61" s="25"/>
+      <c r="XU61" s="25"/>
+      <c r="XV61" s="25"/>
+      <c r="XW61" s="25"/>
+      <c r="XX61" s="25"/>
+      <c r="XY61" s="25"/>
+      <c r="XZ61" s="25"/>
+      <c r="YA61" s="25"/>
+      <c r="YB61" s="25"/>
+      <c r="YC61" s="25"/>
+      <c r="YD61" s="25"/>
+      <c r="YE61" s="25"/>
+      <c r="YF61" s="25"/>
+      <c r="YG61" s="25"/>
+      <c r="YH61" s="25"/>
+      <c r="YI61" s="25"/>
+      <c r="YJ61" s="25"/>
+      <c r="YK61" s="25"/>
+      <c r="YL61" s="25"/>
+      <c r="YM61" s="25"/>
+      <c r="YN61" s="25"/>
+      <c r="YO61" s="25"/>
+      <c r="YP61" s="25"/>
+      <c r="YQ61" s="25"/>
+      <c r="YR61" s="25"/>
+      <c r="YS61" s="25"/>
+      <c r="YT61" s="25"/>
+      <c r="YU61" s="25"/>
+      <c r="YV61" s="25"/>
+      <c r="YW61" s="25"/>
+      <c r="YX61" s="25"/>
+      <c r="YY61" s="25"/>
+      <c r="YZ61" s="25"/>
+      <c r="ZA61" s="25"/>
+      <c r="ZB61" s="25"/>
+      <c r="ZC61" s="25"/>
+      <c r="ZD61" s="25"/>
+      <c r="ZE61" s="25"/>
+      <c r="ZF61" s="25"/>
+      <c r="ZG61" s="25"/>
+      <c r="ZH61" s="25"/>
+      <c r="ZI61" s="25"/>
+      <c r="ZJ61" s="25"/>
+      <c r="ZK61" s="25"/>
+      <c r="ZL61" s="25"/>
+      <c r="ZM61" s="25"/>
+      <c r="ZN61" s="25"/>
+      <c r="ZO61" s="25"/>
+      <c r="ZP61" s="25"/>
+      <c r="ZQ61" s="25"/>
+      <c r="ZR61" s="25"/>
+      <c r="ZS61" s="25"/>
+      <c r="ZT61" s="25"/>
+      <c r="ZU61" s="25"/>
+      <c r="ZV61" s="25"/>
+      <c r="ZW61" s="25"/>
+      <c r="ZX61" s="25"/>
+      <c r="ZY61" s="25"/>
+      <c r="ZZ61" s="25"/>
+      <c r="AAA61" s="25"/>
+      <c r="AAB61" s="25"/>
+      <c r="AAC61" s="25"/>
+      <c r="AAD61" s="25"/>
+      <c r="AAE61" s="25"/>
+      <c r="AAF61" s="25"/>
+      <c r="AAG61" s="25"/>
+      <c r="AAH61" s="25"/>
+      <c r="AAI61" s="25"/>
+      <c r="AAJ61" s="25"/>
+      <c r="AAK61" s="25"/>
+      <c r="AAL61" s="25"/>
+      <c r="AAM61" s="25"/>
+      <c r="AAN61" s="25"/>
+      <c r="AAO61" s="25"/>
+      <c r="AAP61" s="25"/>
+      <c r="AAQ61" s="25"/>
+      <c r="AAR61" s="25"/>
+      <c r="AAS61" s="25"/>
+      <c r="AAT61" s="25"/>
+      <c r="AAU61" s="25"/>
+      <c r="AAV61" s="25"/>
+      <c r="AAW61" s="25"/>
+      <c r="AAX61" s="25"/>
+      <c r="AAY61" s="25"/>
+      <c r="AAZ61" s="25"/>
+      <c r="ABA61" s="25"/>
+      <c r="ABB61" s="25"/>
+      <c r="ABC61" s="25"/>
+      <c r="ABD61" s="25"/>
+      <c r="ABE61" s="25"/>
+      <c r="ABF61" s="25"/>
+      <c r="ABG61" s="25"/>
+      <c r="ABH61" s="25"/>
+      <c r="ABI61" s="25"/>
+      <c r="ABJ61" s="25"/>
+      <c r="ABK61" s="25"/>
+      <c r="ABL61" s="25"/>
+      <c r="ABM61" s="25"/>
+      <c r="ABN61" s="25"/>
+      <c r="ABO61" s="25"/>
+      <c r="ABP61" s="25"/>
+      <c r="ABQ61" s="25"/>
+      <c r="ABR61" s="25"/>
+      <c r="ABS61" s="25"/>
+      <c r="ABT61" s="25"/>
+      <c r="ABU61" s="25"/>
+      <c r="ABV61" s="25"/>
+      <c r="ABW61" s="25"/>
+      <c r="ABX61" s="25"/>
+      <c r="ABY61" s="25"/>
+      <c r="ABZ61" s="25"/>
+      <c r="ACA61" s="25"/>
+      <c r="ACB61" s="25"/>
+      <c r="ACC61" s="25"/>
+      <c r="ACD61" s="25"/>
+      <c r="ACE61" s="25"/>
+      <c r="ACF61" s="25"/>
+      <c r="ACG61" s="25"/>
+      <c r="ACH61" s="25"/>
+      <c r="ACI61" s="25"/>
+      <c r="ACJ61" s="25"/>
+      <c r="ACK61" s="25"/>
+      <c r="ACL61" s="25"/>
+      <c r="ACM61" s="25"/>
+      <c r="ACN61" s="25"/>
+      <c r="ACO61" s="25"/>
+      <c r="ACP61" s="25"/>
+      <c r="ACQ61" s="25"/>
+      <c r="ACR61" s="25"/>
+      <c r="ACS61" s="25"/>
+      <c r="ACT61" s="25"/>
+      <c r="ACU61" s="25"/>
+      <c r="ACV61" s="25"/>
+      <c r="ACW61" s="25"/>
+      <c r="ACX61" s="25"/>
+      <c r="ACY61" s="25"/>
+      <c r="ACZ61" s="25"/>
+      <c r="ADA61" s="25"/>
+      <c r="ADB61" s="25"/>
+      <c r="ADC61" s="25"/>
+      <c r="ADD61" s="25"/>
+      <c r="ADE61" s="25"/>
+      <c r="ADF61" s="25"/>
+      <c r="ADG61" s="25"/>
+      <c r="ADH61" s="25"/>
+      <c r="ADI61" s="25"/>
+      <c r="ADJ61" s="25"/>
+      <c r="ADK61" s="25"/>
+      <c r="ADL61" s="25"/>
+      <c r="ADM61" s="25"/>
+      <c r="ADN61" s="25"/>
+      <c r="ADO61" s="25"/>
+      <c r="ADP61" s="25"/>
+      <c r="ADQ61" s="25"/>
+      <c r="ADR61" s="25"/>
+      <c r="ADS61" s="25"/>
+      <c r="ADT61" s="25"/>
+      <c r="ADU61" s="25"/>
+      <c r="ADV61" s="25"/>
+      <c r="ADW61" s="25"/>
+      <c r="ADX61" s="25"/>
+      <c r="ADY61" s="25"/>
+      <c r="ADZ61" s="25"/>
+      <c r="AEA61" s="25"/>
+      <c r="AEB61" s="25"/>
+      <c r="AEC61" s="25"/>
+      <c r="AED61" s="25"/>
+      <c r="AEE61" s="25"/>
+      <c r="AEF61" s="25"/>
+      <c r="AEG61" s="25"/>
+      <c r="AEH61" s="25"/>
+      <c r="AEI61" s="25"/>
+      <c r="AEJ61" s="25"/>
+      <c r="AEK61" s="25"/>
+      <c r="AEL61" s="25"/>
+      <c r="AEM61" s="25"/>
+      <c r="AEN61" s="25"/>
+      <c r="AEO61" s="25"/>
+      <c r="AEP61" s="25"/>
+      <c r="AEQ61" s="25"/>
+      <c r="AER61" s="25"/>
+      <c r="AES61" s="25"/>
+      <c r="AET61" s="25"/>
+      <c r="AEU61" s="25"/>
+      <c r="AEV61" s="25"/>
+      <c r="AEW61" s="25"/>
+      <c r="AEX61" s="25"/>
+      <c r="AEY61" s="25"/>
+      <c r="AEZ61" s="25"/>
+      <c r="AFA61" s="25"/>
+      <c r="AFB61" s="25"/>
+      <c r="AFC61" s="25"/>
+      <c r="AFD61" s="25"/>
+      <c r="AFE61" s="25"/>
+      <c r="AFF61" s="25"/>
+      <c r="AFG61" s="25"/>
+      <c r="AFH61" s="25"/>
+      <c r="AFI61" s="25"/>
+      <c r="AFJ61" s="25"/>
+      <c r="AFK61" s="25"/>
+      <c r="AFL61" s="25"/>
+      <c r="AFM61" s="25"/>
+      <c r="AFN61" s="25"/>
+      <c r="AFO61" s="25"/>
+      <c r="AFP61" s="25"/>
+      <c r="AFQ61" s="25"/>
+      <c r="AFR61" s="25"/>
+      <c r="AFS61" s="25"/>
+      <c r="AFT61" s="25"/>
+      <c r="AFU61" s="25"/>
+      <c r="AFV61" s="25"/>
+      <c r="AFW61" s="25"/>
+      <c r="AFX61" s="25"/>
+      <c r="AFY61" s="25"/>
+      <c r="AFZ61" s="25"/>
+      <c r="AGA61" s="25"/>
+      <c r="AGB61" s="25"/>
+      <c r="AGC61" s="25"/>
+      <c r="AGD61" s="25"/>
+      <c r="AGE61" s="25"/>
+      <c r="AGF61" s="25"/>
+      <c r="AGG61" s="25"/>
+      <c r="AGH61" s="25"/>
+      <c r="AGI61" s="25"/>
+      <c r="AGJ61" s="25"/>
+      <c r="AGK61" s="25"/>
+      <c r="AGL61" s="25"/>
+      <c r="AGM61" s="25"/>
+      <c r="AGN61" s="25"/>
+      <c r="AGO61" s="25"/>
+      <c r="AGP61" s="25"/>
+      <c r="AGQ61" s="25"/>
+      <c r="AGR61" s="25"/>
+      <c r="AGS61" s="25"/>
+      <c r="AGT61" s="25"/>
+      <c r="AGU61" s="25"/>
+      <c r="AGV61" s="25"/>
+      <c r="AGW61" s="25"/>
+      <c r="AGX61" s="25"/>
+      <c r="AGY61" s="25"/>
+      <c r="AGZ61" s="25"/>
+      <c r="AHA61" s="25"/>
+      <c r="AHB61" s="25"/>
+      <c r="AHC61" s="25"/>
+      <c r="AHD61" s="25"/>
+      <c r="AHE61" s="25"/>
+      <c r="AHF61" s="25"/>
+      <c r="AHG61" s="25"/>
+      <c r="AHH61" s="25"/>
+      <c r="AHI61" s="25"/>
+      <c r="AHJ61" s="25"/>
+      <c r="AHK61" s="25"/>
+      <c r="AHL61" s="25"/>
+      <c r="AHM61" s="25"/>
+      <c r="AHN61" s="25"/>
+      <c r="AHO61" s="25"/>
+      <c r="AHP61" s="25"/>
+      <c r="AHQ61" s="25"/>
+      <c r="AHR61" s="25"/>
+      <c r="AHS61" s="25"/>
+      <c r="AHT61" s="25"/>
+      <c r="AHU61" s="25"/>
+      <c r="AHV61" s="25"/>
+      <c r="AHW61" s="25"/>
+      <c r="AHX61" s="25"/>
+      <c r="AHY61" s="25"/>
+      <c r="AHZ61" s="25"/>
+      <c r="AIA61" s="25"/>
+      <c r="AIB61" s="25"/>
+      <c r="AIC61" s="25"/>
+      <c r="AID61" s="25"/>
+      <c r="AIE61" s="25"/>
+      <c r="AIF61" s="25"/>
+      <c r="AIG61" s="25"/>
+      <c r="AIH61" s="25"/>
+      <c r="AII61" s="25"/>
+      <c r="AIJ61" s="25"/>
+      <c r="AIK61" s="25"/>
+      <c r="AIL61" s="25"/>
+      <c r="AIM61" s="25"/>
+      <c r="AIN61" s="25"/>
+      <c r="AIO61" s="25"/>
+      <c r="AIP61" s="25"/>
+      <c r="AIQ61" s="25"/>
+      <c r="AIR61" s="25"/>
+      <c r="AIS61" s="25"/>
+      <c r="AIT61" s="25"/>
+      <c r="AIU61" s="25"/>
+      <c r="AIV61" s="25"/>
+      <c r="AIW61" s="25"/>
+      <c r="AIX61" s="25"/>
+      <c r="AIY61" s="25"/>
+      <c r="AIZ61" s="25"/>
+      <c r="AJA61" s="25"/>
+      <c r="AJB61" s="25"/>
+      <c r="AJC61" s="25"/>
+      <c r="AJD61" s="25"/>
+      <c r="AJE61" s="25"/>
+      <c r="AJF61" s="25"/>
+      <c r="AJG61" s="25"/>
+      <c r="AJH61" s="25"/>
+      <c r="AJI61" s="25"/>
+      <c r="AJJ61" s="25"/>
+      <c r="AJK61" s="25"/>
+      <c r="AJL61" s="25"/>
+      <c r="AJM61" s="25"/>
+      <c r="AJN61" s="25"/>
+      <c r="AJO61" s="25"/>
+      <c r="AJP61" s="25"/>
+      <c r="AJQ61" s="25"/>
+      <c r="AJR61" s="25"/>
+      <c r="AJS61" s="25"/>
+      <c r="AJT61" s="25"/>
+      <c r="AJU61" s="25"/>
+      <c r="AJV61" s="25"/>
+      <c r="AJW61" s="25"/>
+      <c r="AJX61" s="25"/>
+      <c r="AJY61" s="25"/>
+      <c r="AJZ61" s="25"/>
+      <c r="AKA61" s="25"/>
+      <c r="AKB61" s="25"/>
+      <c r="AKC61" s="25"/>
+      <c r="AKD61" s="25"/>
+      <c r="AKE61" s="25"/>
+      <c r="AKF61" s="25"/>
+      <c r="AKG61" s="25"/>
+      <c r="AKH61" s="25"/>
+      <c r="AKI61" s="25"/>
+      <c r="AKJ61" s="25"/>
+      <c r="AKK61" s="25"/>
+      <c r="AKL61" s="25"/>
+      <c r="AKM61" s="25"/>
+      <c r="AKN61" s="25"/>
+      <c r="AKO61" s="25"/>
+      <c r="AKP61" s="25"/>
+      <c r="AKQ61" s="25"/>
+      <c r="AKR61" s="25"/>
+      <c r="AKS61" s="25"/>
+      <c r="AKT61" s="25"/>
+      <c r="AKU61" s="25"/>
+      <c r="AKV61" s="25"/>
+      <c r="AKW61" s="25"/>
+      <c r="AKX61" s="25"/>
+      <c r="AKY61" s="25"/>
+      <c r="AKZ61" s="25"/>
+      <c r="ALA61" s="25"/>
+      <c r="ALB61" s="25"/>
+      <c r="ALC61" s="25"/>
+      <c r="ALD61" s="25"/>
+      <c r="ALE61" s="25"/>
+      <c r="ALF61" s="25"/>
+      <c r="ALG61" s="25"/>
+      <c r="ALH61" s="25"/>
+      <c r="ALI61" s="25"/>
+      <c r="ALJ61" s="25"/>
+      <c r="ALK61" s="25"/>
+      <c r="ALL61" s="25"/>
+      <c r="ALM61" s="25"/>
+      <c r="ALN61" s="25"/>
+      <c r="ALO61" s="25"/>
+      <c r="ALP61" s="25"/>
+      <c r="ALQ61" s="25"/>
+      <c r="ALR61" s="25"/>
+      <c r="ALS61" s="25"/>
+      <c r="ALT61" s="25"/>
+      <c r="ALU61" s="25"/>
+      <c r="ALV61" s="25"/>
+      <c r="ALW61" s="25"/>
+      <c r="ALX61" s="25"/>
+      <c r="ALY61" s="25"/>
+      <c r="ALZ61" s="25"/>
+      <c r="AMA61" s="25"/>
+      <c r="AMB61" s="25"/>
+      <c r="AMC61" s="25"/>
+      <c r="AMD61" s="25"/>
+      <c r="AME61" s="25"/>
+      <c r="AMF61" s="25"/>
+      <c r="AMG61" s="25"/>
+      <c r="AMH61" s="25"/>
+      <c r="AMI61" s="25"/>
+      <c r="AMJ61" s="25"/>
+      <c r="AMK61" s="25"/>
+      <c r="AML61" s="25"/>
+      <c r="AMM61" s="25"/>
     </row>
-    <row r="62" spans="1:1027" ht="96" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+    <row r="62" spans="1:1027" s="30" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+      <c r="A62" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="E62" s="25"/>
+      <c r="F62" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="27" t="s">
         <v>483</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="J62" s="6" t="s">
+      <c r="I62" s="31"/>
+      <c r="J62" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="K62" s="6" t="s">
+      <c r="K62" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="L62" s="27"/>
+      <c r="M62" s="27" t="s">
         <v>435</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N62" s="25" t="s">
         <v>177</v>
       </c>
-      <c r="O62" s="7" t="s">
+      <c r="O62" s="27" t="s">
         <v>528</v>
       </c>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="25"/>
+      <c r="AJ62" s="25"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="25"/>
+      <c r="AM62" s="25"/>
+      <c r="AN62" s="25"/>
+      <c r="AO62" s="25"/>
+      <c r="AP62" s="25"/>
+      <c r="AQ62" s="25"/>
+      <c r="AR62" s="25"/>
+      <c r="AS62" s="25"/>
+      <c r="AT62" s="25"/>
+      <c r="AU62" s="25"/>
+      <c r="AV62" s="25"/>
+      <c r="AW62" s="25"/>
+      <c r="AX62" s="25"/>
+      <c r="AY62" s="25"/>
+      <c r="AZ62" s="25"/>
+      <c r="BA62" s="25"/>
+      <c r="BB62" s="25"/>
+      <c r="BC62" s="25"/>
+      <c r="BD62" s="25"/>
+      <c r="BE62" s="25"/>
+      <c r="BF62" s="25"/>
+      <c r="BG62" s="25"/>
+      <c r="BH62" s="25"/>
+      <c r="BI62" s="25"/>
+      <c r="BJ62" s="25"/>
+      <c r="BK62" s="25"/>
+      <c r="BL62" s="25"/>
+      <c r="BM62" s="25"/>
+      <c r="BN62" s="25"/>
+      <c r="BO62" s="25"/>
+      <c r="BP62" s="25"/>
+      <c r="BQ62" s="25"/>
+      <c r="BR62" s="25"/>
+      <c r="BS62" s="25"/>
+      <c r="BT62" s="25"/>
+      <c r="BU62" s="25"/>
+      <c r="BV62" s="25"/>
+      <c r="BW62" s="25"/>
+      <c r="BX62" s="25"/>
+      <c r="BY62" s="25"/>
+      <c r="BZ62" s="25"/>
+      <c r="CA62" s="25"/>
+      <c r="CB62" s="25"/>
+      <c r="CC62" s="25"/>
+      <c r="CD62" s="25"/>
+      <c r="CE62" s="25"/>
+      <c r="CF62" s="25"/>
+      <c r="CG62" s="25"/>
+      <c r="CH62" s="25"/>
+      <c r="CI62" s="25"/>
+      <c r="CJ62" s="25"/>
+      <c r="CK62" s="25"/>
+      <c r="CL62" s="25"/>
+      <c r="CM62" s="25"/>
+      <c r="CN62" s="25"/>
+      <c r="CO62" s="25"/>
+      <c r="CP62" s="25"/>
+      <c r="CQ62" s="25"/>
+      <c r="CR62" s="25"/>
+      <c r="CS62" s="25"/>
+      <c r="CT62" s="25"/>
+      <c r="CU62" s="25"/>
+      <c r="CV62" s="25"/>
+      <c r="CW62" s="25"/>
+      <c r="CX62" s="25"/>
+      <c r="CY62" s="25"/>
+      <c r="CZ62" s="25"/>
+      <c r="DA62" s="25"/>
+      <c r="DB62" s="25"/>
+      <c r="DC62" s="25"/>
+      <c r="DD62" s="25"/>
+      <c r="DE62" s="25"/>
+      <c r="DF62" s="25"/>
+      <c r="DG62" s="25"/>
+      <c r="DH62" s="25"/>
+      <c r="DI62" s="25"/>
+      <c r="DJ62" s="25"/>
+      <c r="DK62" s="25"/>
+      <c r="DL62" s="25"/>
+      <c r="DM62" s="25"/>
+      <c r="DN62" s="25"/>
+      <c r="DO62" s="25"/>
+      <c r="DP62" s="25"/>
+      <c r="DQ62" s="25"/>
+      <c r="DR62" s="25"/>
+      <c r="DS62" s="25"/>
+      <c r="DT62" s="25"/>
+      <c r="DU62" s="25"/>
+      <c r="DV62" s="25"/>
+      <c r="DW62" s="25"/>
+      <c r="DX62" s="25"/>
+      <c r="DY62" s="25"/>
+      <c r="DZ62" s="25"/>
+      <c r="EA62" s="25"/>
+      <c r="EB62" s="25"/>
+      <c r="EC62" s="25"/>
+      <c r="ED62" s="25"/>
+      <c r="EE62" s="25"/>
+      <c r="EF62" s="25"/>
+      <c r="EG62" s="25"/>
+      <c r="EH62" s="25"/>
+      <c r="EI62" s="25"/>
+      <c r="EJ62" s="25"/>
+      <c r="EK62" s="25"/>
+      <c r="EL62" s="25"/>
+      <c r="EM62" s="25"/>
+      <c r="EN62" s="25"/>
+      <c r="EO62" s="25"/>
+      <c r="EP62" s="25"/>
+      <c r="EQ62" s="25"/>
+      <c r="ER62" s="25"/>
+      <c r="ES62" s="25"/>
+      <c r="ET62" s="25"/>
+      <c r="EU62" s="25"/>
+      <c r="EV62" s="25"/>
+      <c r="EW62" s="25"/>
+      <c r="EX62" s="25"/>
+      <c r="EY62" s="25"/>
+      <c r="EZ62" s="25"/>
+      <c r="FA62" s="25"/>
+      <c r="FB62" s="25"/>
+      <c r="FC62" s="25"/>
+      <c r="FD62" s="25"/>
+      <c r="FE62" s="25"/>
+      <c r="FF62" s="25"/>
+      <c r="FG62" s="25"/>
+      <c r="FH62" s="25"/>
+      <c r="FI62" s="25"/>
+      <c r="FJ62" s="25"/>
+      <c r="FK62" s="25"/>
+      <c r="FL62" s="25"/>
+      <c r="FM62" s="25"/>
+      <c r="FN62" s="25"/>
+      <c r="FO62" s="25"/>
+      <c r="FP62" s="25"/>
+      <c r="FQ62" s="25"/>
+      <c r="FR62" s="25"/>
+      <c r="FS62" s="25"/>
+      <c r="FT62" s="25"/>
+      <c r="FU62" s="25"/>
+      <c r="FV62" s="25"/>
+      <c r="FW62" s="25"/>
+      <c r="FX62" s="25"/>
+      <c r="FY62" s="25"/>
+      <c r="FZ62" s="25"/>
+      <c r="GA62" s="25"/>
+      <c r="GB62" s="25"/>
+      <c r="GC62" s="25"/>
+      <c r="GD62" s="25"/>
+      <c r="GE62" s="25"/>
+      <c r="GF62" s="25"/>
+      <c r="GG62" s="25"/>
+      <c r="GH62" s="25"/>
+      <c r="GI62" s="25"/>
+      <c r="GJ62" s="25"/>
+      <c r="GK62" s="25"/>
+      <c r="GL62" s="25"/>
+      <c r="GM62" s="25"/>
+      <c r="GN62" s="25"/>
+      <c r="GO62" s="25"/>
+      <c r="GP62" s="25"/>
+      <c r="GQ62" s="25"/>
+      <c r="GR62" s="25"/>
+      <c r="GS62" s="25"/>
+      <c r="GT62" s="25"/>
+      <c r="GU62" s="25"/>
+      <c r="GV62" s="25"/>
+      <c r="GW62" s="25"/>
+      <c r="GX62" s="25"/>
+      <c r="GY62" s="25"/>
+      <c r="GZ62" s="25"/>
+      <c r="HA62" s="25"/>
+      <c r="HB62" s="25"/>
+      <c r="HC62" s="25"/>
+      <c r="HD62" s="25"/>
+      <c r="HE62" s="25"/>
+      <c r="HF62" s="25"/>
+      <c r="HG62" s="25"/>
+      <c r="HH62" s="25"/>
+      <c r="HI62" s="25"/>
+      <c r="HJ62" s="25"/>
+      <c r="HK62" s="25"/>
+      <c r="HL62" s="25"/>
+      <c r="HM62" s="25"/>
+      <c r="HN62" s="25"/>
+      <c r="HO62" s="25"/>
+      <c r="HP62" s="25"/>
+      <c r="HQ62" s="25"/>
+      <c r="HR62" s="25"/>
+      <c r="HS62" s="25"/>
+      <c r="HT62" s="25"/>
+      <c r="HU62" s="25"/>
+      <c r="HV62" s="25"/>
+      <c r="HW62" s="25"/>
+      <c r="HX62" s="25"/>
+      <c r="HY62" s="25"/>
+      <c r="HZ62" s="25"/>
+      <c r="IA62" s="25"/>
+      <c r="IB62" s="25"/>
+      <c r="IC62" s="25"/>
+      <c r="ID62" s="25"/>
+      <c r="IE62" s="25"/>
+      <c r="IF62" s="25"/>
+      <c r="IG62" s="25"/>
+      <c r="IH62" s="25"/>
+      <c r="II62" s="25"/>
+      <c r="IJ62" s="25"/>
+      <c r="IK62" s="25"/>
+      <c r="IL62" s="25"/>
+      <c r="IM62" s="25"/>
+      <c r="IN62" s="25"/>
+      <c r="IO62" s="25"/>
+      <c r="IP62" s="25"/>
+      <c r="IQ62" s="25"/>
+      <c r="IR62" s="25"/>
+      <c r="IS62" s="25"/>
+      <c r="IT62" s="25"/>
+      <c r="IU62" s="25"/>
+      <c r="IV62" s="25"/>
+      <c r="IW62" s="25"/>
+      <c r="IX62" s="25"/>
+      <c r="IY62" s="25"/>
+      <c r="IZ62" s="25"/>
+      <c r="JA62" s="25"/>
+      <c r="JB62" s="25"/>
+      <c r="JC62" s="25"/>
+      <c r="JD62" s="25"/>
+      <c r="JE62" s="25"/>
+      <c r="JF62" s="25"/>
+      <c r="JG62" s="25"/>
+      <c r="JH62" s="25"/>
+      <c r="JI62" s="25"/>
+      <c r="JJ62" s="25"/>
+      <c r="JK62" s="25"/>
+      <c r="JL62" s="25"/>
+      <c r="JM62" s="25"/>
+      <c r="JN62" s="25"/>
+      <c r="JO62" s="25"/>
+      <c r="JP62" s="25"/>
+      <c r="JQ62" s="25"/>
+      <c r="JR62" s="25"/>
+      <c r="JS62" s="25"/>
+      <c r="JT62" s="25"/>
+      <c r="JU62" s="25"/>
+      <c r="JV62" s="25"/>
+      <c r="JW62" s="25"/>
+      <c r="JX62" s="25"/>
+      <c r="JY62" s="25"/>
+      <c r="JZ62" s="25"/>
+      <c r="KA62" s="25"/>
+      <c r="KB62" s="25"/>
+      <c r="KC62" s="25"/>
+      <c r="KD62" s="25"/>
+      <c r="KE62" s="25"/>
+      <c r="KF62" s="25"/>
+      <c r="KG62" s="25"/>
+      <c r="KH62" s="25"/>
+      <c r="KI62" s="25"/>
+      <c r="KJ62" s="25"/>
+      <c r="KK62" s="25"/>
+      <c r="KL62" s="25"/>
+      <c r="KM62" s="25"/>
+      <c r="KN62" s="25"/>
+      <c r="KO62" s="25"/>
+      <c r="KP62" s="25"/>
+      <c r="KQ62" s="25"/>
+      <c r="KR62" s="25"/>
+      <c r="KS62" s="25"/>
+      <c r="KT62" s="25"/>
+      <c r="KU62" s="25"/>
+      <c r="KV62" s="25"/>
+      <c r="KW62" s="25"/>
+      <c r="KX62" s="25"/>
+      <c r="KY62" s="25"/>
+      <c r="KZ62" s="25"/>
+      <c r="LA62" s="25"/>
+      <c r="LB62" s="25"/>
+      <c r="LC62" s="25"/>
+      <c r="LD62" s="25"/>
+      <c r="LE62" s="25"/>
+      <c r="LF62" s="25"/>
+      <c r="LG62" s="25"/>
+      <c r="LH62" s="25"/>
+      <c r="LI62" s="25"/>
+      <c r="LJ62" s="25"/>
+      <c r="LK62" s="25"/>
+      <c r="LL62" s="25"/>
+      <c r="LM62" s="25"/>
+      <c r="LN62" s="25"/>
+      <c r="LO62" s="25"/>
+      <c r="LP62" s="25"/>
+      <c r="LQ62" s="25"/>
+      <c r="LR62" s="25"/>
+      <c r="LS62" s="25"/>
+      <c r="LT62" s="25"/>
+      <c r="LU62" s="25"/>
+      <c r="LV62" s="25"/>
+      <c r="LW62" s="25"/>
+      <c r="LX62" s="25"/>
+      <c r="LY62" s="25"/>
+      <c r="LZ62" s="25"/>
+      <c r="MA62" s="25"/>
+      <c r="MB62" s="25"/>
+      <c r="MC62" s="25"/>
+      <c r="MD62" s="25"/>
+      <c r="ME62" s="25"/>
+      <c r="MF62" s="25"/>
+      <c r="MG62" s="25"/>
+      <c r="MH62" s="25"/>
+      <c r="MI62" s="25"/>
+      <c r="MJ62" s="25"/>
+      <c r="MK62" s="25"/>
+      <c r="ML62" s="25"/>
+      <c r="MM62" s="25"/>
+      <c r="MN62" s="25"/>
+      <c r="MO62" s="25"/>
+      <c r="MP62" s="25"/>
+      <c r="MQ62" s="25"/>
+      <c r="MR62" s="25"/>
+      <c r="MS62" s="25"/>
+      <c r="MT62" s="25"/>
+      <c r="MU62" s="25"/>
+      <c r="MV62" s="25"/>
+      <c r="MW62" s="25"/>
+      <c r="MX62" s="25"/>
+      <c r="MY62" s="25"/>
+      <c r="MZ62" s="25"/>
+      <c r="NA62" s="25"/>
+      <c r="NB62" s="25"/>
+      <c r="NC62" s="25"/>
+      <c r="ND62" s="25"/>
+      <c r="NE62" s="25"/>
+      <c r="NF62" s="25"/>
+      <c r="NG62" s="25"/>
+      <c r="NH62" s="25"/>
+      <c r="NI62" s="25"/>
+      <c r="NJ62" s="25"/>
+      <c r="NK62" s="25"/>
+      <c r="NL62" s="25"/>
+      <c r="NM62" s="25"/>
+      <c r="NN62" s="25"/>
+      <c r="NO62" s="25"/>
+      <c r="NP62" s="25"/>
+      <c r="NQ62" s="25"/>
+      <c r="NR62" s="25"/>
+      <c r="NS62" s="25"/>
+      <c r="NT62" s="25"/>
+      <c r="NU62" s="25"/>
+      <c r="NV62" s="25"/>
+      <c r="NW62" s="25"/>
+      <c r="NX62" s="25"/>
+      <c r="NY62" s="25"/>
+      <c r="NZ62" s="25"/>
+      <c r="OA62" s="25"/>
+      <c r="OB62" s="25"/>
+      <c r="OC62" s="25"/>
+      <c r="OD62" s="25"/>
+      <c r="OE62" s="25"/>
+      <c r="OF62" s="25"/>
+      <c r="OG62" s="25"/>
+      <c r="OH62" s="25"/>
+      <c r="OI62" s="25"/>
+      <c r="OJ62" s="25"/>
+      <c r="OK62" s="25"/>
+      <c r="OL62" s="25"/>
+      <c r="OM62" s="25"/>
+      <c r="ON62" s="25"/>
+      <c r="OO62" s="25"/>
+      <c r="OP62" s="25"/>
+      <c r="OQ62" s="25"/>
+      <c r="OR62" s="25"/>
+      <c r="OS62" s="25"/>
+      <c r="OT62" s="25"/>
+      <c r="OU62" s="25"/>
+      <c r="OV62" s="25"/>
+      <c r="OW62" s="25"/>
+      <c r="OX62" s="25"/>
+      <c r="OY62" s="25"/>
+      <c r="OZ62" s="25"/>
+      <c r="PA62" s="25"/>
+      <c r="PB62" s="25"/>
+      <c r="PC62" s="25"/>
+      <c r="PD62" s="25"/>
+      <c r="PE62" s="25"/>
+      <c r="PF62" s="25"/>
+      <c r="PG62" s="25"/>
+      <c r="PH62" s="25"/>
+      <c r="PI62" s="25"/>
+      <c r="PJ62" s="25"/>
+      <c r="PK62" s="25"/>
+      <c r="PL62" s="25"/>
+      <c r="PM62" s="25"/>
+      <c r="PN62" s="25"/>
+      <c r="PO62" s="25"/>
+      <c r="PP62" s="25"/>
+      <c r="PQ62" s="25"/>
+      <c r="PR62" s="25"/>
+      <c r="PS62" s="25"/>
+      <c r="PT62" s="25"/>
+      <c r="PU62" s="25"/>
+      <c r="PV62" s="25"/>
+      <c r="PW62" s="25"/>
+      <c r="PX62" s="25"/>
+      <c r="PY62" s="25"/>
+      <c r="PZ62" s="25"/>
+      <c r="QA62" s="25"/>
+      <c r="QB62" s="25"/>
+      <c r="QC62" s="25"/>
+      <c r="QD62" s="25"/>
+      <c r="QE62" s="25"/>
+      <c r="QF62" s="25"/>
+      <c r="QG62" s="25"/>
+      <c r="QH62" s="25"/>
+      <c r="QI62" s="25"/>
+      <c r="QJ62" s="25"/>
+      <c r="QK62" s="25"/>
+      <c r="QL62" s="25"/>
+      <c r="QM62" s="25"/>
+      <c r="QN62" s="25"/>
+      <c r="QO62" s="25"/>
+      <c r="QP62" s="25"/>
+      <c r="QQ62" s="25"/>
+      <c r="QR62" s="25"/>
+      <c r="QS62" s="25"/>
+      <c r="QT62" s="25"/>
+      <c r="QU62" s="25"/>
+      <c r="QV62" s="25"/>
+      <c r="QW62" s="25"/>
+      <c r="QX62" s="25"/>
+      <c r="QY62" s="25"/>
+      <c r="QZ62" s="25"/>
+      <c r="RA62" s="25"/>
+      <c r="RB62" s="25"/>
+      <c r="RC62" s="25"/>
+      <c r="RD62" s="25"/>
+      <c r="RE62" s="25"/>
+      <c r="RF62" s="25"/>
+      <c r="RG62" s="25"/>
+      <c r="RH62" s="25"/>
+      <c r="RI62" s="25"/>
+      <c r="RJ62" s="25"/>
+      <c r="RK62" s="25"/>
+      <c r="RL62" s="25"/>
+      <c r="RM62" s="25"/>
+      <c r="RN62" s="25"/>
+      <c r="RO62" s="25"/>
+      <c r="RP62" s="25"/>
+      <c r="RQ62" s="25"/>
+      <c r="RR62" s="25"/>
+      <c r="RS62" s="25"/>
+      <c r="RT62" s="25"/>
+      <c r="RU62" s="25"/>
+      <c r="RV62" s="25"/>
+      <c r="RW62" s="25"/>
+      <c r="RX62" s="25"/>
+      <c r="RY62" s="25"/>
+      <c r="RZ62" s="25"/>
+      <c r="SA62" s="25"/>
+      <c r="SB62" s="25"/>
+      <c r="SC62" s="25"/>
+      <c r="SD62" s="25"/>
+      <c r="SE62" s="25"/>
+      <c r="SF62" s="25"/>
+      <c r="SG62" s="25"/>
+      <c r="SH62" s="25"/>
+      <c r="SI62" s="25"/>
+      <c r="SJ62" s="25"/>
+      <c r="SK62" s="25"/>
+      <c r="SL62" s="25"/>
+      <c r="SM62" s="25"/>
+      <c r="SN62" s="25"/>
+      <c r="SO62" s="25"/>
+      <c r="SP62" s="25"/>
+      <c r="SQ62" s="25"/>
+      <c r="SR62" s="25"/>
+      <c r="SS62" s="25"/>
+      <c r="ST62" s="25"/>
+      <c r="SU62" s="25"/>
+      <c r="SV62" s="25"/>
+      <c r="SW62" s="25"/>
+      <c r="SX62" s="25"/>
+      <c r="SY62" s="25"/>
+      <c r="SZ62" s="25"/>
+      <c r="TA62" s="25"/>
+      <c r="TB62" s="25"/>
+      <c r="TC62" s="25"/>
+      <c r="TD62" s="25"/>
+      <c r="TE62" s="25"/>
+      <c r="TF62" s="25"/>
+      <c r="TG62" s="25"/>
+      <c r="TH62" s="25"/>
+      <c r="TI62" s="25"/>
+      <c r="TJ62" s="25"/>
+      <c r="TK62" s="25"/>
+      <c r="TL62" s="25"/>
+      <c r="TM62" s="25"/>
+      <c r="TN62" s="25"/>
+      <c r="TO62" s="25"/>
+      <c r="TP62" s="25"/>
+      <c r="TQ62" s="25"/>
+      <c r="TR62" s="25"/>
+      <c r="TS62" s="25"/>
+      <c r="TT62" s="25"/>
+      <c r="TU62" s="25"/>
+      <c r="TV62" s="25"/>
+      <c r="TW62" s="25"/>
+      <c r="TX62" s="25"/>
+      <c r="TY62" s="25"/>
+      <c r="TZ62" s="25"/>
+      <c r="UA62" s="25"/>
+      <c r="UB62" s="25"/>
+      <c r="UC62" s="25"/>
+      <c r="UD62" s="25"/>
+      <c r="UE62" s="25"/>
+      <c r="UF62" s="25"/>
+      <c r="UG62" s="25"/>
+      <c r="UH62" s="25"/>
+      <c r="UI62" s="25"/>
+      <c r="UJ62" s="25"/>
+      <c r="UK62" s="25"/>
+      <c r="UL62" s="25"/>
+      <c r="UM62" s="25"/>
+      <c r="UN62" s="25"/>
+      <c r="UO62" s="25"/>
+      <c r="UP62" s="25"/>
+      <c r="UQ62" s="25"/>
+      <c r="UR62" s="25"/>
+      <c r="US62" s="25"/>
+      <c r="UT62" s="25"/>
+      <c r="UU62" s="25"/>
+      <c r="UV62" s="25"/>
+      <c r="UW62" s="25"/>
+      <c r="UX62" s="25"/>
+      <c r="UY62" s="25"/>
+      <c r="UZ62" s="25"/>
+      <c r="VA62" s="25"/>
+      <c r="VB62" s="25"/>
+      <c r="VC62" s="25"/>
+      <c r="VD62" s="25"/>
+      <c r="VE62" s="25"/>
+      <c r="VF62" s="25"/>
+      <c r="VG62" s="25"/>
+      <c r="VH62" s="25"/>
+      <c r="VI62" s="25"/>
+      <c r="VJ62" s="25"/>
+      <c r="VK62" s="25"/>
+      <c r="VL62" s="25"/>
+      <c r="VM62" s="25"/>
+      <c r="VN62" s="25"/>
+      <c r="VO62" s="25"/>
+      <c r="VP62" s="25"/>
+      <c r="VQ62" s="25"/>
+      <c r="VR62" s="25"/>
+      <c r="VS62" s="25"/>
+      <c r="VT62" s="25"/>
+      <c r="VU62" s="25"/>
+      <c r="VV62" s="25"/>
+      <c r="VW62" s="25"/>
+      <c r="VX62" s="25"/>
+      <c r="VY62" s="25"/>
+      <c r="VZ62" s="25"/>
+      <c r="WA62" s="25"/>
+      <c r="WB62" s="25"/>
+      <c r="WC62" s="25"/>
+      <c r="WD62" s="25"/>
+      <c r="WE62" s="25"/>
+      <c r="WF62" s="25"/>
+      <c r="WG62" s="25"/>
+      <c r="WH62" s="25"/>
+      <c r="WI62" s="25"/>
+      <c r="WJ62" s="25"/>
+      <c r="WK62" s="25"/>
+      <c r="WL62" s="25"/>
+      <c r="WM62" s="25"/>
+      <c r="WN62" s="25"/>
+      <c r="WO62" s="25"/>
+      <c r="WP62" s="25"/>
+      <c r="WQ62" s="25"/>
+      <c r="WR62" s="25"/>
+      <c r="WS62" s="25"/>
+      <c r="WT62" s="25"/>
+      <c r="WU62" s="25"/>
+      <c r="WV62" s="25"/>
+      <c r="WW62" s="25"/>
+      <c r="WX62" s="25"/>
+      <c r="WY62" s="25"/>
+      <c r="WZ62" s="25"/>
+      <c r="XA62" s="25"/>
+      <c r="XB62" s="25"/>
+      <c r="XC62" s="25"/>
+      <c r="XD62" s="25"/>
+      <c r="XE62" s="25"/>
+      <c r="XF62" s="25"/>
+      <c r="XG62" s="25"/>
+      <c r="XH62" s="25"/>
+      <c r="XI62" s="25"/>
+      <c r="XJ62" s="25"/>
+      <c r="XK62" s="25"/>
+      <c r="XL62" s="25"/>
+      <c r="XM62" s="25"/>
+      <c r="XN62" s="25"/>
+      <c r="XO62" s="25"/>
+      <c r="XP62" s="25"/>
+      <c r="XQ62" s="25"/>
+      <c r="XR62" s="25"/>
+      <c r="XS62" s="25"/>
+      <c r="XT62" s="25"/>
+      <c r="XU62" s="25"/>
+      <c r="XV62" s="25"/>
+      <c r="XW62" s="25"/>
+      <c r="XX62" s="25"/>
+      <c r="XY62" s="25"/>
+      <c r="XZ62" s="25"/>
+      <c r="YA62" s="25"/>
+      <c r="YB62" s="25"/>
+      <c r="YC62" s="25"/>
+      <c r="YD62" s="25"/>
+      <c r="YE62" s="25"/>
+      <c r="YF62" s="25"/>
+      <c r="YG62" s="25"/>
+      <c r="YH62" s="25"/>
+      <c r="YI62" s="25"/>
+      <c r="YJ62" s="25"/>
+      <c r="YK62" s="25"/>
+      <c r="YL62" s="25"/>
+      <c r="YM62" s="25"/>
+      <c r="YN62" s="25"/>
+      <c r="YO62" s="25"/>
+      <c r="YP62" s="25"/>
+      <c r="YQ62" s="25"/>
+      <c r="YR62" s="25"/>
+      <c r="YS62" s="25"/>
+      <c r="YT62" s="25"/>
+      <c r="YU62" s="25"/>
+      <c r="YV62" s="25"/>
+      <c r="YW62" s="25"/>
+      <c r="YX62" s="25"/>
+      <c r="YY62" s="25"/>
+      <c r="YZ62" s="25"/>
+      <c r="ZA62" s="25"/>
+      <c r="ZB62" s="25"/>
+      <c r="ZC62" s="25"/>
+      <c r="ZD62" s="25"/>
+      <c r="ZE62" s="25"/>
+      <c r="ZF62" s="25"/>
+      <c r="ZG62" s="25"/>
+      <c r="ZH62" s="25"/>
+      <c r="ZI62" s="25"/>
+      <c r="ZJ62" s="25"/>
+      <c r="ZK62" s="25"/>
+      <c r="ZL62" s="25"/>
+      <c r="ZM62" s="25"/>
+      <c r="ZN62" s="25"/>
+      <c r="ZO62" s="25"/>
+      <c r="ZP62" s="25"/>
+      <c r="ZQ62" s="25"/>
+      <c r="ZR62" s="25"/>
+      <c r="ZS62" s="25"/>
+      <c r="ZT62" s="25"/>
+      <c r="ZU62" s="25"/>
+      <c r="ZV62" s="25"/>
+      <c r="ZW62" s="25"/>
+      <c r="ZX62" s="25"/>
+      <c r="ZY62" s="25"/>
+      <c r="ZZ62" s="25"/>
+      <c r="AAA62" s="25"/>
+      <c r="AAB62" s="25"/>
+      <c r="AAC62" s="25"/>
+      <c r="AAD62" s="25"/>
+      <c r="AAE62" s="25"/>
+      <c r="AAF62" s="25"/>
+      <c r="AAG62" s="25"/>
+      <c r="AAH62" s="25"/>
+      <c r="AAI62" s="25"/>
+      <c r="AAJ62" s="25"/>
+      <c r="AAK62" s="25"/>
+      <c r="AAL62" s="25"/>
+      <c r="AAM62" s="25"/>
+      <c r="AAN62" s="25"/>
+      <c r="AAO62" s="25"/>
+      <c r="AAP62" s="25"/>
+      <c r="AAQ62" s="25"/>
+      <c r="AAR62" s="25"/>
+      <c r="AAS62" s="25"/>
+      <c r="AAT62" s="25"/>
+      <c r="AAU62" s="25"/>
+      <c r="AAV62" s="25"/>
+      <c r="AAW62" s="25"/>
+      <c r="AAX62" s="25"/>
+      <c r="AAY62" s="25"/>
+      <c r="AAZ62" s="25"/>
+      <c r="ABA62" s="25"/>
+      <c r="ABB62" s="25"/>
+      <c r="ABC62" s="25"/>
+      <c r="ABD62" s="25"/>
+      <c r="ABE62" s="25"/>
+      <c r="ABF62" s="25"/>
+      <c r="ABG62" s="25"/>
+      <c r="ABH62" s="25"/>
+      <c r="ABI62" s="25"/>
+      <c r="ABJ62" s="25"/>
+      <c r="ABK62" s="25"/>
+      <c r="ABL62" s="25"/>
+      <c r="ABM62" s="25"/>
+      <c r="ABN62" s="25"/>
+      <c r="ABO62" s="25"/>
+      <c r="ABP62" s="25"/>
+      <c r="ABQ62" s="25"/>
+      <c r="ABR62" s="25"/>
+      <c r="ABS62" s="25"/>
+      <c r="ABT62" s="25"/>
+      <c r="ABU62" s="25"/>
+      <c r="ABV62" s="25"/>
+      <c r="ABW62" s="25"/>
+      <c r="ABX62" s="25"/>
+      <c r="ABY62" s="25"/>
+      <c r="ABZ62" s="25"/>
+      <c r="ACA62" s="25"/>
+      <c r="ACB62" s="25"/>
+      <c r="ACC62" s="25"/>
+      <c r="ACD62" s="25"/>
+      <c r="ACE62" s="25"/>
+      <c r="ACF62" s="25"/>
+      <c r="ACG62" s="25"/>
+      <c r="ACH62" s="25"/>
+      <c r="ACI62" s="25"/>
+      <c r="ACJ62" s="25"/>
+      <c r="ACK62" s="25"/>
+      <c r="ACL62" s="25"/>
+      <c r="ACM62" s="25"/>
+      <c r="ACN62" s="25"/>
+      <c r="ACO62" s="25"/>
+      <c r="ACP62" s="25"/>
+      <c r="ACQ62" s="25"/>
+      <c r="ACR62" s="25"/>
+      <c r="ACS62" s="25"/>
+      <c r="ACT62" s="25"/>
+      <c r="ACU62" s="25"/>
+      <c r="ACV62" s="25"/>
+      <c r="ACW62" s="25"/>
+      <c r="ACX62" s="25"/>
+      <c r="ACY62" s="25"/>
+      <c r="ACZ62" s="25"/>
+      <c r="ADA62" s="25"/>
+      <c r="ADB62" s="25"/>
+      <c r="ADC62" s="25"/>
+      <c r="ADD62" s="25"/>
+      <c r="ADE62" s="25"/>
+      <c r="ADF62" s="25"/>
+      <c r="ADG62" s="25"/>
+      <c r="ADH62" s="25"/>
+      <c r="ADI62" s="25"/>
+      <c r="ADJ62" s="25"/>
+      <c r="ADK62" s="25"/>
+      <c r="ADL62" s="25"/>
+      <c r="ADM62" s="25"/>
+      <c r="ADN62" s="25"/>
+      <c r="ADO62" s="25"/>
+      <c r="ADP62" s="25"/>
+      <c r="ADQ62" s="25"/>
+      <c r="ADR62" s="25"/>
+      <c r="ADS62" s="25"/>
+      <c r="ADT62" s="25"/>
+      <c r="ADU62" s="25"/>
+      <c r="ADV62" s="25"/>
+      <c r="ADW62" s="25"/>
+      <c r="ADX62" s="25"/>
+      <c r="ADY62" s="25"/>
+      <c r="ADZ62" s="25"/>
+      <c r="AEA62" s="25"/>
+      <c r="AEB62" s="25"/>
+      <c r="AEC62" s="25"/>
+      <c r="AED62" s="25"/>
+      <c r="AEE62" s="25"/>
+      <c r="AEF62" s="25"/>
+      <c r="AEG62" s="25"/>
+      <c r="AEH62" s="25"/>
+      <c r="AEI62" s="25"/>
+      <c r="AEJ62" s="25"/>
+      <c r="AEK62" s="25"/>
+      <c r="AEL62" s="25"/>
+      <c r="AEM62" s="25"/>
+      <c r="AEN62" s="25"/>
+      <c r="AEO62" s="25"/>
+      <c r="AEP62" s="25"/>
+      <c r="AEQ62" s="25"/>
+      <c r="AER62" s="25"/>
+      <c r="AES62" s="25"/>
+      <c r="AET62" s="25"/>
+      <c r="AEU62" s="25"/>
+      <c r="AEV62" s="25"/>
+      <c r="AEW62" s="25"/>
+      <c r="AEX62" s="25"/>
+      <c r="AEY62" s="25"/>
+      <c r="AEZ62" s="25"/>
+      <c r="AFA62" s="25"/>
+      <c r="AFB62" s="25"/>
+      <c r="AFC62" s="25"/>
+      <c r="AFD62" s="25"/>
+      <c r="AFE62" s="25"/>
+      <c r="AFF62" s="25"/>
+      <c r="AFG62" s="25"/>
+      <c r="AFH62" s="25"/>
+      <c r="AFI62" s="25"/>
+      <c r="AFJ62" s="25"/>
+      <c r="AFK62" s="25"/>
+      <c r="AFL62" s="25"/>
+      <c r="AFM62" s="25"/>
+      <c r="AFN62" s="25"/>
+      <c r="AFO62" s="25"/>
+      <c r="AFP62" s="25"/>
+      <c r="AFQ62" s="25"/>
+      <c r="AFR62" s="25"/>
+      <c r="AFS62" s="25"/>
+      <c r="AFT62" s="25"/>
+      <c r="AFU62" s="25"/>
+      <c r="AFV62" s="25"/>
+      <c r="AFW62" s="25"/>
+      <c r="AFX62" s="25"/>
+      <c r="AFY62" s="25"/>
+      <c r="AFZ62" s="25"/>
+      <c r="AGA62" s="25"/>
+      <c r="AGB62" s="25"/>
+      <c r="AGC62" s="25"/>
+      <c r="AGD62" s="25"/>
+      <c r="AGE62" s="25"/>
+      <c r="AGF62" s="25"/>
+      <c r="AGG62" s="25"/>
+      <c r="AGH62" s="25"/>
+      <c r="AGI62" s="25"/>
+      <c r="AGJ62" s="25"/>
+      <c r="AGK62" s="25"/>
+      <c r="AGL62" s="25"/>
+      <c r="AGM62" s="25"/>
+      <c r="AGN62" s="25"/>
+      <c r="AGO62" s="25"/>
+      <c r="AGP62" s="25"/>
+      <c r="AGQ62" s="25"/>
+      <c r="AGR62" s="25"/>
+      <c r="AGS62" s="25"/>
+      <c r="AGT62" s="25"/>
+      <c r="AGU62" s="25"/>
+      <c r="AGV62" s="25"/>
+      <c r="AGW62" s="25"/>
+      <c r="AGX62" s="25"/>
+      <c r="AGY62" s="25"/>
+      <c r="AGZ62" s="25"/>
+      <c r="AHA62" s="25"/>
+      <c r="AHB62" s="25"/>
+      <c r="AHC62" s="25"/>
+      <c r="AHD62" s="25"/>
+      <c r="AHE62" s="25"/>
+      <c r="AHF62" s="25"/>
+      <c r="AHG62" s="25"/>
+      <c r="AHH62" s="25"/>
+      <c r="AHI62" s="25"/>
+      <c r="AHJ62" s="25"/>
+      <c r="AHK62" s="25"/>
+      <c r="AHL62" s="25"/>
+      <c r="AHM62" s="25"/>
+      <c r="AHN62" s="25"/>
+      <c r="AHO62" s="25"/>
+      <c r="AHP62" s="25"/>
+      <c r="AHQ62" s="25"/>
+      <c r="AHR62" s="25"/>
+      <c r="AHS62" s="25"/>
+      <c r="AHT62" s="25"/>
+      <c r="AHU62" s="25"/>
+      <c r="AHV62" s="25"/>
+      <c r="AHW62" s="25"/>
+      <c r="AHX62" s="25"/>
+      <c r="AHY62" s="25"/>
+      <c r="AHZ62" s="25"/>
+      <c r="AIA62" s="25"/>
+      <c r="AIB62" s="25"/>
+      <c r="AIC62" s="25"/>
+      <c r="AID62" s="25"/>
+      <c r="AIE62" s="25"/>
+      <c r="AIF62" s="25"/>
+      <c r="AIG62" s="25"/>
+      <c r="AIH62" s="25"/>
+      <c r="AII62" s="25"/>
+      <c r="AIJ62" s="25"/>
+      <c r="AIK62" s="25"/>
+      <c r="AIL62" s="25"/>
+      <c r="AIM62" s="25"/>
+      <c r="AIN62" s="25"/>
+      <c r="AIO62" s="25"/>
+      <c r="AIP62" s="25"/>
+      <c r="AIQ62" s="25"/>
+      <c r="AIR62" s="25"/>
+      <c r="AIS62" s="25"/>
+      <c r="AIT62" s="25"/>
+      <c r="AIU62" s="25"/>
+      <c r="AIV62" s="25"/>
+      <c r="AIW62" s="25"/>
+      <c r="AIX62" s="25"/>
+      <c r="AIY62" s="25"/>
+      <c r="AIZ62" s="25"/>
+      <c r="AJA62" s="25"/>
+      <c r="AJB62" s="25"/>
+      <c r="AJC62" s="25"/>
+      <c r="AJD62" s="25"/>
+      <c r="AJE62" s="25"/>
+      <c r="AJF62" s="25"/>
+      <c r="AJG62" s="25"/>
+      <c r="AJH62" s="25"/>
+      <c r="AJI62" s="25"/>
+      <c r="AJJ62" s="25"/>
+      <c r="AJK62" s="25"/>
+      <c r="AJL62" s="25"/>
+      <c r="AJM62" s="25"/>
+      <c r="AJN62" s="25"/>
+      <c r="AJO62" s="25"/>
+      <c r="AJP62" s="25"/>
+      <c r="AJQ62" s="25"/>
+      <c r="AJR62" s="25"/>
+      <c r="AJS62" s="25"/>
+      <c r="AJT62" s="25"/>
+      <c r="AJU62" s="25"/>
+      <c r="AJV62" s="25"/>
+      <c r="AJW62" s="25"/>
+      <c r="AJX62" s="25"/>
+      <c r="AJY62" s="25"/>
+      <c r="AJZ62" s="25"/>
+      <c r="AKA62" s="25"/>
+      <c r="AKB62" s="25"/>
+      <c r="AKC62" s="25"/>
+      <c r="AKD62" s="25"/>
+      <c r="AKE62" s="25"/>
+      <c r="AKF62" s="25"/>
+      <c r="AKG62" s="25"/>
+      <c r="AKH62" s="25"/>
+      <c r="AKI62" s="25"/>
+      <c r="AKJ62" s="25"/>
+      <c r="AKK62" s="25"/>
+      <c r="AKL62" s="25"/>
+      <c r="AKM62" s="25"/>
+      <c r="AKN62" s="25"/>
+      <c r="AKO62" s="25"/>
+      <c r="AKP62" s="25"/>
+      <c r="AKQ62" s="25"/>
+      <c r="AKR62" s="25"/>
+      <c r="AKS62" s="25"/>
+      <c r="AKT62" s="25"/>
+      <c r="AKU62" s="25"/>
+      <c r="AKV62" s="25"/>
+      <c r="AKW62" s="25"/>
+      <c r="AKX62" s="25"/>
+      <c r="AKY62" s="25"/>
+      <c r="AKZ62" s="25"/>
+      <c r="ALA62" s="25"/>
+      <c r="ALB62" s="25"/>
+      <c r="ALC62" s="25"/>
+      <c r="ALD62" s="25"/>
+      <c r="ALE62" s="25"/>
+      <c r="ALF62" s="25"/>
+      <c r="ALG62" s="25"/>
+      <c r="ALH62" s="25"/>
+      <c r="ALI62" s="25"/>
+      <c r="ALJ62" s="25"/>
+      <c r="ALK62" s="25"/>
+      <c r="ALL62" s="25"/>
+      <c r="ALM62" s="25"/>
+      <c r="ALN62" s="25"/>
+      <c r="ALO62" s="25"/>
+      <c r="ALP62" s="25"/>
+      <c r="ALQ62" s="25"/>
+      <c r="ALR62" s="25"/>
+      <c r="ALS62" s="25"/>
+      <c r="ALT62" s="25"/>
+      <c r="ALU62" s="25"/>
+      <c r="ALV62" s="25"/>
+      <c r="ALW62" s="25"/>
+      <c r="ALX62" s="25"/>
+      <c r="ALY62" s="25"/>
+      <c r="ALZ62" s="25"/>
+      <c r="AMA62" s="25"/>
+      <c r="AMB62" s="25"/>
+      <c r="AMC62" s="25"/>
+      <c r="AMD62" s="25"/>
+      <c r="AME62" s="25"/>
+      <c r="AMF62" s="25"/>
+      <c r="AMG62" s="25"/>
+      <c r="AMH62" s="25"/>
+      <c r="AMI62" s="25"/>
+      <c r="AMJ62" s="25"/>
+      <c r="AMK62" s="25"/>
+      <c r="AML62" s="25"/>
+      <c r="AMM62" s="25"/>
     </row>
     <row r="63" spans="1:1027" ht="64" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
@@ -18428,1054 +22521,1054 @@
         <v>528</v>
       </c>
     </row>
-    <row r="99" spans="1:1027" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="12" t="s">
+    <row r="99" spans="1:1027" s="30" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="25" t="s">
         <v>314</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="25" t="s">
         <v>315</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" s="25" t="s">
         <v>316</v>
       </c>
-      <c r="E99" s="12"/>
-      <c r="F99" s="13" t="s">
+      <c r="E99" s="25"/>
+      <c r="F99" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="G99" s="14" t="s">
-        <v>520</v>
-      </c>
-      <c r="H99" s="13" t="s">
+      <c r="G99" s="27" t="s">
+        <v>483</v>
+      </c>
+      <c r="H99" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="I99" s="24">
+      <c r="I99" s="28">
         <v>46112</v>
       </c>
-      <c r="J99" s="15"/>
-      <c r="K99" s="15"/>
-      <c r="L99" s="14"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="12" t="s">
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="27"/>
+      <c r="M99" s="27"/>
+      <c r="N99" s="25" t="s">
         <v>596</v>
       </c>
-      <c r="O99" s="14" t="s">
+      <c r="O99" s="27" t="s">
         <v>529</v>
       </c>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="12"/>
-      <c r="AA99" s="12"/>
-      <c r="AB99" s="12"/>
-      <c r="AC99" s="12"/>
-      <c r="AD99" s="12"/>
-      <c r="AE99" s="12"/>
-      <c r="AF99" s="12"/>
-      <c r="AG99" s="12"/>
-      <c r="AH99" s="12"/>
-      <c r="AI99" s="12"/>
-      <c r="AJ99" s="12"/>
-      <c r="AK99" s="12"/>
-      <c r="AL99" s="12"/>
-      <c r="AM99" s="12"/>
-      <c r="AN99" s="12"/>
-      <c r="AO99" s="12"/>
-      <c r="AP99" s="12"/>
-      <c r="AQ99" s="12"/>
-      <c r="AR99" s="12"/>
-      <c r="AS99" s="12"/>
-      <c r="AT99" s="12"/>
-      <c r="AU99" s="12"/>
-      <c r="AV99" s="12"/>
-      <c r="AW99" s="12"/>
-      <c r="AX99" s="12"/>
-      <c r="AY99" s="12"/>
-      <c r="AZ99" s="12"/>
-      <c r="BA99" s="12"/>
-      <c r="BB99" s="12"/>
-      <c r="BC99" s="12"/>
-      <c r="BD99" s="12"/>
-      <c r="BE99" s="12"/>
-      <c r="BF99" s="12"/>
-      <c r="BG99" s="12"/>
-      <c r="BH99" s="12"/>
-      <c r="BI99" s="12"/>
-      <c r="BJ99" s="12"/>
-      <c r="BK99" s="12"/>
-      <c r="BL99" s="12"/>
-      <c r="BM99" s="12"/>
-      <c r="BN99" s="12"/>
-      <c r="BO99" s="12"/>
-      <c r="BP99" s="12"/>
-      <c r="BQ99" s="12"/>
-      <c r="BR99" s="12"/>
-      <c r="BS99" s="12"/>
-      <c r="BT99" s="12"/>
-      <c r="BU99" s="12"/>
-      <c r="BV99" s="12"/>
-      <c r="BW99" s="12"/>
-      <c r="BX99" s="12"/>
-      <c r="BY99" s="12"/>
-      <c r="BZ99" s="12"/>
-      <c r="CA99" s="12"/>
-      <c r="CB99" s="12"/>
-      <c r="CC99" s="12"/>
-      <c r="CD99" s="12"/>
-      <c r="CE99" s="12"/>
-      <c r="CF99" s="12"/>
-      <c r="CG99" s="12"/>
-      <c r="CH99" s="12"/>
-      <c r="CI99" s="12"/>
-      <c r="CJ99" s="12"/>
-      <c r="CK99" s="12"/>
-      <c r="CL99" s="12"/>
-      <c r="CM99" s="12"/>
-      <c r="CN99" s="12"/>
-      <c r="CO99" s="12"/>
-      <c r="CP99" s="12"/>
-      <c r="CQ99" s="12"/>
-      <c r="CR99" s="12"/>
-      <c r="CS99" s="12"/>
-      <c r="CT99" s="12"/>
-      <c r="CU99" s="12"/>
-      <c r="CV99" s="12"/>
-      <c r="CW99" s="12"/>
-      <c r="CX99" s="12"/>
-      <c r="CY99" s="12"/>
-      <c r="CZ99" s="12"/>
-      <c r="DA99" s="12"/>
-      <c r="DB99" s="12"/>
-      <c r="DC99" s="12"/>
-      <c r="DD99" s="12"/>
-      <c r="DE99" s="12"/>
-      <c r="DF99" s="12"/>
-      <c r="DG99" s="12"/>
-      <c r="DH99" s="12"/>
-      <c r="DI99" s="12"/>
-      <c r="DJ99" s="12"/>
-      <c r="DK99" s="12"/>
-      <c r="DL99" s="12"/>
-      <c r="DM99" s="12"/>
-      <c r="DN99" s="12"/>
-      <c r="DO99" s="12"/>
-      <c r="DP99" s="12"/>
-      <c r="DQ99" s="12"/>
-      <c r="DR99" s="12"/>
-      <c r="DS99" s="12"/>
-      <c r="DT99" s="12"/>
-      <c r="DU99" s="12"/>
-      <c r="DV99" s="12"/>
-      <c r="DW99" s="12"/>
-      <c r="DX99" s="12"/>
-      <c r="DY99" s="12"/>
-      <c r="DZ99" s="12"/>
-      <c r="EA99" s="12"/>
-      <c r="EB99" s="12"/>
-      <c r="EC99" s="12"/>
-      <c r="ED99" s="12"/>
-      <c r="EE99" s="12"/>
-      <c r="EF99" s="12"/>
-      <c r="EG99" s="12"/>
-      <c r="EH99" s="12"/>
-      <c r="EI99" s="12"/>
-      <c r="EJ99" s="12"/>
-      <c r="EK99" s="12"/>
-      <c r="EL99" s="12"/>
-      <c r="EM99" s="12"/>
-      <c r="EN99" s="12"/>
-      <c r="EO99" s="12"/>
-      <c r="EP99" s="12"/>
-      <c r="EQ99" s="12"/>
-      <c r="ER99" s="12"/>
-      <c r="ES99" s="12"/>
-      <c r="ET99" s="12"/>
-      <c r="EU99" s="12"/>
-      <c r="EV99" s="12"/>
-      <c r="EW99" s="12"/>
-      <c r="EX99" s="12"/>
-      <c r="EY99" s="12"/>
-      <c r="EZ99" s="12"/>
-      <c r="FA99" s="12"/>
-      <c r="FB99" s="12"/>
-      <c r="FC99" s="12"/>
-      <c r="FD99" s="12"/>
-      <c r="FE99" s="12"/>
-      <c r="FF99" s="12"/>
-      <c r="FG99" s="12"/>
-      <c r="FH99" s="12"/>
-      <c r="FI99" s="12"/>
-      <c r="FJ99" s="12"/>
-      <c r="FK99" s="12"/>
-      <c r="FL99" s="12"/>
-      <c r="FM99" s="12"/>
-      <c r="FN99" s="12"/>
-      <c r="FO99" s="12"/>
-      <c r="FP99" s="12"/>
-      <c r="FQ99" s="12"/>
-      <c r="FR99" s="12"/>
-      <c r="FS99" s="12"/>
-      <c r="FT99" s="12"/>
-      <c r="FU99" s="12"/>
-      <c r="FV99" s="12"/>
-      <c r="FW99" s="12"/>
-      <c r="FX99" s="12"/>
-      <c r="FY99" s="12"/>
-      <c r="FZ99" s="12"/>
-      <c r="GA99" s="12"/>
-      <c r="GB99" s="12"/>
-      <c r="GC99" s="12"/>
-      <c r="GD99" s="12"/>
-      <c r="GE99" s="12"/>
-      <c r="GF99" s="12"/>
-      <c r="GG99" s="12"/>
-      <c r="GH99" s="12"/>
-      <c r="GI99" s="12"/>
-      <c r="GJ99" s="12"/>
-      <c r="GK99" s="12"/>
-      <c r="GL99" s="12"/>
-      <c r="GM99" s="12"/>
-      <c r="GN99" s="12"/>
-      <c r="GO99" s="12"/>
-      <c r="GP99" s="12"/>
-      <c r="GQ99" s="12"/>
-      <c r="GR99" s="12"/>
-      <c r="GS99" s="12"/>
-      <c r="GT99" s="12"/>
-      <c r="GU99" s="12"/>
-      <c r="GV99" s="12"/>
-      <c r="GW99" s="12"/>
-      <c r="GX99" s="12"/>
-      <c r="GY99" s="12"/>
-      <c r="GZ99" s="12"/>
-      <c r="HA99" s="12"/>
-      <c r="HB99" s="12"/>
-      <c r="HC99" s="12"/>
-      <c r="HD99" s="12"/>
-      <c r="HE99" s="12"/>
-      <c r="HF99" s="12"/>
-      <c r="HG99" s="12"/>
-      <c r="HH99" s="12"/>
-      <c r="HI99" s="12"/>
-      <c r="HJ99" s="12"/>
-      <c r="HK99" s="12"/>
-      <c r="HL99" s="12"/>
-      <c r="HM99" s="12"/>
-      <c r="HN99" s="12"/>
-      <c r="HO99" s="12"/>
-      <c r="HP99" s="12"/>
-      <c r="HQ99" s="12"/>
-      <c r="HR99" s="12"/>
-      <c r="HS99" s="12"/>
-      <c r="HT99" s="12"/>
-      <c r="HU99" s="12"/>
-      <c r="HV99" s="12"/>
-      <c r="HW99" s="12"/>
-      <c r="HX99" s="12"/>
-      <c r="HY99" s="12"/>
-      <c r="HZ99" s="12"/>
-      <c r="IA99" s="12"/>
-      <c r="IB99" s="12"/>
-      <c r="IC99" s="12"/>
-      <c r="ID99" s="12"/>
-      <c r="IE99" s="12"/>
-      <c r="IF99" s="12"/>
-      <c r="IG99" s="12"/>
-      <c r="IH99" s="12"/>
-      <c r="II99" s="12"/>
-      <c r="IJ99" s="12"/>
-      <c r="IK99" s="12"/>
-      <c r="IL99" s="12"/>
-      <c r="IM99" s="12"/>
-      <c r="IN99" s="12"/>
-      <c r="IO99" s="12"/>
-      <c r="IP99" s="12"/>
-      <c r="IQ99" s="12"/>
-      <c r="IR99" s="12"/>
-      <c r="IS99" s="12"/>
-      <c r="IT99" s="12"/>
-      <c r="IU99" s="12"/>
-      <c r="IV99" s="12"/>
-      <c r="IW99" s="12"/>
-      <c r="IX99" s="12"/>
-      <c r="IY99" s="12"/>
-      <c r="IZ99" s="12"/>
-      <c r="JA99" s="12"/>
-      <c r="JB99" s="12"/>
-      <c r="JC99" s="12"/>
-      <c r="JD99" s="12"/>
-      <c r="JE99" s="12"/>
-      <c r="JF99" s="12"/>
-      <c r="JG99" s="12"/>
-      <c r="JH99" s="12"/>
-      <c r="JI99" s="12"/>
-      <c r="JJ99" s="12"/>
-      <c r="JK99" s="12"/>
-      <c r="JL99" s="12"/>
-      <c r="JM99" s="12"/>
-      <c r="JN99" s="12"/>
-      <c r="JO99" s="12"/>
-      <c r="JP99" s="12"/>
-      <c r="JQ99" s="12"/>
-      <c r="JR99" s="12"/>
-      <c r="JS99" s="12"/>
-      <c r="JT99" s="12"/>
-      <c r="JU99" s="12"/>
-      <c r="JV99" s="12"/>
-      <c r="JW99" s="12"/>
-      <c r="JX99" s="12"/>
-      <c r="JY99" s="12"/>
-      <c r="JZ99" s="12"/>
-      <c r="KA99" s="12"/>
-      <c r="KB99" s="12"/>
-      <c r="KC99" s="12"/>
-      <c r="KD99" s="12"/>
-      <c r="KE99" s="12"/>
-      <c r="KF99" s="12"/>
-      <c r="KG99" s="12"/>
-      <c r="KH99" s="12"/>
-      <c r="KI99" s="12"/>
-      <c r="KJ99" s="12"/>
-      <c r="KK99" s="12"/>
-      <c r="KL99" s="12"/>
-      <c r="KM99" s="12"/>
-      <c r="KN99" s="12"/>
-      <c r="KO99" s="12"/>
-      <c r="KP99" s="12"/>
-      <c r="KQ99" s="12"/>
-      <c r="KR99" s="12"/>
-      <c r="KS99" s="12"/>
-      <c r="KT99" s="12"/>
-      <c r="KU99" s="12"/>
-      <c r="KV99" s="12"/>
-      <c r="KW99" s="12"/>
-      <c r="KX99" s="12"/>
-      <c r="KY99" s="12"/>
-      <c r="KZ99" s="12"/>
-      <c r="LA99" s="12"/>
-      <c r="LB99" s="12"/>
-      <c r="LC99" s="12"/>
-      <c r="LD99" s="12"/>
-      <c r="LE99" s="12"/>
-      <c r="LF99" s="12"/>
-      <c r="LG99" s="12"/>
-      <c r="LH99" s="12"/>
-      <c r="LI99" s="12"/>
-      <c r="LJ99" s="12"/>
-      <c r="LK99" s="12"/>
-      <c r="LL99" s="12"/>
-      <c r="LM99" s="12"/>
-      <c r="LN99" s="12"/>
-      <c r="LO99" s="12"/>
-      <c r="LP99" s="12"/>
-      <c r="LQ99" s="12"/>
-      <c r="LR99" s="12"/>
-      <c r="LS99" s="12"/>
-      <c r="LT99" s="12"/>
-      <c r="LU99" s="12"/>
-      <c r="LV99" s="12"/>
-      <c r="LW99" s="12"/>
-      <c r="LX99" s="12"/>
-      <c r="LY99" s="12"/>
-      <c r="LZ99" s="12"/>
-      <c r="MA99" s="12"/>
-      <c r="MB99" s="12"/>
-      <c r="MC99" s="12"/>
-      <c r="MD99" s="12"/>
-      <c r="ME99" s="12"/>
-      <c r="MF99" s="12"/>
-      <c r="MG99" s="12"/>
-      <c r="MH99" s="12"/>
-      <c r="MI99" s="12"/>
-      <c r="MJ99" s="12"/>
-      <c r="MK99" s="12"/>
-      <c r="ML99" s="12"/>
-      <c r="MM99" s="12"/>
-      <c r="MN99" s="12"/>
-      <c r="MO99" s="12"/>
-      <c r="MP99" s="12"/>
-      <c r="MQ99" s="12"/>
-      <c r="MR99" s="12"/>
-      <c r="MS99" s="12"/>
-      <c r="MT99" s="12"/>
-      <c r="MU99" s="12"/>
-      <c r="MV99" s="12"/>
-      <c r="MW99" s="12"/>
-      <c r="MX99" s="12"/>
-      <c r="MY99" s="12"/>
-      <c r="MZ99" s="12"/>
-      <c r="NA99" s="12"/>
-      <c r="NB99" s="12"/>
-      <c r="NC99" s="12"/>
-      <c r="ND99" s="12"/>
-      <c r="NE99" s="12"/>
-      <c r="NF99" s="12"/>
-      <c r="NG99" s="12"/>
-      <c r="NH99" s="12"/>
-      <c r="NI99" s="12"/>
-      <c r="NJ99" s="12"/>
-      <c r="NK99" s="12"/>
-      <c r="NL99" s="12"/>
-      <c r="NM99" s="12"/>
-      <c r="NN99" s="12"/>
-      <c r="NO99" s="12"/>
-      <c r="NP99" s="12"/>
-      <c r="NQ99" s="12"/>
-      <c r="NR99" s="12"/>
-      <c r="NS99" s="12"/>
-      <c r="NT99" s="12"/>
-      <c r="NU99" s="12"/>
-      <c r="NV99" s="12"/>
-      <c r="NW99" s="12"/>
-      <c r="NX99" s="12"/>
-      <c r="NY99" s="12"/>
-      <c r="NZ99" s="12"/>
-      <c r="OA99" s="12"/>
-      <c r="OB99" s="12"/>
-      <c r="OC99" s="12"/>
-      <c r="OD99" s="12"/>
-      <c r="OE99" s="12"/>
-      <c r="OF99" s="12"/>
-      <c r="OG99" s="12"/>
-      <c r="OH99" s="12"/>
-      <c r="OI99" s="12"/>
-      <c r="OJ99" s="12"/>
-      <c r="OK99" s="12"/>
-      <c r="OL99" s="12"/>
-      <c r="OM99" s="12"/>
-      <c r="ON99" s="12"/>
-      <c r="OO99" s="12"/>
-      <c r="OP99" s="12"/>
-      <c r="OQ99" s="12"/>
-      <c r="OR99" s="12"/>
-      <c r="OS99" s="12"/>
-      <c r="OT99" s="12"/>
-      <c r="OU99" s="12"/>
-      <c r="OV99" s="12"/>
-      <c r="OW99" s="12"/>
-      <c r="OX99" s="12"/>
-      <c r="OY99" s="12"/>
-      <c r="OZ99" s="12"/>
-      <c r="PA99" s="12"/>
-      <c r="PB99" s="12"/>
-      <c r="PC99" s="12"/>
-      <c r="PD99" s="12"/>
-      <c r="PE99" s="12"/>
-      <c r="PF99" s="12"/>
-      <c r="PG99" s="12"/>
-      <c r="PH99" s="12"/>
-      <c r="PI99" s="12"/>
-      <c r="PJ99" s="12"/>
-      <c r="PK99" s="12"/>
-      <c r="PL99" s="12"/>
-      <c r="PM99" s="12"/>
-      <c r="PN99" s="12"/>
-      <c r="PO99" s="12"/>
-      <c r="PP99" s="12"/>
-      <c r="PQ99" s="12"/>
-      <c r="PR99" s="12"/>
-      <c r="PS99" s="12"/>
-      <c r="PT99" s="12"/>
-      <c r="PU99" s="12"/>
-      <c r="PV99" s="12"/>
-      <c r="PW99" s="12"/>
-      <c r="PX99" s="12"/>
-      <c r="PY99" s="12"/>
-      <c r="PZ99" s="12"/>
-      <c r="QA99" s="12"/>
-      <c r="QB99" s="12"/>
-      <c r="QC99" s="12"/>
-      <c r="QD99" s="12"/>
-      <c r="QE99" s="12"/>
-      <c r="QF99" s="12"/>
-      <c r="QG99" s="12"/>
-      <c r="QH99" s="12"/>
-      <c r="QI99" s="12"/>
-      <c r="QJ99" s="12"/>
-      <c r="QK99" s="12"/>
-      <c r="QL99" s="12"/>
-      <c r="QM99" s="12"/>
-      <c r="QN99" s="12"/>
-      <c r="QO99" s="12"/>
-      <c r="QP99" s="12"/>
-      <c r="QQ99" s="12"/>
-      <c r="QR99" s="12"/>
-      <c r="QS99" s="12"/>
-      <c r="QT99" s="12"/>
-      <c r="QU99" s="12"/>
-      <c r="QV99" s="12"/>
-      <c r="QW99" s="12"/>
-      <c r="QX99" s="12"/>
-      <c r="QY99" s="12"/>
-      <c r="QZ99" s="12"/>
-      <c r="RA99" s="12"/>
-      <c r="RB99" s="12"/>
-      <c r="RC99" s="12"/>
-      <c r="RD99" s="12"/>
-      <c r="RE99" s="12"/>
-      <c r="RF99" s="12"/>
-      <c r="RG99" s="12"/>
-      <c r="RH99" s="12"/>
-      <c r="RI99" s="12"/>
-      <c r="RJ99" s="12"/>
-      <c r="RK99" s="12"/>
-      <c r="RL99" s="12"/>
-      <c r="RM99" s="12"/>
-      <c r="RN99" s="12"/>
-      <c r="RO99" s="12"/>
-      <c r="RP99" s="12"/>
-      <c r="RQ99" s="12"/>
-      <c r="RR99" s="12"/>
-      <c r="RS99" s="12"/>
-      <c r="RT99" s="12"/>
-      <c r="RU99" s="12"/>
-      <c r="RV99" s="12"/>
-      <c r="RW99" s="12"/>
-      <c r="RX99" s="12"/>
-      <c r="RY99" s="12"/>
-      <c r="RZ99" s="12"/>
-      <c r="SA99" s="12"/>
-      <c r="SB99" s="12"/>
-      <c r="SC99" s="12"/>
-      <c r="SD99" s="12"/>
-      <c r="SE99" s="12"/>
-      <c r="SF99" s="12"/>
-      <c r="SG99" s="12"/>
-      <c r="SH99" s="12"/>
-      <c r="SI99" s="12"/>
-      <c r="SJ99" s="12"/>
-      <c r="SK99" s="12"/>
-      <c r="SL99" s="12"/>
-      <c r="SM99" s="12"/>
-      <c r="SN99" s="12"/>
-      <c r="SO99" s="12"/>
-      <c r="SP99" s="12"/>
-      <c r="SQ99" s="12"/>
-      <c r="SR99" s="12"/>
-      <c r="SS99" s="12"/>
-      <c r="ST99" s="12"/>
-      <c r="SU99" s="12"/>
-      <c r="SV99" s="12"/>
-      <c r="SW99" s="12"/>
-      <c r="SX99" s="12"/>
-      <c r="SY99" s="12"/>
-      <c r="SZ99" s="12"/>
-      <c r="TA99" s="12"/>
-      <c r="TB99" s="12"/>
-      <c r="TC99" s="12"/>
-      <c r="TD99" s="12"/>
-      <c r="TE99" s="12"/>
-      <c r="TF99" s="12"/>
-      <c r="TG99" s="12"/>
-      <c r="TH99" s="12"/>
-      <c r="TI99" s="12"/>
-      <c r="TJ99" s="12"/>
-      <c r="TK99" s="12"/>
-      <c r="TL99" s="12"/>
-      <c r="TM99" s="12"/>
-      <c r="TN99" s="12"/>
-      <c r="TO99" s="12"/>
-      <c r="TP99" s="12"/>
-      <c r="TQ99" s="12"/>
-      <c r="TR99" s="12"/>
-      <c r="TS99" s="12"/>
-      <c r="TT99" s="12"/>
-      <c r="TU99" s="12"/>
-      <c r="TV99" s="12"/>
-      <c r="TW99" s="12"/>
-      <c r="TX99" s="12"/>
-      <c r="TY99" s="12"/>
-      <c r="TZ99" s="12"/>
-      <c r="UA99" s="12"/>
-      <c r="UB99" s="12"/>
-      <c r="UC99" s="12"/>
-      <c r="UD99" s="12"/>
-      <c r="UE99" s="12"/>
-      <c r="UF99" s="12"/>
-      <c r="UG99" s="12"/>
-      <c r="UH99" s="12"/>
-      <c r="UI99" s="12"/>
-      <c r="UJ99" s="12"/>
-      <c r="UK99" s="12"/>
-      <c r="UL99" s="12"/>
-      <c r="UM99" s="12"/>
-      <c r="UN99" s="12"/>
-      <c r="UO99" s="12"/>
-      <c r="UP99" s="12"/>
-      <c r="UQ99" s="12"/>
-      <c r="UR99" s="12"/>
-      <c r="US99" s="12"/>
-      <c r="UT99" s="12"/>
-      <c r="UU99" s="12"/>
-      <c r="UV99" s="12"/>
-      <c r="UW99" s="12"/>
-      <c r="UX99" s="12"/>
-      <c r="UY99" s="12"/>
-      <c r="UZ99" s="12"/>
-      <c r="VA99" s="12"/>
-      <c r="VB99" s="12"/>
-      <c r="VC99" s="12"/>
-      <c r="VD99" s="12"/>
-      <c r="VE99" s="12"/>
-      <c r="VF99" s="12"/>
-      <c r="VG99" s="12"/>
-      <c r="VH99" s="12"/>
-      <c r="VI99" s="12"/>
-      <c r="VJ99" s="12"/>
-      <c r="VK99" s="12"/>
-      <c r="VL99" s="12"/>
-      <c r="VM99" s="12"/>
-      <c r="VN99" s="12"/>
-      <c r="VO99" s="12"/>
-      <c r="VP99" s="12"/>
-      <c r="VQ99" s="12"/>
-      <c r="VR99" s="12"/>
-      <c r="VS99" s="12"/>
-      <c r="VT99" s="12"/>
-      <c r="VU99" s="12"/>
-      <c r="VV99" s="12"/>
-      <c r="VW99" s="12"/>
-      <c r="VX99" s="12"/>
-      <c r="VY99" s="12"/>
-      <c r="VZ99" s="12"/>
-      <c r="WA99" s="12"/>
-      <c r="WB99" s="12"/>
-      <c r="WC99" s="12"/>
-      <c r="WD99" s="12"/>
-      <c r="WE99" s="12"/>
-      <c r="WF99" s="12"/>
-      <c r="WG99" s="12"/>
-      <c r="WH99" s="12"/>
-      <c r="WI99" s="12"/>
-      <c r="WJ99" s="12"/>
-      <c r="WK99" s="12"/>
-      <c r="WL99" s="12"/>
-      <c r="WM99" s="12"/>
-      <c r="WN99" s="12"/>
-      <c r="WO99" s="12"/>
-      <c r="WP99" s="12"/>
-      <c r="WQ99" s="12"/>
-      <c r="WR99" s="12"/>
-      <c r="WS99" s="12"/>
-      <c r="WT99" s="12"/>
-      <c r="WU99" s="12"/>
-      <c r="WV99" s="12"/>
-      <c r="WW99" s="12"/>
-      <c r="WX99" s="12"/>
-      <c r="WY99" s="12"/>
-      <c r="WZ99" s="12"/>
-      <c r="XA99" s="12"/>
-      <c r="XB99" s="12"/>
-      <c r="XC99" s="12"/>
-      <c r="XD99" s="12"/>
-      <c r="XE99" s="12"/>
-      <c r="XF99" s="12"/>
-      <c r="XG99" s="12"/>
-      <c r="XH99" s="12"/>
-      <c r="XI99" s="12"/>
-      <c r="XJ99" s="12"/>
-      <c r="XK99" s="12"/>
-      <c r="XL99" s="12"/>
-      <c r="XM99" s="12"/>
-      <c r="XN99" s="12"/>
-      <c r="XO99" s="12"/>
-      <c r="XP99" s="12"/>
-      <c r="XQ99" s="12"/>
-      <c r="XR99" s="12"/>
-      <c r="XS99" s="12"/>
-      <c r="XT99" s="12"/>
-      <c r="XU99" s="12"/>
-      <c r="XV99" s="12"/>
-      <c r="XW99" s="12"/>
-      <c r="XX99" s="12"/>
-      <c r="XY99" s="12"/>
-      <c r="XZ99" s="12"/>
-      <c r="YA99" s="12"/>
-      <c r="YB99" s="12"/>
-      <c r="YC99" s="12"/>
-      <c r="YD99" s="12"/>
-      <c r="YE99" s="12"/>
-      <c r="YF99" s="12"/>
-      <c r="YG99" s="12"/>
-      <c r="YH99" s="12"/>
-      <c r="YI99" s="12"/>
-      <c r="YJ99" s="12"/>
-      <c r="YK99" s="12"/>
-      <c r="YL99" s="12"/>
-      <c r="YM99" s="12"/>
-      <c r="YN99" s="12"/>
-      <c r="YO99" s="12"/>
-      <c r="YP99" s="12"/>
-      <c r="YQ99" s="12"/>
-      <c r="YR99" s="12"/>
-      <c r="YS99" s="12"/>
-      <c r="YT99" s="12"/>
-      <c r="YU99" s="12"/>
-      <c r="YV99" s="12"/>
-      <c r="YW99" s="12"/>
-      <c r="YX99" s="12"/>
-      <c r="YY99" s="12"/>
-      <c r="YZ99" s="12"/>
-      <c r="ZA99" s="12"/>
-      <c r="ZB99" s="12"/>
-      <c r="ZC99" s="12"/>
-      <c r="ZD99" s="12"/>
-      <c r="ZE99" s="12"/>
-      <c r="ZF99" s="12"/>
-      <c r="ZG99" s="12"/>
-      <c r="ZH99" s="12"/>
-      <c r="ZI99" s="12"/>
-      <c r="ZJ99" s="12"/>
-      <c r="ZK99" s="12"/>
-      <c r="ZL99" s="12"/>
-      <c r="ZM99" s="12"/>
-      <c r="ZN99" s="12"/>
-      <c r="ZO99" s="12"/>
-      <c r="ZP99" s="12"/>
-      <c r="ZQ99" s="12"/>
-      <c r="ZR99" s="12"/>
-      <c r="ZS99" s="12"/>
-      <c r="ZT99" s="12"/>
-      <c r="ZU99" s="12"/>
-      <c r="ZV99" s="12"/>
-      <c r="ZW99" s="12"/>
-      <c r="ZX99" s="12"/>
-      <c r="ZY99" s="12"/>
-      <c r="ZZ99" s="12"/>
-      <c r="AAA99" s="12"/>
-      <c r="AAB99" s="12"/>
-      <c r="AAC99" s="12"/>
-      <c r="AAD99" s="12"/>
-      <c r="AAE99" s="12"/>
-      <c r="AAF99" s="12"/>
-      <c r="AAG99" s="12"/>
-      <c r="AAH99" s="12"/>
-      <c r="AAI99" s="12"/>
-      <c r="AAJ99" s="12"/>
-      <c r="AAK99" s="12"/>
-      <c r="AAL99" s="12"/>
-      <c r="AAM99" s="12"/>
-      <c r="AAN99" s="12"/>
-      <c r="AAO99" s="12"/>
-      <c r="AAP99" s="12"/>
-      <c r="AAQ99" s="12"/>
-      <c r="AAR99" s="12"/>
-      <c r="AAS99" s="12"/>
-      <c r="AAT99" s="12"/>
-      <c r="AAU99" s="12"/>
-      <c r="AAV99" s="12"/>
-      <c r="AAW99" s="12"/>
-      <c r="AAX99" s="12"/>
-      <c r="AAY99" s="12"/>
-      <c r="AAZ99" s="12"/>
-      <c r="ABA99" s="12"/>
-      <c r="ABB99" s="12"/>
-      <c r="ABC99" s="12"/>
-      <c r="ABD99" s="12"/>
-      <c r="ABE99" s="12"/>
-      <c r="ABF99" s="12"/>
-      <c r="ABG99" s="12"/>
-      <c r="ABH99" s="12"/>
-      <c r="ABI99" s="12"/>
-      <c r="ABJ99" s="12"/>
-      <c r="ABK99" s="12"/>
-      <c r="ABL99" s="12"/>
-      <c r="ABM99" s="12"/>
-      <c r="ABN99" s="12"/>
-      <c r="ABO99" s="12"/>
-      <c r="ABP99" s="12"/>
-      <c r="ABQ99" s="12"/>
-      <c r="ABR99" s="12"/>
-      <c r="ABS99" s="12"/>
-      <c r="ABT99" s="12"/>
-      <c r="ABU99" s="12"/>
-      <c r="ABV99" s="12"/>
-      <c r="ABW99" s="12"/>
-      <c r="ABX99" s="12"/>
-      <c r="ABY99" s="12"/>
-      <c r="ABZ99" s="12"/>
-      <c r="ACA99" s="12"/>
-      <c r="ACB99" s="12"/>
-      <c r="ACC99" s="12"/>
-      <c r="ACD99" s="12"/>
-      <c r="ACE99" s="12"/>
-      <c r="ACF99" s="12"/>
-      <c r="ACG99" s="12"/>
-      <c r="ACH99" s="12"/>
-      <c r="ACI99" s="12"/>
-      <c r="ACJ99" s="12"/>
-      <c r="ACK99" s="12"/>
-      <c r="ACL99" s="12"/>
-      <c r="ACM99" s="12"/>
-      <c r="ACN99" s="12"/>
-      <c r="ACO99" s="12"/>
-      <c r="ACP99" s="12"/>
-      <c r="ACQ99" s="12"/>
-      <c r="ACR99" s="12"/>
-      <c r="ACS99" s="12"/>
-      <c r="ACT99" s="12"/>
-      <c r="ACU99" s="12"/>
-      <c r="ACV99" s="12"/>
-      <c r="ACW99" s="12"/>
-      <c r="ACX99" s="12"/>
-      <c r="ACY99" s="12"/>
-      <c r="ACZ99" s="12"/>
-      <c r="ADA99" s="12"/>
-      <c r="ADB99" s="12"/>
-      <c r="ADC99" s="12"/>
-      <c r="ADD99" s="12"/>
-      <c r="ADE99" s="12"/>
-      <c r="ADF99" s="12"/>
-      <c r="ADG99" s="12"/>
-      <c r="ADH99" s="12"/>
-      <c r="ADI99" s="12"/>
-      <c r="ADJ99" s="12"/>
-      <c r="ADK99" s="12"/>
-      <c r="ADL99" s="12"/>
-      <c r="ADM99" s="12"/>
-      <c r="ADN99" s="12"/>
-      <c r="ADO99" s="12"/>
-      <c r="ADP99" s="12"/>
-      <c r="ADQ99" s="12"/>
-      <c r="ADR99" s="12"/>
-      <c r="ADS99" s="12"/>
-      <c r="ADT99" s="12"/>
-      <c r="ADU99" s="12"/>
-      <c r="ADV99" s="12"/>
-      <c r="ADW99" s="12"/>
-      <c r="ADX99" s="12"/>
-      <c r="ADY99" s="12"/>
-      <c r="ADZ99" s="12"/>
-      <c r="AEA99" s="12"/>
-      <c r="AEB99" s="12"/>
-      <c r="AEC99" s="12"/>
-      <c r="AED99" s="12"/>
-      <c r="AEE99" s="12"/>
-      <c r="AEF99" s="12"/>
-      <c r="AEG99" s="12"/>
-      <c r="AEH99" s="12"/>
-      <c r="AEI99" s="12"/>
-      <c r="AEJ99" s="12"/>
-      <c r="AEK99" s="12"/>
-      <c r="AEL99" s="12"/>
-      <c r="AEM99" s="12"/>
-      <c r="AEN99" s="12"/>
-      <c r="AEO99" s="12"/>
-      <c r="AEP99" s="12"/>
-      <c r="AEQ99" s="12"/>
-      <c r="AER99" s="12"/>
-      <c r="AES99" s="12"/>
-      <c r="AET99" s="12"/>
-      <c r="AEU99" s="12"/>
-      <c r="AEV99" s="12"/>
-      <c r="AEW99" s="12"/>
-      <c r="AEX99" s="12"/>
-      <c r="AEY99" s="12"/>
-      <c r="AEZ99" s="12"/>
-      <c r="AFA99" s="12"/>
-      <c r="AFB99" s="12"/>
-      <c r="AFC99" s="12"/>
-      <c r="AFD99" s="12"/>
-      <c r="AFE99" s="12"/>
-      <c r="AFF99" s="12"/>
-      <c r="AFG99" s="12"/>
-      <c r="AFH99" s="12"/>
-      <c r="AFI99" s="12"/>
-      <c r="AFJ99" s="12"/>
-      <c r="AFK99" s="12"/>
-      <c r="AFL99" s="12"/>
-      <c r="AFM99" s="12"/>
-      <c r="AFN99" s="12"/>
-      <c r="AFO99" s="12"/>
-      <c r="AFP99" s="12"/>
-      <c r="AFQ99" s="12"/>
-      <c r="AFR99" s="12"/>
-      <c r="AFS99" s="12"/>
-      <c r="AFT99" s="12"/>
-      <c r="AFU99" s="12"/>
-      <c r="AFV99" s="12"/>
-      <c r="AFW99" s="12"/>
-      <c r="AFX99" s="12"/>
-      <c r="AFY99" s="12"/>
-      <c r="AFZ99" s="12"/>
-      <c r="AGA99" s="12"/>
-      <c r="AGB99" s="12"/>
-      <c r="AGC99" s="12"/>
-      <c r="AGD99" s="12"/>
-      <c r="AGE99" s="12"/>
-      <c r="AGF99" s="12"/>
-      <c r="AGG99" s="12"/>
-      <c r="AGH99" s="12"/>
-      <c r="AGI99" s="12"/>
-      <c r="AGJ99" s="12"/>
-      <c r="AGK99" s="12"/>
-      <c r="AGL99" s="12"/>
-      <c r="AGM99" s="12"/>
-      <c r="AGN99" s="12"/>
-      <c r="AGO99" s="12"/>
-      <c r="AGP99" s="12"/>
-      <c r="AGQ99" s="12"/>
-      <c r="AGR99" s="12"/>
-      <c r="AGS99" s="12"/>
-      <c r="AGT99" s="12"/>
-      <c r="AGU99" s="12"/>
-      <c r="AGV99" s="12"/>
-      <c r="AGW99" s="12"/>
-      <c r="AGX99" s="12"/>
-      <c r="AGY99" s="12"/>
-      <c r="AGZ99" s="12"/>
-      <c r="AHA99" s="12"/>
-      <c r="AHB99" s="12"/>
-      <c r="AHC99" s="12"/>
-      <c r="AHD99" s="12"/>
-      <c r="AHE99" s="12"/>
-      <c r="AHF99" s="12"/>
-      <c r="AHG99" s="12"/>
-      <c r="AHH99" s="12"/>
-      <c r="AHI99" s="12"/>
-      <c r="AHJ99" s="12"/>
-      <c r="AHK99" s="12"/>
-      <c r="AHL99" s="12"/>
-      <c r="AHM99" s="12"/>
-      <c r="AHN99" s="12"/>
-      <c r="AHO99" s="12"/>
-      <c r="AHP99" s="12"/>
-      <c r="AHQ99" s="12"/>
-      <c r="AHR99" s="12"/>
-      <c r="AHS99" s="12"/>
-      <c r="AHT99" s="12"/>
-      <c r="AHU99" s="12"/>
-      <c r="AHV99" s="12"/>
-      <c r="AHW99" s="12"/>
-      <c r="AHX99" s="12"/>
-      <c r="AHY99" s="12"/>
-      <c r="AHZ99" s="12"/>
-      <c r="AIA99" s="12"/>
-      <c r="AIB99" s="12"/>
-      <c r="AIC99" s="12"/>
-      <c r="AID99" s="12"/>
-      <c r="AIE99" s="12"/>
-      <c r="AIF99" s="12"/>
-      <c r="AIG99" s="12"/>
-      <c r="AIH99" s="12"/>
-      <c r="AII99" s="12"/>
-      <c r="AIJ99" s="12"/>
-      <c r="AIK99" s="12"/>
-      <c r="AIL99" s="12"/>
-      <c r="AIM99" s="12"/>
-      <c r="AIN99" s="12"/>
-      <c r="AIO99" s="12"/>
-      <c r="AIP99" s="12"/>
-      <c r="AIQ99" s="12"/>
-      <c r="AIR99" s="12"/>
-      <c r="AIS99" s="12"/>
-      <c r="AIT99" s="12"/>
-      <c r="AIU99" s="12"/>
-      <c r="AIV99" s="12"/>
-      <c r="AIW99" s="12"/>
-      <c r="AIX99" s="12"/>
-      <c r="AIY99" s="12"/>
-      <c r="AIZ99" s="12"/>
-      <c r="AJA99" s="12"/>
-      <c r="AJB99" s="12"/>
-      <c r="AJC99" s="12"/>
-      <c r="AJD99" s="12"/>
-      <c r="AJE99" s="12"/>
-      <c r="AJF99" s="12"/>
-      <c r="AJG99" s="12"/>
-      <c r="AJH99" s="12"/>
-      <c r="AJI99" s="12"/>
-      <c r="AJJ99" s="12"/>
-      <c r="AJK99" s="12"/>
-      <c r="AJL99" s="12"/>
-      <c r="AJM99" s="12"/>
-      <c r="AJN99" s="12"/>
-      <c r="AJO99" s="12"/>
-      <c r="AJP99" s="12"/>
-      <c r="AJQ99" s="12"/>
-      <c r="AJR99" s="12"/>
-      <c r="AJS99" s="12"/>
-      <c r="AJT99" s="12"/>
-      <c r="AJU99" s="12"/>
-      <c r="AJV99" s="12"/>
-      <c r="AJW99" s="12"/>
-      <c r="AJX99" s="12"/>
-      <c r="AJY99" s="12"/>
-      <c r="AJZ99" s="12"/>
-      <c r="AKA99" s="12"/>
-      <c r="AKB99" s="12"/>
-      <c r="AKC99" s="12"/>
-      <c r="AKD99" s="12"/>
-      <c r="AKE99" s="12"/>
-      <c r="AKF99" s="12"/>
-      <c r="AKG99" s="12"/>
-      <c r="AKH99" s="12"/>
-      <c r="AKI99" s="12"/>
-      <c r="AKJ99" s="12"/>
-      <c r="AKK99" s="12"/>
-      <c r="AKL99" s="12"/>
-      <c r="AKM99" s="12"/>
-      <c r="AKN99" s="12"/>
-      <c r="AKO99" s="12"/>
-      <c r="AKP99" s="12"/>
-      <c r="AKQ99" s="12"/>
-      <c r="AKR99" s="12"/>
-      <c r="AKS99" s="12"/>
-      <c r="AKT99" s="12"/>
-      <c r="AKU99" s="12"/>
-      <c r="AKV99" s="12"/>
-      <c r="AKW99" s="12"/>
-      <c r="AKX99" s="12"/>
-      <c r="AKY99" s="12"/>
-      <c r="AKZ99" s="12"/>
-      <c r="ALA99" s="12"/>
-      <c r="ALB99" s="12"/>
-      <c r="ALC99" s="12"/>
-      <c r="ALD99" s="12"/>
-      <c r="ALE99" s="12"/>
-      <c r="ALF99" s="12"/>
-      <c r="ALG99" s="12"/>
-      <c r="ALH99" s="12"/>
-      <c r="ALI99" s="12"/>
-      <c r="ALJ99" s="12"/>
-      <c r="ALK99" s="12"/>
-      <c r="ALL99" s="12"/>
-      <c r="ALM99" s="12"/>
-      <c r="ALN99" s="12"/>
-      <c r="ALO99" s="12"/>
-      <c r="ALP99" s="12"/>
-      <c r="ALQ99" s="12"/>
-      <c r="ALR99" s="12"/>
-      <c r="ALS99" s="12"/>
-      <c r="ALT99" s="12"/>
-      <c r="ALU99" s="12"/>
-      <c r="ALV99" s="12"/>
-      <c r="ALW99" s="12"/>
-      <c r="ALX99" s="12"/>
-      <c r="ALY99" s="12"/>
-      <c r="ALZ99" s="12"/>
-      <c r="AMA99" s="12"/>
-      <c r="AMB99" s="12"/>
-      <c r="AMC99" s="12"/>
-      <c r="AMD99" s="12"/>
-      <c r="AME99" s="12"/>
-      <c r="AMF99" s="12"/>
-      <c r="AMG99" s="12"/>
-      <c r="AMH99" s="12"/>
-      <c r="AMI99" s="12"/>
-      <c r="AMJ99" s="12"/>
-      <c r="AMK99" s="12"/>
-      <c r="AML99" s="12"/>
-      <c r="AMM99" s="12"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="25"/>
+      <c r="S99" s="25"/>
+      <c r="T99" s="25"/>
+      <c r="U99" s="25"/>
+      <c r="V99" s="25"/>
+      <c r="W99" s="25"/>
+      <c r="X99" s="25"/>
+      <c r="Y99" s="25"/>
+      <c r="Z99" s="25"/>
+      <c r="AA99" s="25"/>
+      <c r="AB99" s="25"/>
+      <c r="AC99" s="25"/>
+      <c r="AD99" s="25"/>
+      <c r="AE99" s="25"/>
+      <c r="AF99" s="25"/>
+      <c r="AG99" s="25"/>
+      <c r="AH99" s="25"/>
+      <c r="AI99" s="25"/>
+      <c r="AJ99" s="25"/>
+      <c r="AK99" s="25"/>
+      <c r="AL99" s="25"/>
+      <c r="AM99" s="25"/>
+      <c r="AN99" s="25"/>
+      <c r="AO99" s="25"/>
+      <c r="AP99" s="25"/>
+      <c r="AQ99" s="25"/>
+      <c r="AR99" s="25"/>
+      <c r="AS99" s="25"/>
+      <c r="AT99" s="25"/>
+      <c r="AU99" s="25"/>
+      <c r="AV99" s="25"/>
+      <c r="AW99" s="25"/>
+      <c r="AX99" s="25"/>
+      <c r="AY99" s="25"/>
+      <c r="AZ99" s="25"/>
+      <c r="BA99" s="25"/>
+      <c r="BB99" s="25"/>
+      <c r="BC99" s="25"/>
+      <c r="BD99" s="25"/>
+      <c r="BE99" s="25"/>
+      <c r="BF99" s="25"/>
+      <c r="BG99" s="25"/>
+      <c r="BH99" s="25"/>
+      <c r="BI99" s="25"/>
+      <c r="BJ99" s="25"/>
+      <c r="BK99" s="25"/>
+      <c r="BL99" s="25"/>
+      <c r="BM99" s="25"/>
+      <c r="BN99" s="25"/>
+      <c r="BO99" s="25"/>
+      <c r="BP99" s="25"/>
+      <c r="BQ99" s="25"/>
+      <c r="BR99" s="25"/>
+      <c r="BS99" s="25"/>
+      <c r="BT99" s="25"/>
+      <c r="BU99" s="25"/>
+      <c r="BV99" s="25"/>
+      <c r="BW99" s="25"/>
+      <c r="BX99" s="25"/>
+      <c r="BY99" s="25"/>
+      <c r="BZ99" s="25"/>
+      <c r="CA99" s="25"/>
+      <c r="CB99" s="25"/>
+      <c r="CC99" s="25"/>
+      <c r="CD99" s="25"/>
+      <c r="CE99" s="25"/>
+      <c r="CF99" s="25"/>
+      <c r="CG99" s="25"/>
+      <c r="CH99" s="25"/>
+      <c r="CI99" s="25"/>
+      <c r="CJ99" s="25"/>
+      <c r="CK99" s="25"/>
+      <c r="CL99" s="25"/>
+      <c r="CM99" s="25"/>
+      <c r="CN99" s="25"/>
+      <c r="CO99" s="25"/>
+      <c r="CP99" s="25"/>
+      <c r="CQ99" s="25"/>
+      <c r="CR99" s="25"/>
+      <c r="CS99" s="25"/>
+      <c r="CT99" s="25"/>
+      <c r="CU99" s="25"/>
+      <c r="CV99" s="25"/>
+      <c r="CW99" s="25"/>
+      <c r="CX99" s="25"/>
+      <c r="CY99" s="25"/>
+      <c r="CZ99" s="25"/>
+      <c r="DA99" s="25"/>
+      <c r="DB99" s="25"/>
+      <c r="DC99" s="25"/>
+      <c r="DD99" s="25"/>
+      <c r="DE99" s="25"/>
+      <c r="DF99" s="25"/>
+      <c r="DG99" s="25"/>
+      <c r="DH99" s="25"/>
+      <c r="DI99" s="25"/>
+      <c r="DJ99" s="25"/>
+      <c r="DK99" s="25"/>
+      <c r="DL99" s="25"/>
+      <c r="DM99" s="25"/>
+      <c r="DN99" s="25"/>
+      <c r="DO99" s="25"/>
+      <c r="DP99" s="25"/>
+      <c r="DQ99" s="25"/>
+      <c r="DR99" s="25"/>
+      <c r="DS99" s="25"/>
+      <c r="DT99" s="25"/>
+      <c r="DU99" s="25"/>
+      <c r="DV99" s="25"/>
+      <c r="DW99" s="25"/>
+      <c r="DX99" s="25"/>
+      <c r="DY99" s="25"/>
+      <c r="DZ99" s="25"/>
+      <c r="EA99" s="25"/>
+      <c r="EB99" s="25"/>
+      <c r="EC99" s="25"/>
+      <c r="ED99" s="25"/>
+      <c r="EE99" s="25"/>
+      <c r="EF99" s="25"/>
+      <c r="EG99" s="25"/>
+      <c r="EH99" s="25"/>
+      <c r="EI99" s="25"/>
+      <c r="EJ99" s="25"/>
+      <c r="EK99" s="25"/>
+      <c r="EL99" s="25"/>
+      <c r="EM99" s="25"/>
+      <c r="EN99" s="25"/>
+      <c r="EO99" s="25"/>
+      <c r="EP99" s="25"/>
+      <c r="EQ99" s="25"/>
+      <c r="ER99" s="25"/>
+      <c r="ES99" s="25"/>
+      <c r="ET99" s="25"/>
+      <c r="EU99" s="25"/>
+      <c r="EV99" s="25"/>
+      <c r="EW99" s="25"/>
+      <c r="EX99" s="25"/>
+      <c r="EY99" s="25"/>
+      <c r="EZ99" s="25"/>
+      <c r="FA99" s="25"/>
+      <c r="FB99" s="25"/>
+      <c r="FC99" s="25"/>
+      <c r="FD99" s="25"/>
+      <c r="FE99" s="25"/>
+      <c r="FF99" s="25"/>
+      <c r="FG99" s="25"/>
+      <c r="FH99" s="25"/>
+      <c r="FI99" s="25"/>
+      <c r="FJ99" s="25"/>
+      <c r="FK99" s="25"/>
+      <c r="FL99" s="25"/>
+      <c r="FM99" s="25"/>
+      <c r="FN99" s="25"/>
+      <c r="FO99" s="25"/>
+      <c r="FP99" s="25"/>
+      <c r="FQ99" s="25"/>
+      <c r="FR99" s="25"/>
+      <c r="FS99" s="25"/>
+      <c r="FT99" s="25"/>
+      <c r="FU99" s="25"/>
+      <c r="FV99" s="25"/>
+      <c r="FW99" s="25"/>
+      <c r="FX99" s="25"/>
+      <c r="FY99" s="25"/>
+      <c r="FZ99" s="25"/>
+      <c r="GA99" s="25"/>
+      <c r="GB99" s="25"/>
+      <c r="GC99" s="25"/>
+      <c r="GD99" s="25"/>
+      <c r="GE99" s="25"/>
+      <c r="GF99" s="25"/>
+      <c r="GG99" s="25"/>
+      <c r="GH99" s="25"/>
+      <c r="GI99" s="25"/>
+      <c r="GJ99" s="25"/>
+      <c r="GK99" s="25"/>
+      <c r="GL99" s="25"/>
+      <c r="GM99" s="25"/>
+      <c r="GN99" s="25"/>
+      <c r="GO99" s="25"/>
+      <c r="GP99" s="25"/>
+      <c r="GQ99" s="25"/>
+      <c r="GR99" s="25"/>
+      <c r="GS99" s="25"/>
+      <c r="GT99" s="25"/>
+      <c r="GU99" s="25"/>
+      <c r="GV99" s="25"/>
+      <c r="GW99" s="25"/>
+      <c r="GX99" s="25"/>
+      <c r="GY99" s="25"/>
+      <c r="GZ99" s="25"/>
+      <c r="HA99" s="25"/>
+      <c r="HB99" s="25"/>
+      <c r="HC99" s="25"/>
+      <c r="HD99" s="25"/>
+      <c r="HE99" s="25"/>
+      <c r="HF99" s="25"/>
+      <c r="HG99" s="25"/>
+      <c r="HH99" s="25"/>
+      <c r="HI99" s="25"/>
+      <c r="HJ99" s="25"/>
+      <c r="HK99" s="25"/>
+      <c r="HL99" s="25"/>
+      <c r="HM99" s="25"/>
+      <c r="HN99" s="25"/>
+      <c r="HO99" s="25"/>
+      <c r="HP99" s="25"/>
+      <c r="HQ99" s="25"/>
+      <c r="HR99" s="25"/>
+      <c r="HS99" s="25"/>
+      <c r="HT99" s="25"/>
+      <c r="HU99" s="25"/>
+      <c r="HV99" s="25"/>
+      <c r="HW99" s="25"/>
+      <c r="HX99" s="25"/>
+      <c r="HY99" s="25"/>
+      <c r="HZ99" s="25"/>
+      <c r="IA99" s="25"/>
+      <c r="IB99" s="25"/>
+      <c r="IC99" s="25"/>
+      <c r="ID99" s="25"/>
+      <c r="IE99" s="25"/>
+      <c r="IF99" s="25"/>
+      <c r="IG99" s="25"/>
+      <c r="IH99" s="25"/>
+      <c r="II99" s="25"/>
+      <c r="IJ99" s="25"/>
+      <c r="IK99" s="25"/>
+      <c r="IL99" s="25"/>
+      <c r="IM99" s="25"/>
+      <c r="IN99" s="25"/>
+      <c r="IO99" s="25"/>
+      <c r="IP99" s="25"/>
+      <c r="IQ99" s="25"/>
+      <c r="IR99" s="25"/>
+      <c r="IS99" s="25"/>
+      <c r="IT99" s="25"/>
+      <c r="IU99" s="25"/>
+      <c r="IV99" s="25"/>
+      <c r="IW99" s="25"/>
+      <c r="IX99" s="25"/>
+      <c r="IY99" s="25"/>
+      <c r="IZ99" s="25"/>
+      <c r="JA99" s="25"/>
+      <c r="JB99" s="25"/>
+      <c r="JC99" s="25"/>
+      <c r="JD99" s="25"/>
+      <c r="JE99" s="25"/>
+      <c r="JF99" s="25"/>
+      <c r="JG99" s="25"/>
+      <c r="JH99" s="25"/>
+      <c r="JI99" s="25"/>
+      <c r="JJ99" s="25"/>
+      <c r="JK99" s="25"/>
+      <c r="JL99" s="25"/>
+      <c r="JM99" s="25"/>
+      <c r="JN99" s="25"/>
+      <c r="JO99" s="25"/>
+      <c r="JP99" s="25"/>
+      <c r="JQ99" s="25"/>
+      <c r="JR99" s="25"/>
+      <c r="JS99" s="25"/>
+      <c r="JT99" s="25"/>
+      <c r="JU99" s="25"/>
+      <c r="JV99" s="25"/>
+      <c r="JW99" s="25"/>
+      <c r="JX99" s="25"/>
+      <c r="JY99" s="25"/>
+      <c r="JZ99" s="25"/>
+      <c r="KA99" s="25"/>
+      <c r="KB99" s="25"/>
+      <c r="KC99" s="25"/>
+      <c r="KD99" s="25"/>
+      <c r="KE99" s="25"/>
+      <c r="KF99" s="25"/>
+      <c r="KG99" s="25"/>
+      <c r="KH99" s="25"/>
+      <c r="KI99" s="25"/>
+      <c r="KJ99" s="25"/>
+      <c r="KK99" s="25"/>
+      <c r="KL99" s="25"/>
+      <c r="KM99" s="25"/>
+      <c r="KN99" s="25"/>
+      <c r="KO99" s="25"/>
+      <c r="KP99" s="25"/>
+      <c r="KQ99" s="25"/>
+      <c r="KR99" s="25"/>
+      <c r="KS99" s="25"/>
+      <c r="KT99" s="25"/>
+      <c r="KU99" s="25"/>
+      <c r="KV99" s="25"/>
+      <c r="KW99" s="25"/>
+      <c r="KX99" s="25"/>
+      <c r="KY99" s="25"/>
+      <c r="KZ99" s="25"/>
+      <c r="LA99" s="25"/>
+      <c r="LB99" s="25"/>
+      <c r="LC99" s="25"/>
+      <c r="LD99" s="25"/>
+      <c r="LE99" s="25"/>
+      <c r="LF99" s="25"/>
+      <c r="LG99" s="25"/>
+      <c r="LH99" s="25"/>
+      <c r="LI99" s="25"/>
+      <c r="LJ99" s="25"/>
+      <c r="LK99" s="25"/>
+      <c r="LL99" s="25"/>
+      <c r="LM99" s="25"/>
+      <c r="LN99" s="25"/>
+      <c r="LO99" s="25"/>
+      <c r="LP99" s="25"/>
+      <c r="LQ99" s="25"/>
+      <c r="LR99" s="25"/>
+      <c r="LS99" s="25"/>
+      <c r="LT99" s="25"/>
+      <c r="LU99" s="25"/>
+      <c r="LV99" s="25"/>
+      <c r="LW99" s="25"/>
+      <c r="LX99" s="25"/>
+      <c r="LY99" s="25"/>
+      <c r="LZ99" s="25"/>
+      <c r="MA99" s="25"/>
+      <c r="MB99" s="25"/>
+      <c r="MC99" s="25"/>
+      <c r="MD99" s="25"/>
+      <c r="ME99" s="25"/>
+      <c r="MF99" s="25"/>
+      <c r="MG99" s="25"/>
+      <c r="MH99" s="25"/>
+      <c r="MI99" s="25"/>
+      <c r="MJ99" s="25"/>
+      <c r="MK99" s="25"/>
+      <c r="ML99" s="25"/>
+      <c r="MM99" s="25"/>
+      <c r="MN99" s="25"/>
+      <c r="MO99" s="25"/>
+      <c r="MP99" s="25"/>
+      <c r="MQ99" s="25"/>
+      <c r="MR99" s="25"/>
+      <c r="MS99" s="25"/>
+      <c r="MT99" s="25"/>
+      <c r="MU99" s="25"/>
+      <c r="MV99" s="25"/>
+      <c r="MW99" s="25"/>
+      <c r="MX99" s="25"/>
+      <c r="MY99" s="25"/>
+      <c r="MZ99" s="25"/>
+      <c r="NA99" s="25"/>
+      <c r="NB99" s="25"/>
+      <c r="NC99" s="25"/>
+      <c r="ND99" s="25"/>
+      <c r="NE99" s="25"/>
+      <c r="NF99" s="25"/>
+      <c r="NG99" s="25"/>
+      <c r="NH99" s="25"/>
+      <c r="NI99" s="25"/>
+      <c r="NJ99" s="25"/>
+      <c r="NK99" s="25"/>
+      <c r="NL99" s="25"/>
+      <c r="NM99" s="25"/>
+      <c r="NN99" s="25"/>
+      <c r="NO99" s="25"/>
+      <c r="NP99" s="25"/>
+      <c r="NQ99" s="25"/>
+      <c r="NR99" s="25"/>
+      <c r="NS99" s="25"/>
+      <c r="NT99" s="25"/>
+      <c r="NU99" s="25"/>
+      <c r="NV99" s="25"/>
+      <c r="NW99" s="25"/>
+      <c r="NX99" s="25"/>
+      <c r="NY99" s="25"/>
+      <c r="NZ99" s="25"/>
+      <c r="OA99" s="25"/>
+      <c r="OB99" s="25"/>
+      <c r="OC99" s="25"/>
+      <c r="OD99" s="25"/>
+      <c r="OE99" s="25"/>
+      <c r="OF99" s="25"/>
+      <c r="OG99" s="25"/>
+      <c r="OH99" s="25"/>
+      <c r="OI99" s="25"/>
+      <c r="OJ99" s="25"/>
+      <c r="OK99" s="25"/>
+      <c r="OL99" s="25"/>
+      <c r="OM99" s="25"/>
+      <c r="ON99" s="25"/>
+      <c r="OO99" s="25"/>
+      <c r="OP99" s="25"/>
+      <c r="OQ99" s="25"/>
+      <c r="OR99" s="25"/>
+      <c r="OS99" s="25"/>
+      <c r="OT99" s="25"/>
+      <c r="OU99" s="25"/>
+      <c r="OV99" s="25"/>
+      <c r="OW99" s="25"/>
+      <c r="OX99" s="25"/>
+      <c r="OY99" s="25"/>
+      <c r="OZ99" s="25"/>
+      <c r="PA99" s="25"/>
+      <c r="PB99" s="25"/>
+      <c r="PC99" s="25"/>
+      <c r="PD99" s="25"/>
+      <c r="PE99" s="25"/>
+      <c r="PF99" s="25"/>
+      <c r="PG99" s="25"/>
+      <c r="PH99" s="25"/>
+      <c r="PI99" s="25"/>
+      <c r="PJ99" s="25"/>
+      <c r="PK99" s="25"/>
+      <c r="PL99" s="25"/>
+      <c r="PM99" s="25"/>
+      <c r="PN99" s="25"/>
+      <c r="PO99" s="25"/>
+      <c r="PP99" s="25"/>
+      <c r="PQ99" s="25"/>
+      <c r="PR99" s="25"/>
+      <c r="PS99" s="25"/>
+      <c r="PT99" s="25"/>
+      <c r="PU99" s="25"/>
+      <c r="PV99" s="25"/>
+      <c r="PW99" s="25"/>
+      <c r="PX99" s="25"/>
+      <c r="PY99" s="25"/>
+      <c r="PZ99" s="25"/>
+      <c r="QA99" s="25"/>
+      <c r="QB99" s="25"/>
+      <c r="QC99" s="25"/>
+      <c r="QD99" s="25"/>
+      <c r="QE99" s="25"/>
+      <c r="QF99" s="25"/>
+      <c r="QG99" s="25"/>
+      <c r="QH99" s="25"/>
+      <c r="QI99" s="25"/>
+      <c r="QJ99" s="25"/>
+      <c r="QK99" s="25"/>
+      <c r="QL99" s="25"/>
+      <c r="QM99" s="25"/>
+      <c r="QN99" s="25"/>
+      <c r="QO99" s="25"/>
+      <c r="QP99" s="25"/>
+      <c r="QQ99" s="25"/>
+      <c r="QR99" s="25"/>
+      <c r="QS99" s="25"/>
+      <c r="QT99" s="25"/>
+      <c r="QU99" s="25"/>
+      <c r="QV99" s="25"/>
+      <c r="QW99" s="25"/>
+      <c r="QX99" s="25"/>
+      <c r="QY99" s="25"/>
+      <c r="QZ99" s="25"/>
+      <c r="RA99" s="25"/>
+      <c r="RB99" s="25"/>
+      <c r="RC99" s="25"/>
+      <c r="RD99" s="25"/>
+      <c r="RE99" s="25"/>
+      <c r="RF99" s="25"/>
+      <c r="RG99" s="25"/>
+      <c r="RH99" s="25"/>
+      <c r="RI99" s="25"/>
+      <c r="RJ99" s="25"/>
+      <c r="RK99" s="25"/>
+      <c r="RL99" s="25"/>
+      <c r="RM99" s="25"/>
+      <c r="RN99" s="25"/>
+      <c r="RO99" s="25"/>
+      <c r="RP99" s="25"/>
+      <c r="RQ99" s="25"/>
+      <c r="RR99" s="25"/>
+      <c r="RS99" s="25"/>
+      <c r="RT99" s="25"/>
+      <c r="RU99" s="25"/>
+      <c r="RV99" s="25"/>
+      <c r="RW99" s="25"/>
+      <c r="RX99" s="25"/>
+      <c r="RY99" s="25"/>
+      <c r="RZ99" s="25"/>
+      <c r="SA99" s="25"/>
+      <c r="SB99" s="25"/>
+      <c r="SC99" s="25"/>
+      <c r="SD99" s="25"/>
+      <c r="SE99" s="25"/>
+      <c r="SF99" s="25"/>
+      <c r="SG99" s="25"/>
+      <c r="SH99" s="25"/>
+      <c r="SI99" s="25"/>
+      <c r="SJ99" s="25"/>
+      <c r="SK99" s="25"/>
+      <c r="SL99" s="25"/>
+      <c r="SM99" s="25"/>
+      <c r="SN99" s="25"/>
+      <c r="SO99" s="25"/>
+      <c r="SP99" s="25"/>
+      <c r="SQ99" s="25"/>
+      <c r="SR99" s="25"/>
+      <c r="SS99" s="25"/>
+      <c r="ST99" s="25"/>
+      <c r="SU99" s="25"/>
+      <c r="SV99" s="25"/>
+      <c r="SW99" s="25"/>
+      <c r="SX99" s="25"/>
+      <c r="SY99" s="25"/>
+      <c r="SZ99" s="25"/>
+      <c r="TA99" s="25"/>
+      <c r="TB99" s="25"/>
+      <c r="TC99" s="25"/>
+      <c r="TD99" s="25"/>
+      <c r="TE99" s="25"/>
+      <c r="TF99" s="25"/>
+      <c r="TG99" s="25"/>
+      <c r="TH99" s="25"/>
+      <c r="TI99" s="25"/>
+      <c r="TJ99" s="25"/>
+      <c r="TK99" s="25"/>
+      <c r="TL99" s="25"/>
+      <c r="TM99" s="25"/>
+      <c r="TN99" s="25"/>
+      <c r="TO99" s="25"/>
+      <c r="TP99" s="25"/>
+      <c r="TQ99" s="25"/>
+      <c r="TR99" s="25"/>
+      <c r="TS99" s="25"/>
+      <c r="TT99" s="25"/>
+      <c r="TU99" s="25"/>
+      <c r="TV99" s="25"/>
+      <c r="TW99" s="25"/>
+      <c r="TX99" s="25"/>
+      <c r="TY99" s="25"/>
+      <c r="TZ99" s="25"/>
+      <c r="UA99" s="25"/>
+      <c r="UB99" s="25"/>
+      <c r="UC99" s="25"/>
+      <c r="UD99" s="25"/>
+      <c r="UE99" s="25"/>
+      <c r="UF99" s="25"/>
+      <c r="UG99" s="25"/>
+      <c r="UH99" s="25"/>
+      <c r="UI99" s="25"/>
+      <c r="UJ99" s="25"/>
+      <c r="UK99" s="25"/>
+      <c r="UL99" s="25"/>
+      <c r="UM99" s="25"/>
+      <c r="UN99" s="25"/>
+      <c r="UO99" s="25"/>
+      <c r="UP99" s="25"/>
+      <c r="UQ99" s="25"/>
+      <c r="UR99" s="25"/>
+      <c r="US99" s="25"/>
+      <c r="UT99" s="25"/>
+      <c r="UU99" s="25"/>
+      <c r="UV99" s="25"/>
+      <c r="UW99" s="25"/>
+      <c r="UX99" s="25"/>
+      <c r="UY99" s="25"/>
+      <c r="UZ99" s="25"/>
+      <c r="VA99" s="25"/>
+      <c r="VB99" s="25"/>
+      <c r="VC99" s="25"/>
+      <c r="VD99" s="25"/>
+      <c r="VE99" s="25"/>
+      <c r="VF99" s="25"/>
+      <c r="VG99" s="25"/>
+      <c r="VH99" s="25"/>
+      <c r="VI99" s="25"/>
+      <c r="VJ99" s="25"/>
+      <c r="VK99" s="25"/>
+      <c r="VL99" s="25"/>
+      <c r="VM99" s="25"/>
+      <c r="VN99" s="25"/>
+      <c r="VO99" s="25"/>
+      <c r="VP99" s="25"/>
+      <c r="VQ99" s="25"/>
+      <c r="VR99" s="25"/>
+      <c r="VS99" s="25"/>
+      <c r="VT99" s="25"/>
+      <c r="VU99" s="25"/>
+      <c r="VV99" s="25"/>
+      <c r="VW99" s="25"/>
+      <c r="VX99" s="25"/>
+      <c r="VY99" s="25"/>
+      <c r="VZ99" s="25"/>
+      <c r="WA99" s="25"/>
+      <c r="WB99" s="25"/>
+      <c r="WC99" s="25"/>
+      <c r="WD99" s="25"/>
+      <c r="WE99" s="25"/>
+      <c r="WF99" s="25"/>
+      <c r="WG99" s="25"/>
+      <c r="WH99" s="25"/>
+      <c r="WI99" s="25"/>
+      <c r="WJ99" s="25"/>
+      <c r="WK99" s="25"/>
+      <c r="WL99" s="25"/>
+      <c r="WM99" s="25"/>
+      <c r="WN99" s="25"/>
+      <c r="WO99" s="25"/>
+      <c r="WP99" s="25"/>
+      <c r="WQ99" s="25"/>
+      <c r="WR99" s="25"/>
+      <c r="WS99" s="25"/>
+      <c r="WT99" s="25"/>
+      <c r="WU99" s="25"/>
+      <c r="WV99" s="25"/>
+      <c r="WW99" s="25"/>
+      <c r="WX99" s="25"/>
+      <c r="WY99" s="25"/>
+      <c r="WZ99" s="25"/>
+      <c r="XA99" s="25"/>
+      <c r="XB99" s="25"/>
+      <c r="XC99" s="25"/>
+      <c r="XD99" s="25"/>
+      <c r="XE99" s="25"/>
+      <c r="XF99" s="25"/>
+      <c r="XG99" s="25"/>
+      <c r="XH99" s="25"/>
+      <c r="XI99" s="25"/>
+      <c r="XJ99" s="25"/>
+      <c r="XK99" s="25"/>
+      <c r="XL99" s="25"/>
+      <c r="XM99" s="25"/>
+      <c r="XN99" s="25"/>
+      <c r="XO99" s="25"/>
+      <c r="XP99" s="25"/>
+      <c r="XQ99" s="25"/>
+      <c r="XR99" s="25"/>
+      <c r="XS99" s="25"/>
+      <c r="XT99" s="25"/>
+      <c r="XU99" s="25"/>
+      <c r="XV99" s="25"/>
+      <c r="XW99" s="25"/>
+      <c r="XX99" s="25"/>
+      <c r="XY99" s="25"/>
+      <c r="XZ99" s="25"/>
+      <c r="YA99" s="25"/>
+      <c r="YB99" s="25"/>
+      <c r="YC99" s="25"/>
+      <c r="YD99" s="25"/>
+      <c r="YE99" s="25"/>
+      <c r="YF99" s="25"/>
+      <c r="YG99" s="25"/>
+      <c r="YH99" s="25"/>
+      <c r="YI99" s="25"/>
+      <c r="YJ99" s="25"/>
+      <c r="YK99" s="25"/>
+      <c r="YL99" s="25"/>
+      <c r="YM99" s="25"/>
+      <c r="YN99" s="25"/>
+      <c r="YO99" s="25"/>
+      <c r="YP99" s="25"/>
+      <c r="YQ99" s="25"/>
+      <c r="YR99" s="25"/>
+      <c r="YS99" s="25"/>
+      <c r="YT99" s="25"/>
+      <c r="YU99" s="25"/>
+      <c r="YV99" s="25"/>
+      <c r="YW99" s="25"/>
+      <c r="YX99" s="25"/>
+      <c r="YY99" s="25"/>
+      <c r="YZ99" s="25"/>
+      <c r="ZA99" s="25"/>
+      <c r="ZB99" s="25"/>
+      <c r="ZC99" s="25"/>
+      <c r="ZD99" s="25"/>
+      <c r="ZE99" s="25"/>
+      <c r="ZF99" s="25"/>
+      <c r="ZG99" s="25"/>
+      <c r="ZH99" s="25"/>
+      <c r="ZI99" s="25"/>
+      <c r="ZJ99" s="25"/>
+      <c r="ZK99" s="25"/>
+      <c r="ZL99" s="25"/>
+      <c r="ZM99" s="25"/>
+      <c r="ZN99" s="25"/>
+      <c r="ZO99" s="25"/>
+      <c r="ZP99" s="25"/>
+      <c r="ZQ99" s="25"/>
+      <c r="ZR99" s="25"/>
+      <c r="ZS99" s="25"/>
+      <c r="ZT99" s="25"/>
+      <c r="ZU99" s="25"/>
+      <c r="ZV99" s="25"/>
+      <c r="ZW99" s="25"/>
+      <c r="ZX99" s="25"/>
+      <c r="ZY99" s="25"/>
+      <c r="ZZ99" s="25"/>
+      <c r="AAA99" s="25"/>
+      <c r="AAB99" s="25"/>
+      <c r="AAC99" s="25"/>
+      <c r="AAD99" s="25"/>
+      <c r="AAE99" s="25"/>
+      <c r="AAF99" s="25"/>
+      <c r="AAG99" s="25"/>
+      <c r="AAH99" s="25"/>
+      <c r="AAI99" s="25"/>
+      <c r="AAJ99" s="25"/>
+      <c r="AAK99" s="25"/>
+      <c r="AAL99" s="25"/>
+      <c r="AAM99" s="25"/>
+      <c r="AAN99" s="25"/>
+      <c r="AAO99" s="25"/>
+      <c r="AAP99" s="25"/>
+      <c r="AAQ99" s="25"/>
+      <c r="AAR99" s="25"/>
+      <c r="AAS99" s="25"/>
+      <c r="AAT99" s="25"/>
+      <c r="AAU99" s="25"/>
+      <c r="AAV99" s="25"/>
+      <c r="AAW99" s="25"/>
+      <c r="AAX99" s="25"/>
+      <c r="AAY99" s="25"/>
+      <c r="AAZ99" s="25"/>
+      <c r="ABA99" s="25"/>
+      <c r="ABB99" s="25"/>
+      <c r="ABC99" s="25"/>
+      <c r="ABD99" s="25"/>
+      <c r="ABE99" s="25"/>
+      <c r="ABF99" s="25"/>
+      <c r="ABG99" s="25"/>
+      <c r="ABH99" s="25"/>
+      <c r="ABI99" s="25"/>
+      <c r="ABJ99" s="25"/>
+      <c r="ABK99" s="25"/>
+      <c r="ABL99" s="25"/>
+      <c r="ABM99" s="25"/>
+      <c r="ABN99" s="25"/>
+      <c r="ABO99" s="25"/>
+      <c r="ABP99" s="25"/>
+      <c r="ABQ99" s="25"/>
+      <c r="ABR99" s="25"/>
+      <c r="ABS99" s="25"/>
+      <c r="ABT99" s="25"/>
+      <c r="ABU99" s="25"/>
+      <c r="ABV99" s="25"/>
+      <c r="ABW99" s="25"/>
+      <c r="ABX99" s="25"/>
+      <c r="ABY99" s="25"/>
+      <c r="ABZ99" s="25"/>
+      <c r="ACA99" s="25"/>
+      <c r="ACB99" s="25"/>
+      <c r="ACC99" s="25"/>
+      <c r="ACD99" s="25"/>
+      <c r="ACE99" s="25"/>
+      <c r="ACF99" s="25"/>
+      <c r="ACG99" s="25"/>
+      <c r="ACH99" s="25"/>
+      <c r="ACI99" s="25"/>
+      <c r="ACJ99" s="25"/>
+      <c r="ACK99" s="25"/>
+      <c r="ACL99" s="25"/>
+      <c r="ACM99" s="25"/>
+      <c r="ACN99" s="25"/>
+      <c r="ACO99" s="25"/>
+      <c r="ACP99" s="25"/>
+      <c r="ACQ99" s="25"/>
+      <c r="ACR99" s="25"/>
+      <c r="ACS99" s="25"/>
+      <c r="ACT99" s="25"/>
+      <c r="ACU99" s="25"/>
+      <c r="ACV99" s="25"/>
+      <c r="ACW99" s="25"/>
+      <c r="ACX99" s="25"/>
+      <c r="ACY99" s="25"/>
+      <c r="ACZ99" s="25"/>
+      <c r="ADA99" s="25"/>
+      <c r="ADB99" s="25"/>
+      <c r="ADC99" s="25"/>
+      <c r="ADD99" s="25"/>
+      <c r="ADE99" s="25"/>
+      <c r="ADF99" s="25"/>
+      <c r="ADG99" s="25"/>
+      <c r="ADH99" s="25"/>
+      <c r="ADI99" s="25"/>
+      <c r="ADJ99" s="25"/>
+      <c r="ADK99" s="25"/>
+      <c r="ADL99" s="25"/>
+      <c r="ADM99" s="25"/>
+      <c r="ADN99" s="25"/>
+      <c r="ADO99" s="25"/>
+      <c r="ADP99" s="25"/>
+      <c r="ADQ99" s="25"/>
+      <c r="ADR99" s="25"/>
+      <c r="ADS99" s="25"/>
+      <c r="ADT99" s="25"/>
+      <c r="ADU99" s="25"/>
+      <c r="ADV99" s="25"/>
+      <c r="ADW99" s="25"/>
+      <c r="ADX99" s="25"/>
+      <c r="ADY99" s="25"/>
+      <c r="ADZ99" s="25"/>
+      <c r="AEA99" s="25"/>
+      <c r="AEB99" s="25"/>
+      <c r="AEC99" s="25"/>
+      <c r="AED99" s="25"/>
+      <c r="AEE99" s="25"/>
+      <c r="AEF99" s="25"/>
+      <c r="AEG99" s="25"/>
+      <c r="AEH99" s="25"/>
+      <c r="AEI99" s="25"/>
+      <c r="AEJ99" s="25"/>
+      <c r="AEK99" s="25"/>
+      <c r="AEL99" s="25"/>
+      <c r="AEM99" s="25"/>
+      <c r="AEN99" s="25"/>
+      <c r="AEO99" s="25"/>
+      <c r="AEP99" s="25"/>
+      <c r="AEQ99" s="25"/>
+      <c r="AER99" s="25"/>
+      <c r="AES99" s="25"/>
+      <c r="AET99" s="25"/>
+      <c r="AEU99" s="25"/>
+      <c r="AEV99" s="25"/>
+      <c r="AEW99" s="25"/>
+      <c r="AEX99" s="25"/>
+      <c r="AEY99" s="25"/>
+      <c r="AEZ99" s="25"/>
+      <c r="AFA99" s="25"/>
+      <c r="AFB99" s="25"/>
+      <c r="AFC99" s="25"/>
+      <c r="AFD99" s="25"/>
+      <c r="AFE99" s="25"/>
+      <c r="AFF99" s="25"/>
+      <c r="AFG99" s="25"/>
+      <c r="AFH99" s="25"/>
+      <c r="AFI99" s="25"/>
+      <c r="AFJ99" s="25"/>
+      <c r="AFK99" s="25"/>
+      <c r="AFL99" s="25"/>
+      <c r="AFM99" s="25"/>
+      <c r="AFN99" s="25"/>
+      <c r="AFO99" s="25"/>
+      <c r="AFP99" s="25"/>
+      <c r="AFQ99" s="25"/>
+      <c r="AFR99" s="25"/>
+      <c r="AFS99" s="25"/>
+      <c r="AFT99" s="25"/>
+      <c r="AFU99" s="25"/>
+      <c r="AFV99" s="25"/>
+      <c r="AFW99" s="25"/>
+      <c r="AFX99" s="25"/>
+      <c r="AFY99" s="25"/>
+      <c r="AFZ99" s="25"/>
+      <c r="AGA99" s="25"/>
+      <c r="AGB99" s="25"/>
+      <c r="AGC99" s="25"/>
+      <c r="AGD99" s="25"/>
+      <c r="AGE99" s="25"/>
+      <c r="AGF99" s="25"/>
+      <c r="AGG99" s="25"/>
+      <c r="AGH99" s="25"/>
+      <c r="AGI99" s="25"/>
+      <c r="AGJ99" s="25"/>
+      <c r="AGK99" s="25"/>
+      <c r="AGL99" s="25"/>
+      <c r="AGM99" s="25"/>
+      <c r="AGN99" s="25"/>
+      <c r="AGO99" s="25"/>
+      <c r="AGP99" s="25"/>
+      <c r="AGQ99" s="25"/>
+      <c r="AGR99" s="25"/>
+      <c r="AGS99" s="25"/>
+      <c r="AGT99" s="25"/>
+      <c r="AGU99" s="25"/>
+      <c r="AGV99" s="25"/>
+      <c r="AGW99" s="25"/>
+      <c r="AGX99" s="25"/>
+      <c r="AGY99" s="25"/>
+      <c r="AGZ99" s="25"/>
+      <c r="AHA99" s="25"/>
+      <c r="AHB99" s="25"/>
+      <c r="AHC99" s="25"/>
+      <c r="AHD99" s="25"/>
+      <c r="AHE99" s="25"/>
+      <c r="AHF99" s="25"/>
+      <c r="AHG99" s="25"/>
+      <c r="AHH99" s="25"/>
+      <c r="AHI99" s="25"/>
+      <c r="AHJ99" s="25"/>
+      <c r="AHK99" s="25"/>
+      <c r="AHL99" s="25"/>
+      <c r="AHM99" s="25"/>
+      <c r="AHN99" s="25"/>
+      <c r="AHO99" s="25"/>
+      <c r="AHP99" s="25"/>
+      <c r="AHQ99" s="25"/>
+      <c r="AHR99" s="25"/>
+      <c r="AHS99" s="25"/>
+      <c r="AHT99" s="25"/>
+      <c r="AHU99" s="25"/>
+      <c r="AHV99" s="25"/>
+      <c r="AHW99" s="25"/>
+      <c r="AHX99" s="25"/>
+      <c r="AHY99" s="25"/>
+      <c r="AHZ99" s="25"/>
+      <c r="AIA99" s="25"/>
+      <c r="AIB99" s="25"/>
+      <c r="AIC99" s="25"/>
+      <c r="AID99" s="25"/>
+      <c r="AIE99" s="25"/>
+      <c r="AIF99" s="25"/>
+      <c r="AIG99" s="25"/>
+      <c r="AIH99" s="25"/>
+      <c r="AII99" s="25"/>
+      <c r="AIJ99" s="25"/>
+      <c r="AIK99" s="25"/>
+      <c r="AIL99" s="25"/>
+      <c r="AIM99" s="25"/>
+      <c r="AIN99" s="25"/>
+      <c r="AIO99" s="25"/>
+      <c r="AIP99" s="25"/>
+      <c r="AIQ99" s="25"/>
+      <c r="AIR99" s="25"/>
+      <c r="AIS99" s="25"/>
+      <c r="AIT99" s="25"/>
+      <c r="AIU99" s="25"/>
+      <c r="AIV99" s="25"/>
+      <c r="AIW99" s="25"/>
+      <c r="AIX99" s="25"/>
+      <c r="AIY99" s="25"/>
+      <c r="AIZ99" s="25"/>
+      <c r="AJA99" s="25"/>
+      <c r="AJB99" s="25"/>
+      <c r="AJC99" s="25"/>
+      <c r="AJD99" s="25"/>
+      <c r="AJE99" s="25"/>
+      <c r="AJF99" s="25"/>
+      <c r="AJG99" s="25"/>
+      <c r="AJH99" s="25"/>
+      <c r="AJI99" s="25"/>
+      <c r="AJJ99" s="25"/>
+      <c r="AJK99" s="25"/>
+      <c r="AJL99" s="25"/>
+      <c r="AJM99" s="25"/>
+      <c r="AJN99" s="25"/>
+      <c r="AJO99" s="25"/>
+      <c r="AJP99" s="25"/>
+      <c r="AJQ99" s="25"/>
+      <c r="AJR99" s="25"/>
+      <c r="AJS99" s="25"/>
+      <c r="AJT99" s="25"/>
+      <c r="AJU99" s="25"/>
+      <c r="AJV99" s="25"/>
+      <c r="AJW99" s="25"/>
+      <c r="AJX99" s="25"/>
+      <c r="AJY99" s="25"/>
+      <c r="AJZ99" s="25"/>
+      <c r="AKA99" s="25"/>
+      <c r="AKB99" s="25"/>
+      <c r="AKC99" s="25"/>
+      <c r="AKD99" s="25"/>
+      <c r="AKE99" s="25"/>
+      <c r="AKF99" s="25"/>
+      <c r="AKG99" s="25"/>
+      <c r="AKH99" s="25"/>
+      <c r="AKI99" s="25"/>
+      <c r="AKJ99" s="25"/>
+      <c r="AKK99" s="25"/>
+      <c r="AKL99" s="25"/>
+      <c r="AKM99" s="25"/>
+      <c r="AKN99" s="25"/>
+      <c r="AKO99" s="25"/>
+      <c r="AKP99" s="25"/>
+      <c r="AKQ99" s="25"/>
+      <c r="AKR99" s="25"/>
+      <c r="AKS99" s="25"/>
+      <c r="AKT99" s="25"/>
+      <c r="AKU99" s="25"/>
+      <c r="AKV99" s="25"/>
+      <c r="AKW99" s="25"/>
+      <c r="AKX99" s="25"/>
+      <c r="AKY99" s="25"/>
+      <c r="AKZ99" s="25"/>
+      <c r="ALA99" s="25"/>
+      <c r="ALB99" s="25"/>
+      <c r="ALC99" s="25"/>
+      <c r="ALD99" s="25"/>
+      <c r="ALE99" s="25"/>
+      <c r="ALF99" s="25"/>
+      <c r="ALG99" s="25"/>
+      <c r="ALH99" s="25"/>
+      <c r="ALI99" s="25"/>
+      <c r="ALJ99" s="25"/>
+      <c r="ALK99" s="25"/>
+      <c r="ALL99" s="25"/>
+      <c r="ALM99" s="25"/>
+      <c r="ALN99" s="25"/>
+      <c r="ALO99" s="25"/>
+      <c r="ALP99" s="25"/>
+      <c r="ALQ99" s="25"/>
+      <c r="ALR99" s="25"/>
+      <c r="ALS99" s="25"/>
+      <c r="ALT99" s="25"/>
+      <c r="ALU99" s="25"/>
+      <c r="ALV99" s="25"/>
+      <c r="ALW99" s="25"/>
+      <c r="ALX99" s="25"/>
+      <c r="ALY99" s="25"/>
+      <c r="ALZ99" s="25"/>
+      <c r="AMA99" s="25"/>
+      <c r="AMB99" s="25"/>
+      <c r="AMC99" s="25"/>
+      <c r="AMD99" s="25"/>
+      <c r="AME99" s="25"/>
+      <c r="AMF99" s="25"/>
+      <c r="AMG99" s="25"/>
+      <c r="AMH99" s="25"/>
+      <c r="AMI99" s="25"/>
+      <c r="AMJ99" s="25"/>
+      <c r="AMK99" s="25"/>
+      <c r="AML99" s="25"/>
+      <c r="AMM99" s="25"/>
     </row>
     <row r="100" spans="1:1027" s="16" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
